--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E860D3-FEE7-42B7-9AE9-9D4CA361D735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDF112-8BC4-4A23-83F3-24C423E85F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="424">
   <si>
     <t>DATE</t>
   </si>
@@ -1293,6 +1293,15 @@
   </si>
   <si>
     <t>CONTACT_INFO</t>
+  </si>
+  <si>
+    <t>TIME_TRANS_MIN</t>
+  </si>
+  <si>
+    <t>CUST_BEFORE</t>
+  </si>
+  <si>
+    <t>CUST_MORE</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1312,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,19 +1334,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1371,24 +1367,21 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1729,31 +1722,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="16.90625" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.36328125" customWidth="1"/>
+    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -1763,51 +1759,56 @@
       <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>417</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>418</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>419</v>
+        <v>217</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="Q1" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1077501</v>
       </c>
@@ -1817,50 +1818,55 @@
       <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="3">
-        <v>42915</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>24000</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="8">
+      <c r="G2" s="6">
         <v>4374</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>317</v>
       </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
       <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" t="s">
         <v>215</v>
       </c>
-      <c r="L2">
+      <c r="K2">
         <v>827</v>
       </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
       <c r="M2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
         <v>1000000</v>
       </c>
-      <c r="Q2" s="6">
-        <f>P2</f>
+      <c r="P2" s="4">
+        <f>O2</f>
         <v>1000000</v>
       </c>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2" s="9">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1077430</v>
       </c>
@@ -1870,50 +1876,55 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="3">
-        <v>42921</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>30000</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8">
+      <c r="G3" s="6">
         <v>9695</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>318</v>
       </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
       <c r="J3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" t="s">
         <v>215</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>901</v>
       </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
       <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
         <v>219</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
         <v>1000000</v>
       </c>
-      <c r="Q3" s="7">
-        <f>Q2+P3</f>
+      <c r="P3" s="5">
+        <f>P2+O3</f>
         <v>2000000</v>
       </c>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Q3" s="9">
+        <v>3</v>
+      </c>
+      <c r="R3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1077175</v>
       </c>
@@ -1923,50 +1934,55 @@
       <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3">
-        <v>42934</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>12252</v>
       </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
       <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="8">
+      <c r="G4" s="6">
         <v>7304</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>319</v>
       </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
       <c r="J4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" t="s">
         <v>215</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>403</v>
       </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
       <c r="M4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" t="s">
         <v>220</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
         <v>500000</v>
       </c>
-      <c r="Q4" s="7">
-        <f>Q3+P4</f>
+      <c r="P4" s="5">
+        <f>P3+O4</f>
         <v>2500000</v>
       </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1076863</v>
       </c>
@@ -1976,50 +1992,55 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="3">
-        <v>42948</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>49200</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="8">
+      <c r="G5" s="6">
         <v>5008</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>320</v>
       </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
       <c r="J5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" t="s">
         <v>216</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>550</v>
       </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
       <c r="M5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
         <v>3000000</v>
       </c>
-      <c r="Q5" s="7">
-        <f>Q4+P5-O5</f>
+      <c r="P5" s="5">
+        <f>P4+O5-N5</f>
         <v>5500000</v>
       </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="Q5" s="9">
+        <v>10</v>
+      </c>
+      <c r="R5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1075358</v>
       </c>
@@ -2029,50 +2050,55 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
         <v>80000</v>
       </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
       <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="8">
+      <c r="G6" s="6">
         <v>1826</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>321</v>
       </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
       <c r="J6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" t="s">
         <v>215</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>777</v>
       </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
       <c r="M6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" t="s">
         <v>222</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>500000</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" ref="Q6:Q69" si="0">Q5+P6-O6</f>
+      <c r="P6" s="5">
+        <f t="shared" ref="P6:P69" si="0">P5+O6-N6</f>
         <v>6000000</v>
       </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1075269</v>
       </c>
@@ -2082,50 +2108,55 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
         <v>36000</v>
       </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
       <c r="F7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="6">
         <v>1757</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>322</v>
       </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
       <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
         <v>215</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>131</v>
       </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
       <c r="M7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>500000</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
         <v>6500000</v>
       </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7" s="9">
+        <v>4</v>
+      </c>
+      <c r="R7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1069639</v>
       </c>
@@ -2135,50 +2166,55 @@
       <c r="C8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
         <v>47004</v>
       </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="8">
+      <c r="G8" s="6">
         <v>3669</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>323</v>
       </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
       <c r="J8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" t="s">
         <v>216</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>829</v>
       </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
       <c r="M8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" t="s">
         <v>224</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>500000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8" s="9">
+        <v>6</v>
+      </c>
+      <c r="R8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1072053</v>
       </c>
@@ -2188,50 +2224,55 @@
       <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>48000</v>
       </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="6">
         <v>9488</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>324</v>
       </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
       <c r="J9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" t="s">
         <v>215</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>601</v>
       </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
       <c r="M9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" t="s">
         <v>225</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
         <v>500000</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="9">
+        <v>7</v>
+      </c>
+      <c r="R9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1071795</v>
       </c>
@@ -2241,50 +2282,55 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>40000</v>
       </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="8">
+      <c r="G10" s="6">
         <v>9527</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>325</v>
       </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
       <c r="J10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" t="s">
         <v>215</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>253</v>
       </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
       <c r="M10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" t="s">
         <v>226</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
         <v>500000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="9">
+        <v>2</v>
+      </c>
+      <c r="R10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1071570</v>
       </c>
@@ -2294,50 +2340,55 @@
       <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>15000</v>
       </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
       <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="8">
+      <c r="G11" s="6">
         <v>2204</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>326</v>
       </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
       <c r="J11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" t="s">
         <v>215</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>932</v>
       </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
       <c r="M11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" t="s">
         <v>227</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
         <v>500000</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>8500000</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="Q11" s="9">
+        <v>8</v>
+      </c>
+      <c r="R11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1070078</v>
       </c>
@@ -2347,50 +2398,55 @@
       <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
         <v>72000</v>
       </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="8">
+      <c r="G12" s="6">
         <v>6016</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>327</v>
       </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
       <c r="J12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" t="s">
         <v>216</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>815</v>
       </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
       <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
         <v>228</v>
       </c>
-      <c r="O12" s="1">
+      <c r="N12" s="1">
         <v>133900</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="7">
+      <c r="O12" s="1"/>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>8366100</v>
       </c>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12" s="9">
+        <v>4</v>
+      </c>
+      <c r="R12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1069908</v>
       </c>
@@ -2400,50 +2456,55 @@
       <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E13">
+      <c r="D13">
         <v>75000</v>
       </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="8">
+      <c r="G13" s="6">
         <v>5886</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>328</v>
       </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
       <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
         <v>215</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>846</v>
       </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
       <c r="M13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s">
         <v>229</v>
       </c>
-      <c r="O13" s="1">
+      <c r="N13" s="1">
         <v>18000</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="7">
+      <c r="O13" s="1"/>
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>8348100</v>
       </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="9">
+        <v>10</v>
+      </c>
+      <c r="R13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1064687</v>
       </c>
@@ -2453,50 +2514,55 @@
       <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
         <v>30000</v>
       </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="8">
+      <c r="G14" s="6">
         <v>4718</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>329</v>
       </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
       <c r="J14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s">
         <v>215</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <v>585</v>
       </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
       <c r="M14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" t="s">
         <v>230</v>
       </c>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
         <v>5000</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="7">
+      <c r="O14" s="1"/>
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>8343100</v>
       </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="Q14" s="9">
+        <v>2</v>
+      </c>
+      <c r="R14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1069866</v>
       </c>
@@ -2506,50 +2572,55 @@
       <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E15">
+      <c r="D15">
         <v>15000</v>
       </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="8">
+      <c r="G15" s="6">
         <v>7733</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>330</v>
       </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
       <c r="J15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" t="s">
         <v>215</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>832</v>
       </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
       <c r="M15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" t="s">
         <v>231</v>
       </c>
-      <c r="O15" s="1">
+      <c r="N15" s="1">
         <v>195800</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="7">
+      <c r="O15" s="1"/>
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>8147300</v>
       </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="Q15" s="9">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1069057</v>
       </c>
@@ -2559,50 +2630,55 @@
       <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E16">
+      <c r="D16">
         <v>100000</v>
       </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="8">
+      <c r="G16" s="6">
         <v>4725</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
       <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
         <v>216</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>252</v>
       </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
       <c r="M16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
         <v>232</v>
       </c>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <v>81600</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="7">
+      <c r="O16" s="1"/>
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>8065700</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="Q16" s="9">
+        <v>6</v>
+      </c>
+      <c r="R16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1069759</v>
       </c>
@@ -2612,50 +2688,55 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <v>28000</v>
       </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="8">
+      <c r="G17" s="6">
         <v>6728</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>332</v>
       </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
       <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" t="s">
         <v>216</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>331</v>
       </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
       <c r="M17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
         <v>233</v>
       </c>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
         <v>41800</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="7">
+      <c r="O17" s="1"/>
+      <c r="P17" s="5">
         <f t="shared" si="0"/>
         <v>8023900</v>
       </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Q17" s="9">
+        <v>9</v>
+      </c>
+      <c r="R17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1065775</v>
       </c>
@@ -2665,50 +2746,55 @@
       <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E18">
+      <c r="D18">
         <v>42000</v>
       </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="8">
+      <c r="G18" s="6">
         <v>2025</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>333</v>
       </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
       <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
         <v>216</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>883</v>
       </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
       <c r="M18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" t="s">
         <v>234</v>
       </c>
-      <c r="O18" s="1">
+      <c r="N18" s="1">
         <v>98500</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="7">
+      <c r="O18" s="1"/>
+      <c r="P18" s="5">
         <f t="shared" si="0"/>
         <v>7925400</v>
       </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Q18" s="9">
+        <v>7</v>
+      </c>
+      <c r="R18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1069971</v>
       </c>
@@ -2718,50 +2804,55 @@
       <c r="C19" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>110000</v>
       </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="8">
+      <c r="G19" s="6">
         <v>1982</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>334</v>
       </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
       <c r="J19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" t="s">
         <v>216</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>145</v>
       </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
       <c r="M19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
         <v>235</v>
       </c>
-      <c r="O19" s="1">
+      <c r="N19" s="1">
         <v>143800</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="7">
+      <c r="O19" s="1"/>
+      <c r="P19" s="5">
         <f t="shared" si="0"/>
         <v>7781600</v>
       </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="Q19" s="9">
+        <v>5</v>
+      </c>
+      <c r="R19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1062474</v>
       </c>
@@ -2771,50 +2862,55 @@
       <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
         <v>84000</v>
       </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="8">
+      <c r="G20" s="6">
         <v>6535</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>335</v>
       </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
       <c r="J20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" t="s">
         <v>216</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>336</v>
       </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
       <c r="M20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
         <v>236</v>
       </c>
-      <c r="O20" s="1">
+      <c r="N20" s="1">
         <v>331650</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="7">
+      <c r="O20" s="1"/>
+      <c r="P20" s="5">
         <f t="shared" si="0"/>
         <v>7449950</v>
       </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20" s="9">
+        <v>8</v>
+      </c>
+      <c r="R20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1069742</v>
       </c>
@@ -2824,50 +2920,55 @@
       <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
         <v>77385</v>
       </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="8">
+      <c r="G21" s="6">
         <v>9618</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>336</v>
       </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
       <c r="J21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="s">
         <v>216</v>
       </c>
-      <c r="L21">
+      <c r="K21">
         <v>559</v>
       </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
       <c r="M21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
         <v>237</v>
       </c>
-      <c r="O21" s="1">
+      <c r="N21" s="1">
         <v>129000</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="7">
+      <c r="O21" s="1"/>
+      <c r="P21" s="5">
         <f t="shared" si="0"/>
         <v>7320950</v>
       </c>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Q21" s="9">
+        <v>10</v>
+      </c>
+      <c r="R21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1069740</v>
       </c>
@@ -2877,50 +2978,55 @@
       <c r="C22" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
         <v>43370</v>
       </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="8">
+      <c r="G22" s="6">
         <v>5769</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>337</v>
       </c>
+      <c r="I22" t="s">
+        <v>136</v>
+      </c>
       <c r="J22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" t="s">
         <v>215</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>731</v>
       </c>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
       <c r="M22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" t="s">
         <v>238</v>
       </c>
-      <c r="O22" s="1">
+      <c r="N22" s="1">
         <v>230013</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="7">
+      <c r="O22" s="1"/>
+      <c r="P22" s="5">
         <f t="shared" si="0"/>
         <v>7090937</v>
       </c>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Q22" s="9">
+        <v>10</v>
+      </c>
+      <c r="R22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1039153</v>
       </c>
@@ -2930,50 +3036,55 @@
       <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E23">
+      <c r="D23">
         <v>105000</v>
       </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="8">
+      <c r="G23" s="6">
         <v>3693</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>338</v>
       </c>
+      <c r="I23" t="s">
+        <v>137</v>
+      </c>
       <c r="J23" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" t="s">
         <v>215</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>303</v>
       </c>
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
       <c r="M23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" t="s">
         <v>239</v>
       </c>
-      <c r="O23" s="1">
+      <c r="N23" s="1">
         <v>367900</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="7">
+      <c r="O23" s="1"/>
+      <c r="P23" s="5">
         <f t="shared" si="0"/>
         <v>6723037</v>
       </c>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="Q23" s="9">
+        <v>8</v>
+      </c>
+      <c r="R23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1069710</v>
       </c>
@@ -2983,50 +3094,55 @@
       <c r="C24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E24">
+      <c r="D24">
         <v>50000</v>
       </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="8">
+      <c r="G24" s="6">
         <v>5329</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="8" t="s">
         <v>339</v>
       </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
       <c r="J24" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" t="s">
         <v>216</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>672</v>
       </c>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
       <c r="M24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="1">
+      <c r="N24" s="1">
         <v>108000</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="7">
+      <c r="O24" s="1"/>
+      <c r="P24" s="5">
         <f t="shared" si="0"/>
         <v>6615037</v>
       </c>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Q24" s="9">
+        <v>2</v>
+      </c>
+      <c r="R24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1069700</v>
       </c>
@@ -3036,50 +3152,55 @@
       <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <v>50000</v>
       </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="8">
+      <c r="G25" s="6">
         <v>8658</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="8" t="s">
         <v>340</v>
       </c>
+      <c r="I25" t="s">
+        <v>139</v>
+      </c>
       <c r="J25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" t="s">
         <v>215</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>317</v>
       </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
       <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" t="s">
         <v>241</v>
       </c>
-      <c r="O25" s="1">
+      <c r="N25" s="1">
         <v>64800</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="7">
+      <c r="O25" s="1"/>
+      <c r="P25" s="5">
         <f t="shared" si="0"/>
         <v>6550237</v>
       </c>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="Q25" s="9">
+        <v>3</v>
+      </c>
+      <c r="R25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1069559</v>
       </c>
@@ -3089,50 +3210,55 @@
       <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
         <v>76000</v>
       </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="8">
+      <c r="G26" s="6">
         <v>2108</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="8" t="s">
         <v>341</v>
       </c>
+      <c r="I26" t="s">
+        <v>140</v>
+      </c>
       <c r="J26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" t="s">
         <v>215</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>281</v>
       </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
       <c r="M26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" t="s">
         <v>242</v>
       </c>
-      <c r="O26" s="1">
+      <c r="N26" s="1">
         <v>141000</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="7">
+      <c r="O26" s="1"/>
+      <c r="P26" s="5">
         <f t="shared" si="0"/>
         <v>6409237</v>
       </c>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="Q26" s="9">
+        <v>7</v>
+      </c>
+      <c r="R26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1069697</v>
       </c>
@@ -3142,50 +3268,55 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
         <v>92000</v>
       </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="8">
+      <c r="G27" s="6">
         <v>1504</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>342</v>
       </c>
+      <c r="I27" t="s">
+        <v>141</v>
+      </c>
       <c r="J27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" t="s">
         <v>215</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>599</v>
       </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
       <c r="M27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" t="s">
         <v>243</v>
       </c>
-      <c r="O27" s="1">
+      <c r="N27" s="1">
         <v>61750</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="7">
+      <c r="O27" s="1"/>
+      <c r="P27" s="5">
         <f t="shared" si="0"/>
         <v>6347487</v>
       </c>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="Q27" s="9">
+        <v>3</v>
+      </c>
+      <c r="R27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1069800</v>
       </c>
@@ -3195,50 +3326,55 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E28">
+      <c r="D28">
         <v>60000</v>
       </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="8">
+      <c r="G28" s="6">
         <v>2462</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>343</v>
       </c>
+      <c r="I28" t="s">
+        <v>142</v>
+      </c>
       <c r="J28" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" t="s">
         <v>216</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>367</v>
       </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
       <c r="M28" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" t="s">
         <v>244</v>
       </c>
-      <c r="O28" s="1">
+      <c r="N28" s="1">
         <v>67920</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="7">
+      <c r="O28" s="1"/>
+      <c r="P28" s="5">
         <f t="shared" si="0"/>
         <v>6279567</v>
       </c>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="Q28" s="9">
+        <v>3</v>
+      </c>
+      <c r="R28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1069657</v>
       </c>
@@ -3248,50 +3384,55 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E29">
+      <c r="D29">
         <v>50004</v>
       </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="8">
+      <c r="G29" s="6">
         <v>1775</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>344</v>
       </c>
+      <c r="I29" t="s">
+        <v>143</v>
+      </c>
       <c r="J29" t="s">
-        <v>143</v>
-      </c>
-      <c r="K29" t="s">
         <v>216</v>
       </c>
-      <c r="L29">
+      <c r="K29">
         <v>988</v>
       </c>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
       <c r="M29" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" t="s">
         <v>245</v>
       </c>
-      <c r="O29" s="1">
+      <c r="N29" s="1">
         <v>78100</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="7">
+      <c r="O29" s="1"/>
+      <c r="P29" s="5">
         <f t="shared" si="0"/>
         <v>6201467</v>
       </c>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="Q29" s="9">
+        <v>7</v>
+      </c>
+      <c r="R29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1069799</v>
       </c>
@@ -3301,50 +3442,55 @@
       <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E30">
+      <c r="D30">
         <v>106000</v>
       </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="8">
+      <c r="G30" s="6">
         <v>7994</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="8" t="s">
         <v>345</v>
       </c>
+      <c r="I30" t="s">
+        <v>144</v>
+      </c>
       <c r="J30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K30" t="s">
         <v>216</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>308</v>
       </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
       <c r="M30" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" t="s">
         <v>246</v>
       </c>
-      <c r="O30" s="1">
+      <c r="N30" s="1">
         <v>35650</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="7">
+      <c r="O30" s="1"/>
+      <c r="P30" s="5">
         <f t="shared" si="0"/>
         <v>6165817</v>
       </c>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="Q30" s="9">
+        <v>5</v>
+      </c>
+      <c r="R30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1047704</v>
       </c>
@@ -3354,50 +3500,55 @@
       <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E31">
+      <c r="D31">
         <v>25000</v>
       </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="8">
+      <c r="G31" s="6">
         <v>4860</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>346</v>
       </c>
+      <c r="I31" t="s">
+        <v>145</v>
+      </c>
       <c r="J31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" t="s">
         <v>215</v>
       </c>
-      <c r="L31">
+      <c r="K31">
         <v>318</v>
       </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
       <c r="M31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" t="s">
         <v>247</v>
       </c>
-      <c r="O31" s="1">
+      <c r="N31" s="1">
         <v>206000</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="7">
+      <c r="O31" s="1"/>
+      <c r="P31" s="5">
         <f t="shared" si="0"/>
         <v>5959817</v>
       </c>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="Q31" s="9">
+        <v>1</v>
+      </c>
+      <c r="R31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1032111</v>
       </c>
@@ -3407,50 +3558,55 @@
       <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E32">
+      <c r="D32">
         <v>17108</v>
       </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="8">
+      <c r="G32" s="6">
         <v>5834</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>347</v>
       </c>
+      <c r="I32" t="s">
+        <v>146</v>
+      </c>
       <c r="J32" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" t="s">
         <v>216</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <v>177</v>
       </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
       <c r="M32" t="s">
-        <v>100</v>
-      </c>
-      <c r="N32" t="s">
         <v>248</v>
       </c>
-      <c r="O32" s="1">
+      <c r="N32" s="1">
         <v>35300</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="7">
+      <c r="O32" s="1"/>
+      <c r="P32" s="5">
         <f t="shared" si="0"/>
         <v>5924517</v>
       </c>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="Q32" s="9">
+        <v>5</v>
+      </c>
+      <c r="R32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1069539</v>
       </c>
@@ -3460,50 +3616,55 @@
       <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E33">
+      <c r="D33">
         <v>75000</v>
       </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6">
         <v>3166</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>348</v>
       </c>
+      <c r="I33" t="s">
+        <v>147</v>
+      </c>
       <c r="J33" t="s">
-        <v>147</v>
-      </c>
-      <c r="K33" t="s">
         <v>215</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <v>111</v>
       </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
       <c r="M33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" t="s">
         <v>249</v>
       </c>
-      <c r="O33" s="1">
+      <c r="N33" s="1">
         <v>49800</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="7">
+      <c r="O33" s="1"/>
+      <c r="P33" s="5">
         <f t="shared" si="0"/>
         <v>5874717</v>
       </c>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1065420</v>
       </c>
@@ -3513,50 +3674,55 @@
       <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E34">
+      <c r="D34">
         <v>29120</v>
       </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="8">
+      <c r="G34" s="6">
         <v>1933</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="8" t="s">
         <v>349</v>
       </c>
+      <c r="I34" t="s">
+        <v>148</v>
+      </c>
       <c r="J34" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" t="s">
         <v>215</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>262</v>
       </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
       <c r="M34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" t="s">
         <v>250</v>
       </c>
-      <c r="O34" s="1">
+      <c r="N34" s="1">
         <v>53000</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="7">
+      <c r="O34" s="1"/>
+      <c r="P34" s="5">
         <f t="shared" si="0"/>
         <v>5821717</v>
       </c>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="Q34" s="9">
+        <v>3</v>
+      </c>
+      <c r="R34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1069591</v>
       </c>
@@ -3566,50 +3732,55 @@
       <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E35">
+      <c r="D35">
         <v>24044</v>
       </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="8">
+      <c r="G35" s="6">
         <v>6755</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="8" t="s">
         <v>350</v>
       </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
       <c r="J35" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" t="s">
         <v>216</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <v>272</v>
       </c>
+      <c r="L35" t="s">
+        <v>100</v>
+      </c>
       <c r="M35" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" t="s">
         <v>251</v>
       </c>
-      <c r="O35" s="1">
+      <c r="N35" s="1">
         <v>91300</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="7">
+      <c r="O35" s="1"/>
+      <c r="P35" s="5">
         <f t="shared" si="0"/>
         <v>5730417</v>
       </c>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="Q35" s="9">
+        <v>3</v>
+      </c>
+      <c r="R35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1069530</v>
       </c>
@@ -3619,50 +3790,55 @@
       <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E36">
+      <c r="D36">
         <v>34000</v>
       </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="8">
+      <c r="G36" s="6">
         <v>8208</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="8" t="s">
         <v>351</v>
       </c>
+      <c r="I36" t="s">
+        <v>150</v>
+      </c>
       <c r="J36" t="s">
-        <v>150</v>
-      </c>
-      <c r="K36" t="s">
         <v>215</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>572</v>
       </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
       <c r="M36" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" t="s">
         <v>252</v>
       </c>
-      <c r="O36" s="1">
+      <c r="N36" s="1">
         <v>57499</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="7">
+      <c r="O36" s="1"/>
+      <c r="P36" s="5">
         <f t="shared" si="0"/>
         <v>5672918</v>
       </c>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="Q36" s="9">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1069522</v>
       </c>
@@ -3672,50 +3848,55 @@
       <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E37">
+      <c r="D37">
         <v>41000</v>
       </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="8">
+      <c r="G37" s="6">
         <v>8053</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="8" t="s">
         <v>352</v>
       </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
       <c r="J37" t="s">
-        <v>151</v>
-      </c>
-      <c r="K37" t="s">
         <v>216</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <v>461</v>
       </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
       <c r="M37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" t="s">
         <v>253</v>
       </c>
-      <c r="O37" s="1">
+      <c r="N37" s="1">
         <v>20000</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="7">
+      <c r="O37" s="1"/>
+      <c r="P37" s="5">
         <f t="shared" si="0"/>
         <v>5652918</v>
       </c>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="Q37" s="9">
+        <v>9</v>
+      </c>
+      <c r="R37" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1069361</v>
       </c>
@@ -3725,50 +3906,55 @@
       <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="3">
-        <v>42963</v>
-      </c>
-      <c r="E38">
+      <c r="D38">
         <v>55596</v>
       </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="8">
+      <c r="G38" s="6">
         <v>2464</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="8" t="s">
         <v>353</v>
       </c>
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
       <c r="J38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K38" t="s">
         <v>216</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>327</v>
       </c>
+      <c r="L38" t="s">
+        <v>100</v>
+      </c>
       <c r="M38" t="s">
-        <v>100</v>
-      </c>
-      <c r="N38" t="s">
         <v>254</v>
       </c>
-      <c r="O38" s="1">
+      <c r="N38" s="1">
         <v>19400</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="7">
+      <c r="O38" s="1"/>
+      <c r="P38" s="5">
         <f t="shared" si="0"/>
         <v>5633518</v>
       </c>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1069357</v>
       </c>
@@ -3778,50 +3964,55 @@
       <c r="C39" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E39">
+      <c r="D39">
         <v>45000</v>
       </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
       <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="8">
+      <c r="G39" s="6">
         <v>6729</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="8" t="s">
         <v>354</v>
       </c>
+      <c r="I39" t="s">
+        <v>153</v>
+      </c>
       <c r="J39" t="s">
-        <v>153</v>
-      </c>
-      <c r="K39" t="s">
         <v>216</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <v>713</v>
       </c>
+      <c r="L39" t="s">
+        <v>100</v>
+      </c>
       <c r="M39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" t="s">
         <v>255</v>
       </c>
-      <c r="O39" s="1">
+      <c r="N39" s="1">
         <v>40500</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="7">
+      <c r="O39" s="1"/>
+      <c r="P39" s="5">
         <f t="shared" si="0"/>
         <v>5593018</v>
       </c>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="Q39" s="9">
+        <v>3</v>
+      </c>
+      <c r="R39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1069356</v>
       </c>
@@ -3831,50 +4022,55 @@
       <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E40">
+      <c r="D40">
         <v>36852</v>
       </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
       <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="8">
+      <c r="G40" s="6">
         <v>6372</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="H40" s="8" t="s">
         <v>355</v>
       </c>
+      <c r="I40" t="s">
+        <v>154</v>
+      </c>
       <c r="J40" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" t="s">
         <v>215</v>
       </c>
-      <c r="L40">
+      <c r="K40">
         <v>236</v>
       </c>
+      <c r="L40" t="s">
+        <v>100</v>
+      </c>
       <c r="M40" t="s">
-        <v>100</v>
-      </c>
-      <c r="N40" t="s">
         <v>256</v>
       </c>
-      <c r="O40" s="1">
+      <c r="N40" s="1">
         <v>242300</v>
       </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="7">
+      <c r="O40" s="1"/>
+      <c r="P40" s="5">
         <f t="shared" si="0"/>
         <v>5350718</v>
       </c>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="Q40" s="9">
+        <v>8</v>
+      </c>
+      <c r="R40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1069346</v>
       </c>
@@ -3884,50 +4080,55 @@
       <c r="C41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E41">
+      <c r="D41">
         <v>27000</v>
       </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="8">
+      <c r="G41" s="6">
         <v>3427</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="8" t="s">
         <v>356</v>
       </c>
+      <c r="I41" t="s">
+        <v>155</v>
+      </c>
       <c r="J41" t="s">
-        <v>155</v>
-      </c>
-      <c r="K41" t="s">
         <v>216</v>
       </c>
-      <c r="L41">
+      <c r="K41">
         <v>375</v>
       </c>
+      <c r="L41" t="s">
+        <v>100</v>
+      </c>
       <c r="M41" t="s">
-        <v>100</v>
-      </c>
-      <c r="N41" t="s">
         <v>257</v>
       </c>
-      <c r="O41" s="1">
+      <c r="N41" s="1">
         <v>90100</v>
       </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="7">
+      <c r="O41" s="1"/>
+      <c r="P41" s="5">
         <f t="shared" si="0"/>
         <v>5260618</v>
       </c>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="Q41" s="9">
+        <v>5</v>
+      </c>
+      <c r="R41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1067573</v>
       </c>
@@ -3937,50 +4138,55 @@
       <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E42">
+      <c r="D42">
         <v>68004</v>
       </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
         <v>110</v>
       </c>
-      <c r="H42" s="8">
+      <c r="G42" s="6">
         <v>5026</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="H42" s="8" t="s">
         <v>357</v>
       </c>
+      <c r="I42" t="s">
+        <v>156</v>
+      </c>
       <c r="J42" t="s">
-        <v>156</v>
-      </c>
-      <c r="K42" t="s">
         <v>216</v>
       </c>
-      <c r="L42">
+      <c r="K42">
         <v>475</v>
       </c>
+      <c r="L42" t="s">
+        <v>100</v>
+      </c>
       <c r="M42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N42" t="s">
         <v>258</v>
       </c>
-      <c r="O42" s="1">
+      <c r="N42" s="1">
         <v>113250</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="7">
+      <c r="O42" s="1"/>
+      <c r="P42" s="5">
         <f t="shared" si="0"/>
         <v>5147368</v>
       </c>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="Q42" s="9">
+        <v>8</v>
+      </c>
+      <c r="R42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1069506</v>
       </c>
@@ -3990,50 +4196,55 @@
       <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E43">
+      <c r="D43">
         <v>62300</v>
       </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
       <c r="F43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="8">
+      <c r="G43" s="6">
         <v>4061</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="8" t="s">
         <v>358</v>
       </c>
+      <c r="I43" t="s">
+        <v>157</v>
+      </c>
       <c r="J43" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" t="s">
         <v>216</v>
       </c>
-      <c r="L43">
+      <c r="K43">
         <v>864</v>
       </c>
+      <c r="L43" t="s">
+        <v>100</v>
+      </c>
       <c r="M43" t="s">
-        <v>100</v>
-      </c>
-      <c r="N43" t="s">
         <v>259</v>
       </c>
-      <c r="O43" s="1">
+      <c r="N43" s="1">
         <v>12500</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="7">
+      <c r="O43" s="1"/>
+      <c r="P43" s="5">
         <f t="shared" si="0"/>
         <v>5134868</v>
       </c>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="Q43" s="9">
+        <v>8</v>
+      </c>
+      <c r="R43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1069314</v>
       </c>
@@ -4043,50 +4254,55 @@
       <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E44">
+      <c r="D44">
         <v>65000</v>
       </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
       <c r="F44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="8">
+      <c r="G44" s="6">
         <v>6119</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="H44" s="8" t="s">
         <v>359</v>
       </c>
+      <c r="I44" t="s">
+        <v>158</v>
+      </c>
       <c r="J44" t="s">
-        <v>158</v>
-      </c>
-      <c r="K44" t="s">
         <v>215</v>
       </c>
-      <c r="L44">
+      <c r="K44">
         <v>199</v>
       </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
       <c r="M44" t="s">
-        <v>100</v>
-      </c>
-      <c r="N44" t="s">
         <v>260</v>
       </c>
-      <c r="O44" s="1">
+      <c r="N44" s="1">
         <v>40000</v>
       </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="7">
+      <c r="O44" s="1"/>
+      <c r="P44" s="5">
         <f t="shared" si="0"/>
         <v>5094868</v>
       </c>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="Q44" s="9">
+        <v>4</v>
+      </c>
+      <c r="R44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1060578</v>
       </c>
@@ -4096,50 +4312,55 @@
       <c r="C45" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E45">
+      <c r="D45">
         <v>55000</v>
       </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
       <c r="F45" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="8">
+      <c r="G45" s="6">
         <v>6214</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="8" t="s">
         <v>360</v>
       </c>
+      <c r="I45" t="s">
+        <v>159</v>
+      </c>
       <c r="J45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" t="s">
         <v>215</v>
       </c>
-      <c r="L45">
+      <c r="K45">
         <v>537</v>
       </c>
+      <c r="L45" t="s">
+        <v>100</v>
+      </c>
       <c r="M45" t="s">
-        <v>100</v>
-      </c>
-      <c r="N45" t="s">
         <v>261</v>
       </c>
-      <c r="O45" s="1">
+      <c r="N45" s="1">
         <v>206900</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="7">
+      <c r="O45" s="1"/>
+      <c r="P45" s="5">
         <f t="shared" si="0"/>
         <v>4887968</v>
       </c>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1069469</v>
       </c>
@@ -4149,50 +4370,55 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E46">
+      <c r="D46">
         <v>45600</v>
       </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
       <c r="F46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" t="s">
         <v>102</v>
       </c>
-      <c r="H46" s="8">
+      <c r="G46" s="6">
         <v>8371</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="H46" s="8" t="s">
         <v>361</v>
       </c>
+      <c r="I46" t="s">
+        <v>160</v>
+      </c>
       <c r="J46" t="s">
-        <v>160</v>
-      </c>
-      <c r="K46" t="s">
         <v>216</v>
       </c>
-      <c r="L46">
+      <c r="K46">
         <v>334</v>
       </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
       <c r="M46" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" t="s">
         <v>262</v>
       </c>
-      <c r="O46" s="1">
+      <c r="N46" s="1">
         <v>276000</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="7">
+      <c r="O46" s="1"/>
+      <c r="P46" s="5">
         <f t="shared" si="0"/>
         <v>4611968</v>
       </c>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="Q46" s="9">
+        <v>7</v>
+      </c>
+      <c r="R46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1051117</v>
       </c>
@@ -4202,50 +4428,55 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E47">
+      <c r="D47">
         <v>80000</v>
       </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
       <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="8">
+      <c r="G47" s="6">
         <v>2389</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="8" t="s">
         <v>362</v>
       </c>
+      <c r="I47" t="s">
+        <v>161</v>
+      </c>
       <c r="J47" t="s">
-        <v>161</v>
-      </c>
-      <c r="K47" t="s">
         <v>215</v>
       </c>
-      <c r="L47">
+      <c r="K47">
         <v>170</v>
       </c>
+      <c r="L47" t="s">
+        <v>100</v>
+      </c>
       <c r="M47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" t="s">
         <v>263</v>
       </c>
-      <c r="O47" s="1">
+      <c r="N47" s="1">
         <v>171000</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="7">
+      <c r="O47" s="1"/>
+      <c r="P47" s="5">
         <f t="shared" si="0"/>
         <v>4440968</v>
       </c>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="Q47" s="9">
+        <v>8</v>
+      </c>
+      <c r="R47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1069465</v>
       </c>
@@ -4255,50 +4486,55 @@
       <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E48">
+      <c r="D48">
         <v>100000</v>
       </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
       <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="8">
+      <c r="G48" s="6">
         <v>5294</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="H48" s="8" t="s">
         <v>363</v>
       </c>
+      <c r="I48" t="s">
+        <v>162</v>
+      </c>
       <c r="J48" t="s">
-        <v>162</v>
-      </c>
-      <c r="K48" t="s">
         <v>216</v>
       </c>
-      <c r="L48">
+      <c r="K48">
         <v>351</v>
       </c>
+      <c r="L48" t="s">
+        <v>100</v>
+      </c>
       <c r="M48" t="s">
-        <v>100</v>
-      </c>
-      <c r="N48" t="s">
         <v>264</v>
       </c>
-      <c r="O48" s="1">
+      <c r="N48" s="1">
         <v>40100</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="7">
+      <c r="O48" s="1"/>
+      <c r="P48" s="5">
         <f t="shared" si="0"/>
         <v>4400868</v>
       </c>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="Q48" s="9">
+        <v>4</v>
+      </c>
+      <c r="R48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1069283</v>
       </c>
@@ -4308,50 +4544,55 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E49">
+      <c r="D49">
         <v>27000</v>
       </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
       <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="8">
+      <c r="G49" s="6">
         <v>2019</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="8" t="s">
         <v>364</v>
       </c>
+      <c r="I49" t="s">
+        <v>163</v>
+      </c>
       <c r="J49" t="s">
-        <v>163</v>
-      </c>
-      <c r="K49" t="s">
         <v>216</v>
       </c>
-      <c r="L49">
+      <c r="K49">
         <v>668</v>
       </c>
+      <c r="L49" t="s">
+        <v>100</v>
+      </c>
       <c r="M49" t="s">
-        <v>100</v>
-      </c>
-      <c r="N49" t="s">
         <v>265</v>
       </c>
-      <c r="O49" s="1">
+      <c r="N49" s="1">
         <v>189800</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="7">
+      <c r="O49" s="1"/>
+      <c r="P49" s="5">
         <f t="shared" si="0"/>
         <v>4211068</v>
       </c>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="Q49" s="9">
+        <v>4</v>
+      </c>
+      <c r="R49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1069287</v>
       </c>
@@ -4361,50 +4602,55 @@
       <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E50">
+      <c r="D50">
         <v>60000</v>
       </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
       <c r="F50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="8">
+      <c r="G50" s="6">
         <v>7812</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="H50" s="8" t="s">
         <v>365</v>
       </c>
+      <c r="I50" t="s">
+        <v>164</v>
+      </c>
       <c r="J50" t="s">
-        <v>164</v>
-      </c>
-      <c r="K50" t="s">
         <v>215</v>
       </c>
-      <c r="L50">
+      <c r="K50">
         <v>460</v>
       </c>
+      <c r="L50" t="s">
+        <v>100</v>
+      </c>
       <c r="M50" t="s">
-        <v>100</v>
-      </c>
-      <c r="N50" t="s">
         <v>266</v>
       </c>
-      <c r="O50" s="1">
+      <c r="N50" s="1">
         <v>55800</v>
       </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="7">
+      <c r="O50" s="1"/>
+      <c r="P50" s="5">
         <f t="shared" si="0"/>
         <v>4155268</v>
       </c>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="Q50" s="9">
+        <v>5</v>
+      </c>
+      <c r="R50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1069453</v>
       </c>
@@ -4414,50 +4660,55 @@
       <c r="C51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E51">
+      <c r="D51">
         <v>70000</v>
       </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
       <c r="F51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="8">
+      <c r="G51" s="6">
         <v>5439</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="8" t="s">
         <v>366</v>
       </c>
+      <c r="I51" t="s">
+        <v>165</v>
+      </c>
       <c r="J51" t="s">
-        <v>165</v>
-      </c>
-      <c r="K51" t="s">
         <v>216</v>
       </c>
-      <c r="L51">
+      <c r="K51">
         <v>679</v>
       </c>
+      <c r="L51" t="s">
+        <v>100</v>
+      </c>
       <c r="M51" t="s">
-        <v>100</v>
-      </c>
-      <c r="N51" t="s">
         <v>267</v>
       </c>
-      <c r="O51" s="1">
+      <c r="N51" s="1">
         <v>95400</v>
       </c>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="7">
+      <c r="O51" s="1"/>
+      <c r="P51" s="5">
         <f t="shared" si="0"/>
         <v>4059868</v>
       </c>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="Q51" s="9">
+        <v>5</v>
+      </c>
+      <c r="R51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1069248</v>
       </c>
@@ -4467,50 +4718,55 @@
       <c r="C52" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E52">
+      <c r="D52">
         <v>80000</v>
       </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
       <c r="F52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="8">
+      <c r="G52" s="6">
         <v>7087</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="8" t="s">
         <v>367</v>
       </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
       <c r="J52" t="s">
-        <v>166</v>
-      </c>
-      <c r="K52" t="s">
         <v>215</v>
       </c>
-      <c r="L52">
+      <c r="K52">
         <v>912</v>
       </c>
+      <c r="L52" t="s">
+        <v>100</v>
+      </c>
       <c r="M52" t="s">
-        <v>100</v>
-      </c>
-      <c r="N52" t="s">
         <v>268</v>
       </c>
-      <c r="O52" s="1">
+      <c r="N52" s="1">
         <v>271323</v>
       </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="7">
+      <c r="O52" s="1"/>
+      <c r="P52" s="5">
         <f t="shared" si="0"/>
         <v>3788545</v>
       </c>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="Q52" s="9">
+        <v>4</v>
+      </c>
+      <c r="R52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1068120</v>
       </c>
@@ -4520,50 +4776,55 @@
       <c r="C53" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E53">
+      <c r="D53">
         <v>110000</v>
       </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
       <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="8">
+      <c r="G53" s="6">
         <v>5469</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="8" t="s">
         <v>368</v>
       </c>
+      <c r="I53" t="s">
+        <v>167</v>
+      </c>
       <c r="J53" t="s">
-        <v>167</v>
-      </c>
-      <c r="K53" t="s">
         <v>215</v>
       </c>
-      <c r="L53">
+      <c r="K53">
         <v>449</v>
       </c>
+      <c r="L53" t="s">
+        <v>100</v>
+      </c>
       <c r="M53" t="s">
-        <v>100</v>
-      </c>
-      <c r="N53" t="s">
         <v>269</v>
       </c>
-      <c r="O53" s="1">
+      <c r="N53" s="1">
         <v>200600</v>
       </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="7">
+      <c r="O53" s="1"/>
+      <c r="P53" s="5">
         <f t="shared" si="0"/>
         <v>3587945</v>
       </c>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="Q53" s="9">
+        <v>3</v>
+      </c>
+      <c r="R53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1069244</v>
       </c>
@@ -4573,50 +4834,55 @@
       <c r="C54" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E54">
+      <c r="D54">
         <v>40000</v>
       </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
       <c r="F54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="8">
+      <c r="G54" s="6">
         <v>3625</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="8" t="s">
         <v>369</v>
       </c>
+      <c r="I54" t="s">
+        <v>168</v>
+      </c>
       <c r="J54" t="s">
-        <v>168</v>
-      </c>
-      <c r="K54" t="s">
         <v>216</v>
       </c>
-      <c r="L54">
+      <c r="K54">
         <v>758</v>
       </c>
+      <c r="L54" t="s">
+        <v>100</v>
+      </c>
       <c r="M54" t="s">
-        <v>100</v>
-      </c>
-      <c r="N54" t="s">
         <v>270</v>
       </c>
-      <c r="O54" s="1">
+      <c r="N54" s="1">
         <v>176900</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="7">
+      <c r="O54" s="1"/>
+      <c r="P54" s="5">
         <f t="shared" si="0"/>
         <v>3411045</v>
       </c>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="Q54" s="9">
+        <v>4</v>
+      </c>
+      <c r="R54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1069243</v>
       </c>
@@ -4626,50 +4892,55 @@
       <c r="C55" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E55">
+      <c r="D55">
         <v>50000</v>
       </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
       <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s">
         <v>103</v>
       </c>
-      <c r="H55" s="8">
+      <c r="G55" s="6">
         <v>6578</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="H55" s="8" t="s">
         <v>370</v>
       </c>
+      <c r="I55" t="s">
+        <v>169</v>
+      </c>
       <c r="J55" t="s">
-        <v>169</v>
-      </c>
-      <c r="K55" t="s">
         <v>215</v>
       </c>
-      <c r="L55">
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
         <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>100</v>
-      </c>
-      <c r="N55" t="s">
         <v>271</v>
       </c>
-      <c r="O55" s="1">
+      <c r="N55" s="1">
         <v>150050</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="7">
+      <c r="O55" s="1"/>
+      <c r="P55" s="5">
         <f t="shared" si="0"/>
         <v>3260995</v>
       </c>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="Q55" s="9">
+        <v>10</v>
+      </c>
+      <c r="R55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1069238</v>
       </c>
@@ -4679,50 +4950,55 @@
       <c r="C56" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E56">
+      <c r="D56">
         <v>46000</v>
       </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
       <c r="F56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="8">
+      <c r="G56" s="6">
         <v>2360</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="8" t="s">
         <v>371</v>
       </c>
+      <c r="I56" t="s">
+        <v>170</v>
+      </c>
       <c r="J56" t="s">
-        <v>170</v>
-      </c>
-      <c r="K56" t="s">
         <v>215</v>
       </c>
-      <c r="L56">
+      <c r="K56">
         <v>146</v>
       </c>
+      <c r="L56" t="s">
+        <v>100</v>
+      </c>
       <c r="M56" t="s">
-        <v>100</v>
-      </c>
-      <c r="N56" t="s">
         <v>272</v>
       </c>
-      <c r="O56" s="1">
+      <c r="N56" s="1">
         <v>82500</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="7">
+      <c r="O56" s="1"/>
+      <c r="P56" s="5">
         <f t="shared" si="0"/>
         <v>3178495</v>
       </c>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="Q56" s="9">
+        <v>5</v>
+      </c>
+      <c r="R56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1069410</v>
       </c>
@@ -4732,50 +5008,55 @@
       <c r="C57" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E57">
+      <c r="D57">
         <v>50000</v>
       </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
       <c r="F57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" t="s">
         <v>103</v>
       </c>
-      <c r="H57" s="8">
+      <c r="G57" s="6">
         <v>7324</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="8" t="s">
         <v>372</v>
       </c>
+      <c r="I57" t="s">
+        <v>171</v>
+      </c>
       <c r="J57" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" t="s">
         <v>216</v>
       </c>
-      <c r="L57">
+      <c r="K57">
         <v>951</v>
       </c>
+      <c r="L57" t="s">
+        <v>100</v>
+      </c>
       <c r="M57" t="s">
-        <v>100</v>
-      </c>
-      <c r="N57" t="s">
         <v>273</v>
       </c>
-      <c r="O57" s="1">
+      <c r="N57" s="1">
         <v>14800</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="7">
+      <c r="O57" s="1"/>
+      <c r="P57" s="5">
         <f t="shared" si="0"/>
         <v>3163695</v>
       </c>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="Q57" s="9">
+        <v>5</v>
+      </c>
+      <c r="R57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1068409</v>
       </c>
@@ -4785,50 +5066,55 @@
       <c r="C58" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E58">
+      <c r="D58">
         <v>81000</v>
       </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
       <c r="F58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" t="s">
         <v>109</v>
       </c>
-      <c r="H58" s="8">
+      <c r="G58" s="6">
         <v>6861</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="8" t="s">
         <v>373</v>
       </c>
+      <c r="I58" t="s">
+        <v>172</v>
+      </c>
       <c r="J58" t="s">
-        <v>172</v>
-      </c>
-      <c r="K58" t="s">
         <v>215</v>
       </c>
-      <c r="L58">
+      <c r="K58">
         <v>404</v>
       </c>
+      <c r="L58" t="s">
+        <v>100</v>
+      </c>
       <c r="M58" t="s">
-        <v>100</v>
-      </c>
-      <c r="N58" t="s">
         <v>274</v>
       </c>
-      <c r="O58" s="1">
+      <c r="N58" s="1">
         <v>150600</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="7">
+      <c r="O58" s="1"/>
+      <c r="P58" s="5">
         <f t="shared" si="0"/>
         <v>3013095</v>
       </c>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="Q58" s="9">
+        <v>6</v>
+      </c>
+      <c r="R58" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1068487</v>
       </c>
@@ -4838,50 +5124,55 @@
       <c r="C59" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E59">
+      <c r="D59">
         <v>39000</v>
       </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
       <c r="F59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="8">
+      <c r="G59" s="6">
         <v>4799</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="8" t="s">
         <v>374</v>
       </c>
+      <c r="I59" t="s">
+        <v>173</v>
+      </c>
       <c r="J59" t="s">
-        <v>173</v>
-      </c>
-      <c r="K59" t="s">
         <v>215</v>
       </c>
-      <c r="L59">
+      <c r="K59">
         <v>216</v>
       </c>
+      <c r="L59" t="s">
+        <v>100</v>
+      </c>
       <c r="M59" t="s">
-        <v>100</v>
-      </c>
-      <c r="N59" t="s">
         <v>275</v>
       </c>
-      <c r="O59" s="1">
+      <c r="N59" s="1">
         <v>203325</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="7">
+      <c r="O59" s="1"/>
+      <c r="P59" s="5">
         <f t="shared" si="0"/>
         <v>2809770</v>
       </c>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="Q59" s="9">
+        <v>8</v>
+      </c>
+      <c r="R59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1043961</v>
       </c>
@@ -4891,50 +5182,55 @@
       <c r="C60" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E60">
+      <c r="D60">
         <v>51400</v>
       </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
       <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s">
         <v>103</v>
       </c>
-      <c r="H60" s="8">
+      <c r="G60" s="6">
         <v>2822</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="8" t="s">
         <v>375</v>
       </c>
+      <c r="I60" t="s">
+        <v>174</v>
+      </c>
       <c r="J60" t="s">
-        <v>174</v>
-      </c>
-      <c r="K60" t="s">
         <v>216</v>
       </c>
-      <c r="L60">
+      <c r="K60">
         <v>981</v>
       </c>
+      <c r="L60" t="s">
+        <v>100</v>
+      </c>
       <c r="M60" t="s">
-        <v>100</v>
-      </c>
-      <c r="N60" t="s">
         <v>276</v>
       </c>
-      <c r="O60" s="1">
+      <c r="N60" s="1">
         <v>123900</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="7">
+      <c r="O60" s="1"/>
+      <c r="P60" s="5">
         <f t="shared" si="0"/>
         <v>2685870</v>
       </c>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="Q60" s="9">
+        <v>6</v>
+      </c>
+      <c r="R60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1068945</v>
       </c>
@@ -4944,50 +5240,55 @@
       <c r="C61" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E61">
+      <c r="D61">
         <v>33000</v>
       </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
       <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s">
         <v>107</v>
       </c>
-      <c r="H61" s="8">
+      <c r="G61" s="6">
         <v>4414</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="H61" s="8" t="s">
         <v>376</v>
       </c>
+      <c r="I61" t="s">
+        <v>175</v>
+      </c>
       <c r="J61" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" t="s">
         <v>216</v>
       </c>
-      <c r="L61">
+      <c r="K61">
         <v>116</v>
       </c>
+      <c r="L61" t="s">
+        <v>100</v>
+      </c>
       <c r="M61" t="s">
-        <v>100</v>
-      </c>
-      <c r="N61" t="s">
         <v>277</v>
       </c>
-      <c r="O61" s="1">
+      <c r="N61" s="1">
         <v>33863</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="7">
+      <c r="O61" s="1"/>
+      <c r="P61" s="5">
         <f t="shared" si="0"/>
         <v>2652007</v>
       </c>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="Q61" s="9">
+        <v>4</v>
+      </c>
+      <c r="R61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1069142</v>
       </c>
@@ -4997,50 +5298,55 @@
       <c r="C62" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E62">
+      <c r="D62">
         <v>30000</v>
       </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
         <v>111</v>
       </c>
-      <c r="H62" s="8">
+      <c r="G62" s="6">
         <v>7013</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="H62" s="8" t="s">
         <v>377</v>
       </c>
+      <c r="I62" t="s">
+        <v>176</v>
+      </c>
       <c r="J62" t="s">
-        <v>176</v>
-      </c>
-      <c r="K62" t="s">
         <v>216</v>
       </c>
-      <c r="L62">
+      <c r="K62">
         <v>554</v>
       </c>
+      <c r="L62" t="s">
+        <v>100</v>
+      </c>
       <c r="M62" t="s">
-        <v>100</v>
-      </c>
-      <c r="N62" t="s">
         <v>278</v>
       </c>
-      <c r="O62" s="1">
+      <c r="N62" s="1">
         <v>32000</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="7">
+      <c r="O62" s="1"/>
+      <c r="P62" s="5">
         <f t="shared" si="0"/>
         <v>2620007</v>
       </c>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="Q62" s="9">
+        <v>1</v>
+      </c>
+      <c r="R62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1068934</v>
       </c>
@@ -5050,50 +5356,55 @@
       <c r="C63" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E63">
+      <c r="D63">
         <v>40000</v>
       </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s">
         <v>108</v>
       </c>
-      <c r="H63" s="8">
+      <c r="G63" s="6">
         <v>9115</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="H63" s="8" t="s">
         <v>378</v>
       </c>
+      <c r="I63" t="s">
+        <v>177</v>
+      </c>
       <c r="J63" t="s">
-        <v>177</v>
-      </c>
-      <c r="K63" t="s">
         <v>215</v>
       </c>
-      <c r="L63">
+      <c r="K63">
         <v>288</v>
       </c>
+      <c r="L63" t="s">
+        <v>100</v>
+      </c>
       <c r="M63" t="s">
-        <v>100</v>
-      </c>
-      <c r="N63" t="s">
         <v>279</v>
       </c>
-      <c r="O63" s="1">
+      <c r="N63" s="1">
         <v>8299</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="7">
+      <c r="O63" s="1"/>
+      <c r="P63" s="5">
         <f t="shared" si="0"/>
         <v>2611708</v>
       </c>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="Q63" s="9">
+        <v>2</v>
+      </c>
+      <c r="R63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1069136</v>
       </c>
@@ -5103,50 +5414,55 @@
       <c r="C64" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E64">
+      <c r="D64">
         <v>50000</v>
       </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
       <c r="F64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="8">
+      <c r="G64" s="6">
         <v>3772</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="H64" s="8" t="s">
         <v>379</v>
       </c>
+      <c r="I64" t="s">
+        <v>178</v>
+      </c>
       <c r="J64" t="s">
-        <v>178</v>
-      </c>
-      <c r="K64" t="s">
         <v>215</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>117</v>
       </c>
+      <c r="L64" t="s">
+        <v>100</v>
+      </c>
       <c r="M64" t="s">
-        <v>100</v>
-      </c>
-      <c r="N64" t="s">
         <v>280</v>
       </c>
-      <c r="O64" s="1">
+      <c r="N64" s="1">
         <v>52219</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="7">
+      <c r="O64" s="1"/>
+      <c r="P64" s="5">
         <f t="shared" si="0"/>
         <v>2559489</v>
       </c>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="Q64" s="9">
+        <v>8</v>
+      </c>
+      <c r="R64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1068923</v>
       </c>
@@ -5156,50 +5472,55 @@
       <c r="C65" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E65">
+      <c r="D65">
         <v>62000</v>
       </c>
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
       <c r="F65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G65" t="s">
         <v>105</v>
       </c>
-      <c r="H65" s="8">
+      <c r="G65" s="6">
         <v>8757</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="H65" s="8" t="s">
         <v>380</v>
       </c>
+      <c r="I65" t="s">
+        <v>179</v>
+      </c>
       <c r="J65" t="s">
-        <v>179</v>
-      </c>
-      <c r="K65" t="s">
         <v>215</v>
       </c>
-      <c r="L65">
+      <c r="K65">
         <v>552</v>
       </c>
+      <c r="L65" t="s">
+        <v>100</v>
+      </c>
       <c r="M65" t="s">
-        <v>100</v>
-      </c>
-      <c r="N65" t="s">
         <v>281</v>
       </c>
-      <c r="O65" s="1">
+      <c r="N65" s="1">
         <v>96450</v>
       </c>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="7">
+      <c r="O65" s="1"/>
+      <c r="P65" s="5">
         <f t="shared" si="0"/>
         <v>2463039</v>
       </c>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="Q65" s="9">
+        <v>8</v>
+      </c>
+      <c r="R65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1069126</v>
       </c>
@@ -5209,50 +5530,55 @@
       <c r="C66" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E66">
+      <c r="D66">
         <v>45996</v>
       </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
       <c r="F66" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" t="s">
         <v>113</v>
       </c>
-      <c r="H66" s="8">
+      <c r="G66" s="6">
         <v>7583</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="H66" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="I66" t="s">
+        <v>180</v>
+      </c>
       <c r="J66" t="s">
-        <v>180</v>
-      </c>
-      <c r="K66" t="s">
         <v>216</v>
       </c>
-      <c r="L66">
+      <c r="K66">
         <v>693</v>
       </c>
+      <c r="L66" t="s">
+        <v>100</v>
+      </c>
       <c r="M66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N66" t="s">
         <v>282</v>
       </c>
-      <c r="O66" s="1">
+      <c r="N66" s="1">
         <v>139863</v>
       </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="7">
+      <c r="O66" s="1"/>
+      <c r="P66" s="5">
         <f t="shared" si="0"/>
         <v>2323176</v>
       </c>
-      <c r="R66" s="2"/>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="Q66" s="9">
+        <v>3</v>
+      </c>
+      <c r="R66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1069102</v>
       </c>
@@ -5262,50 +5588,55 @@
       <c r="C67" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="3">
-        <v>42984</v>
-      </c>
-      <c r="E67">
+      <c r="D67">
         <v>55000</v>
       </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s">
         <v>113</v>
       </c>
-      <c r="H67" s="8">
+      <c r="G67" s="6">
         <v>8639</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="H67" s="8" t="s">
         <v>382</v>
       </c>
+      <c r="I67" t="s">
+        <v>181</v>
+      </c>
       <c r="J67" t="s">
-        <v>181</v>
-      </c>
-      <c r="K67" t="s">
         <v>215</v>
       </c>
-      <c r="L67">
+      <c r="K67">
         <v>685</v>
       </c>
+      <c r="L67" t="s">
+        <v>100</v>
+      </c>
       <c r="M67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N67" t="s">
         <v>283</v>
       </c>
-      <c r="O67" s="1">
+      <c r="N67" s="1">
         <v>52723</v>
       </c>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="7">
+      <c r="O67" s="1"/>
+      <c r="P67" s="5">
         <f t="shared" si="0"/>
         <v>2270453</v>
       </c>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="Q67" s="9">
+        <v>2</v>
+      </c>
+      <c r="R67" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1069093</v>
       </c>
@@ -5315,50 +5646,55 @@
       <c r="C68" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E68">
+      <c r="D68">
         <v>30000</v>
       </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
       <c r="F68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="8">
+      <c r="G68" s="6">
         <v>9750</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="H68" s="8" t="s">
         <v>383</v>
       </c>
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
       <c r="J68" t="s">
-        <v>182</v>
-      </c>
-      <c r="K68" t="s">
         <v>216</v>
       </c>
-      <c r="L68">
+      <c r="K68">
         <v>405</v>
       </c>
+      <c r="L68" t="s">
+        <v>100</v>
+      </c>
       <c r="M68" t="s">
-        <v>100</v>
-      </c>
-      <c r="N68" t="s">
         <v>284</v>
       </c>
-      <c r="O68" s="1">
+      <c r="N68" s="1">
         <v>77251</v>
       </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="7">
+      <c r="O68" s="1"/>
+      <c r="P68" s="5">
         <f t="shared" si="0"/>
         <v>2193202</v>
       </c>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="Q68" s="9">
+        <v>9</v>
+      </c>
+      <c r="R68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1069030</v>
       </c>
@@ -5368,50 +5704,55 @@
       <c r="C69" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E69">
+      <c r="D69">
         <v>44544</v>
       </c>
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
       <c r="F69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" t="s">
         <v>110</v>
       </c>
-      <c r="H69" s="8">
+      <c r="G69" s="6">
         <v>5584</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="H69" s="8" t="s">
         <v>384</v>
       </c>
+      <c r="I69" t="s">
+        <v>183</v>
+      </c>
       <c r="J69" t="s">
-        <v>183</v>
-      </c>
-      <c r="K69" t="s">
         <v>215</v>
       </c>
-      <c r="L69">
+      <c r="K69">
         <v>953</v>
       </c>
+      <c r="L69" t="s">
+        <v>100</v>
+      </c>
       <c r="M69" t="s">
-        <v>100</v>
-      </c>
-      <c r="N69" t="s">
         <v>285</v>
       </c>
-      <c r="O69" s="1">
+      <c r="N69" s="1">
         <v>20000</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="7">
+      <c r="O69" s="1"/>
+      <c r="P69" s="5">
         <f t="shared" si="0"/>
         <v>2173202</v>
       </c>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="Q69" s="9">
+        <v>4</v>
+      </c>
+      <c r="R69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1068906</v>
       </c>
@@ -5421,50 +5762,55 @@
       <c r="C70" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E70">
+      <c r="D70">
         <v>75000</v>
       </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
       <c r="F70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G70" t="s">
         <v>109</v>
       </c>
-      <c r="H70" s="8">
+      <c r="G70" s="6">
         <v>6441</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="H70" s="8" t="s">
         <v>385</v>
       </c>
+      <c r="I70" t="s">
+        <v>184</v>
+      </c>
       <c r="J70" t="s">
-        <v>184</v>
-      </c>
-      <c r="K70" t="s">
         <v>215</v>
       </c>
-      <c r="L70">
+      <c r="K70">
         <v>209</v>
       </c>
+      <c r="L70" t="s">
+        <v>100</v>
+      </c>
       <c r="M70" t="s">
-        <v>100</v>
-      </c>
-      <c r="N70" t="s">
         <v>286</v>
       </c>
-      <c r="O70" s="1">
+      <c r="N70" s="1">
         <v>10000</v>
       </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="7">
-        <f t="shared" ref="Q70:Q100" si="1">Q69+P70-O70</f>
+      <c r="O70" s="1"/>
+      <c r="P70" s="5">
+        <f t="shared" ref="P70:P100" si="1">P69+O70-N70</f>
         <v>2163202</v>
       </c>
-      <c r="R70" s="2"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="Q70" s="9">
+        <v>9</v>
+      </c>
+      <c r="R70" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1069073</v>
       </c>
@@ -5474,50 +5820,55 @@
       <c r="C71" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E71">
+      <c r="D71">
         <v>61000</v>
       </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
       <c r="F71" t="s">
-        <v>65</v>
-      </c>
-      <c r="G71" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="8">
+      <c r="G71" s="6">
         <v>7509</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="H71" s="8" t="s">
         <v>386</v>
       </c>
+      <c r="I71" t="s">
+        <v>185</v>
+      </c>
       <c r="J71" t="s">
-        <v>185</v>
-      </c>
-      <c r="K71" t="s">
         <v>215</v>
       </c>
-      <c r="L71">
+      <c r="K71">
         <v>562</v>
       </c>
+      <c r="L71" t="s">
+        <v>100</v>
+      </c>
       <c r="M71" t="s">
-        <v>100</v>
-      </c>
-      <c r="N71" t="s">
         <v>287</v>
       </c>
-      <c r="O71" s="1">
+      <c r="N71" s="1">
         <v>103600</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="7">
+      <c r="O71" s="1"/>
+      <c r="P71" s="5">
         <f t="shared" si="1"/>
         <v>2059602</v>
       </c>
-      <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="Q71" s="9">
+        <v>6</v>
+      </c>
+      <c r="R71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1069043</v>
       </c>
@@ -5527,50 +5878,55 @@
       <c r="C72" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E72">
+      <c r="D72">
         <v>44000</v>
       </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
       <c r="F72" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" t="s">
         <v>103</v>
       </c>
-      <c r="H72" s="8">
+      <c r="G72" s="6">
         <v>7126</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="H72" s="8" t="s">
         <v>387</v>
       </c>
+      <c r="I72" t="s">
+        <v>186</v>
+      </c>
       <c r="J72" t="s">
-        <v>186</v>
-      </c>
-      <c r="K72" t="s">
         <v>215</v>
       </c>
-      <c r="L72">
+      <c r="K72">
         <v>497</v>
       </c>
+      <c r="L72" t="s">
+        <v>100</v>
+      </c>
       <c r="M72" t="s">
-        <v>100</v>
-      </c>
-      <c r="N72" t="s">
         <v>288</v>
       </c>
-      <c r="O72" s="1">
+      <c r="N72" s="1">
         <v>71000</v>
       </c>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="7">
+      <c r="O72" s="1"/>
+      <c r="P72" s="5">
         <f t="shared" si="1"/>
         <v>1988602</v>
       </c>
-      <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="Q72" s="9">
+        <v>2</v>
+      </c>
+      <c r="R72" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S72" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1060981</v>
       </c>
@@ -5580,50 +5936,55 @@
       <c r="C73" t="s">
         <v>95</v>
       </c>
-      <c r="D73" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E73">
+      <c r="D73">
         <v>75000</v>
       </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
       <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" t="s">
         <v>103</v>
       </c>
-      <c r="H73" s="8">
+      <c r="G73" s="6">
         <v>3043</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="H73" s="8" t="s">
         <v>388</v>
       </c>
+      <c r="I73" t="s">
+        <v>187</v>
+      </c>
       <c r="J73" t="s">
-        <v>187</v>
-      </c>
-      <c r="K73" t="s">
         <v>216</v>
       </c>
-      <c r="L73">
+      <c r="K73">
         <v>673</v>
       </c>
+      <c r="L73" t="s">
+        <v>100</v>
+      </c>
       <c r="M73" t="s">
-        <v>100</v>
-      </c>
-      <c r="N73" t="s">
         <v>289</v>
       </c>
-      <c r="O73" s="1">
+      <c r="N73" s="1">
         <v>129400</v>
       </c>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="7">
+      <c r="O73" s="1"/>
+      <c r="P73" s="5">
         <f t="shared" si="1"/>
         <v>1859202</v>
       </c>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="Q73" s="9">
+        <v>6</v>
+      </c>
+      <c r="R73" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1069071</v>
       </c>
@@ -5633,50 +5994,55 @@
       <c r="C74" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E74">
+      <c r="D74">
         <v>33600</v>
       </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
       <c r="F74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" t="s">
         <v>110</v>
       </c>
-      <c r="H74" s="8">
+      <c r="G74" s="6">
         <v>7433</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="H74" s="8" t="s">
         <v>389</v>
       </c>
+      <c r="I74" t="s">
+        <v>188</v>
+      </c>
       <c r="J74" t="s">
-        <v>188</v>
-      </c>
-      <c r="K74" t="s">
         <v>215</v>
       </c>
-      <c r="L74">
+      <c r="K74">
         <v>497</v>
       </c>
+      <c r="L74" t="s">
+        <v>100</v>
+      </c>
       <c r="M74" t="s">
-        <v>100</v>
-      </c>
-      <c r="N74" t="s">
         <v>290</v>
       </c>
-      <c r="O74" s="1">
+      <c r="N74" s="1">
         <v>290163</v>
       </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="7">
+      <c r="O74" s="1"/>
+      <c r="P74" s="5">
         <f t="shared" si="1"/>
         <v>1569039</v>
       </c>
-      <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="Q74" s="9">
+        <v>4</v>
+      </c>
+      <c r="R74" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1069070</v>
       </c>
@@ -5686,50 +6052,55 @@
       <c r="C75" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E75">
+      <c r="D75">
         <v>50000</v>
       </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
       <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="8">
+      <c r="G75" s="6">
         <v>8089</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="H75" s="8" t="s">
         <v>390</v>
       </c>
+      <c r="I75" t="s">
+        <v>189</v>
+      </c>
       <c r="J75" t="s">
-        <v>189</v>
-      </c>
-      <c r="K75" t="s">
         <v>216</v>
       </c>
-      <c r="L75">
+      <c r="K75">
         <v>631</v>
       </c>
+      <c r="L75" t="s">
+        <v>100</v>
+      </c>
       <c r="M75" t="s">
-        <v>100</v>
-      </c>
-      <c r="N75" t="s">
         <v>291</v>
       </c>
-      <c r="O75" s="1">
+      <c r="N75" s="1">
         <v>34300</v>
       </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="7">
+      <c r="O75" s="1"/>
+      <c r="P75" s="5">
         <f t="shared" si="1"/>
         <v>1534739</v>
       </c>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="Q75" s="9">
+        <v>4</v>
+      </c>
+      <c r="R75" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1068893</v>
       </c>
@@ -5739,50 +6110,55 @@
       <c r="C76" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E76">
+      <c r="D76">
         <v>150000</v>
       </c>
+      <c r="E76" t="s">
+        <v>70</v>
+      </c>
       <c r="F76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="8">
+      <c r="G76" s="6">
         <v>8006</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="H76" s="8" t="s">
         <v>391</v>
       </c>
+      <c r="I76" t="s">
+        <v>190</v>
+      </c>
       <c r="J76" t="s">
-        <v>190</v>
-      </c>
-      <c r="K76" t="s">
         <v>216</v>
       </c>
-      <c r="L76">
+      <c r="K76">
         <v>293</v>
       </c>
+      <c r="L76" t="s">
+        <v>100</v>
+      </c>
       <c r="M76" t="s">
-        <v>100</v>
-      </c>
-      <c r="N76" t="s">
         <v>292</v>
       </c>
-      <c r="O76" s="1">
+      <c r="N76" s="1">
         <v>49800</v>
       </c>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="7">
+      <c r="O76" s="1"/>
+      <c r="P76" s="5">
         <f t="shared" si="1"/>
         <v>1484939</v>
       </c>
-      <c r="R76" s="2"/>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="Q76" s="9">
+        <v>5</v>
+      </c>
+      <c r="R76" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1068882</v>
       </c>
@@ -5792,50 +6168,55 @@
       <c r="C77" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E77">
+      <c r="D77">
         <v>90000</v>
       </c>
+      <c r="E77" t="s">
+        <v>71</v>
+      </c>
       <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="8">
+      <c r="G77" s="6">
         <v>7591</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="H77" s="8" t="s">
         <v>392</v>
       </c>
+      <c r="I77" t="s">
+        <v>191</v>
+      </c>
       <c r="J77" t="s">
-        <v>191</v>
-      </c>
-      <c r="K77" t="s">
         <v>215</v>
       </c>
-      <c r="L77">
+      <c r="K77">
         <v>659</v>
       </c>
+      <c r="L77" t="s">
+        <v>100</v>
+      </c>
       <c r="M77" t="s">
-        <v>100</v>
-      </c>
-      <c r="N77" t="s">
         <v>293</v>
       </c>
-      <c r="O77" s="1">
+      <c r="N77" s="1">
         <v>44800</v>
       </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="7">
+      <c r="O77" s="1"/>
+      <c r="P77" s="5">
         <f t="shared" si="1"/>
         <v>1440139</v>
       </c>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="Q77" s="9">
+        <v>1</v>
+      </c>
+      <c r="R77" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1069039</v>
       </c>
@@ -5845,50 +6226,55 @@
       <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E78">
+      <c r="D78">
         <v>48000</v>
       </c>
+      <c r="E78" t="s">
+        <v>72</v>
+      </c>
       <c r="F78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78" t="s">
         <v>110</v>
       </c>
-      <c r="H78" s="8">
+      <c r="G78" s="6">
         <v>5050</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="H78" s="8" t="s">
         <v>393</v>
       </c>
+      <c r="I78" t="s">
+        <v>192</v>
+      </c>
       <c r="J78" t="s">
-        <v>192</v>
-      </c>
-      <c r="K78" t="s">
         <v>215</v>
       </c>
-      <c r="L78">
+      <c r="K78">
         <v>537</v>
       </c>
+      <c r="L78" t="s">
+        <v>100</v>
+      </c>
       <c r="M78" t="s">
-        <v>100</v>
-      </c>
-      <c r="N78" t="s">
         <v>294</v>
       </c>
-      <c r="O78" s="1">
+      <c r="N78" s="1">
         <v>151550</v>
       </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="7">
+      <c r="O78" s="1"/>
+      <c r="P78" s="5">
         <f t="shared" si="1"/>
         <v>1288589</v>
       </c>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="Q78" s="9">
+        <v>6</v>
+      </c>
+      <c r="R78" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1068416</v>
       </c>
@@ -5898,50 +6284,55 @@
       <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E79">
+      <c r="D79">
         <v>75000</v>
       </c>
+      <c r="E79" t="s">
+        <v>73</v>
+      </c>
       <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s">
         <v>103</v>
       </c>
-      <c r="H79" s="8">
+      <c r="G79" s="6">
         <v>1705</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="H79" s="8" t="s">
         <v>394</v>
       </c>
+      <c r="I79" t="s">
+        <v>193</v>
+      </c>
       <c r="J79" t="s">
-        <v>193</v>
-      </c>
-      <c r="K79" t="s">
         <v>216</v>
       </c>
-      <c r="L79">
+      <c r="K79">
         <v>906</v>
       </c>
+      <c r="L79" t="s">
+        <v>100</v>
+      </c>
       <c r="M79" t="s">
-        <v>100</v>
-      </c>
-      <c r="N79" t="s">
         <v>295</v>
       </c>
-      <c r="O79" s="1">
+      <c r="N79" s="1">
         <v>310399</v>
       </c>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="7">
+      <c r="O79" s="1"/>
+      <c r="P79" s="5">
         <f t="shared" si="1"/>
         <v>978190</v>
       </c>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="Q79" s="9">
+        <v>8</v>
+      </c>
+      <c r="R79" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1068997</v>
       </c>
@@ -5951,50 +6342,55 @@
       <c r="C80" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E80">
+      <c r="D80">
         <v>52000</v>
       </c>
+      <c r="E80" t="s">
+        <v>74</v>
+      </c>
       <c r="F80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s">
         <v>103</v>
       </c>
-      <c r="H80" s="8">
+      <c r="G80" s="6">
         <v>9715</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="H80" s="8" t="s">
         <v>395</v>
       </c>
+      <c r="I80" t="s">
+        <v>194</v>
+      </c>
       <c r="J80" t="s">
-        <v>194</v>
-      </c>
-      <c r="K80" t="s">
         <v>216</v>
       </c>
-      <c r="L80">
+      <c r="K80">
         <v>427</v>
       </c>
+      <c r="L80" t="s">
+        <v>100</v>
+      </c>
       <c r="M80" t="s">
-        <v>100</v>
-      </c>
-      <c r="N80" t="s">
         <v>296</v>
       </c>
-      <c r="O80" s="1">
+      <c r="N80" s="1">
         <v>271401</v>
       </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="7">
+      <c r="O80" s="1"/>
+      <c r="P80" s="5">
         <f t="shared" si="1"/>
         <v>706789</v>
       </c>
-      <c r="R80" s="2"/>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="Q80" s="9">
+        <v>0</v>
+      </c>
+      <c r="R80" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1048390</v>
       </c>
@@ -6004,50 +6400,55 @@
       <c r="C81" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E81">
+      <c r="D81">
         <v>65000</v>
       </c>
+      <c r="E81" t="s">
+        <v>75</v>
+      </c>
       <c r="F81" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s">
         <v>103</v>
       </c>
-      <c r="H81" s="8">
+      <c r="G81" s="6">
         <v>5566</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="H81" s="8" t="s">
         <v>396</v>
       </c>
+      <c r="I81" t="s">
+        <v>195</v>
+      </c>
       <c r="J81" t="s">
-        <v>195</v>
-      </c>
-      <c r="K81" t="s">
         <v>216</v>
       </c>
-      <c r="L81">
+      <c r="K81">
         <v>420</v>
       </c>
+      <c r="L81" t="s">
+        <v>100</v>
+      </c>
       <c r="M81" t="s">
-        <v>100</v>
-      </c>
-      <c r="N81" t="s">
         <v>297</v>
       </c>
-      <c r="O81" s="1">
+      <c r="N81" s="1">
         <v>275449</v>
       </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="7">
+      <c r="O81" s="1"/>
+      <c r="P81" s="5">
         <f t="shared" si="1"/>
         <v>431340</v>
       </c>
-      <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="Q81" s="9">
+        <v>8</v>
+      </c>
+      <c r="R81" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1068994</v>
       </c>
@@ -6057,50 +6458,55 @@
       <c r="C82" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E82">
+      <c r="D82">
         <v>150000</v>
       </c>
+      <c r="E82" t="s">
+        <v>76</v>
+      </c>
       <c r="F82" t="s">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s">
         <v>109</v>
       </c>
-      <c r="H82" s="8">
+      <c r="G82" s="6">
         <v>7755</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="H82" s="8" t="s">
         <v>397</v>
       </c>
+      <c r="I82" t="s">
+        <v>196</v>
+      </c>
       <c r="J82" t="s">
-        <v>196</v>
-      </c>
-      <c r="K82" t="s">
         <v>215</v>
       </c>
-      <c r="L82">
+      <c r="K82">
         <v>330</v>
       </c>
+      <c r="L82" t="s">
+        <v>100</v>
+      </c>
       <c r="M82" t="s">
-        <v>100</v>
-      </c>
-      <c r="N82" t="s">
         <v>298</v>
       </c>
-      <c r="O82" s="1">
+      <c r="N82" s="1">
         <v>51502</v>
       </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="7">
+      <c r="O82" s="1"/>
+      <c r="P82" s="5">
         <f t="shared" si="1"/>
         <v>379838</v>
       </c>
-      <c r="R82" s="2"/>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="Q82" s="9">
+        <v>10</v>
+      </c>
+      <c r="R82" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S82" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1068475</v>
       </c>
@@ -6110,50 +6516,55 @@
       <c r="C83" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E83">
+      <c r="D83">
         <v>68000</v>
       </c>
+      <c r="E83" t="s">
+        <v>77</v>
+      </c>
       <c r="F83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s">
         <v>103</v>
       </c>
-      <c r="H83" s="8">
+      <c r="G83" s="6">
         <v>5618</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="H83" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="I83" t="s">
+        <v>197</v>
+      </c>
       <c r="J83" t="s">
-        <v>197</v>
-      </c>
-      <c r="K83" t="s">
         <v>216</v>
       </c>
-      <c r="L83">
+      <c r="K83">
         <v>832</v>
       </c>
+      <c r="L83" t="s">
+        <v>100</v>
+      </c>
       <c r="M83" t="s">
-        <v>100</v>
-      </c>
-      <c r="N83" t="s">
         <v>299</v>
       </c>
-      <c r="O83" s="1">
+      <c r="N83" s="1">
         <v>36650</v>
       </c>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="7">
+      <c r="O83" s="1"/>
+      <c r="P83" s="5">
         <f t="shared" si="1"/>
         <v>343188</v>
       </c>
-      <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="Q83" s="9">
+        <v>7</v>
+      </c>
+      <c r="R83" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S83" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1068989</v>
       </c>
@@ -6163,50 +6574,55 @@
       <c r="C84" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E84">
+      <c r="D84">
         <v>42000</v>
       </c>
+      <c r="E84" t="s">
+        <v>78</v>
+      </c>
       <c r="F84" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s">
         <v>103</v>
       </c>
-      <c r="H84" s="8">
+      <c r="G84" s="6">
         <v>1606</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="H84" s="8" t="s">
         <v>399</v>
       </c>
+      <c r="I84" t="s">
+        <v>198</v>
+      </c>
       <c r="J84" t="s">
-        <v>198</v>
-      </c>
-      <c r="K84" t="s">
         <v>216</v>
       </c>
-      <c r="L84">
+      <c r="K84">
         <v>348</v>
       </c>
+      <c r="L84" t="s">
+        <v>100</v>
+      </c>
       <c r="M84" t="s">
-        <v>100</v>
-      </c>
-      <c r="N84" t="s">
         <v>300</v>
       </c>
-      <c r="O84" s="1">
+      <c r="N84" s="1">
         <v>99600</v>
       </c>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="7">
+      <c r="O84" s="1"/>
+      <c r="P84" s="5">
         <f t="shared" si="1"/>
         <v>243588</v>
       </c>
-      <c r="R84" s="2"/>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="Q84" s="9">
+        <v>1</v>
+      </c>
+      <c r="R84" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1068967</v>
       </c>
@@ -6216,50 +6632,55 @@
       <c r="C85" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E85">
+      <c r="D85">
         <v>53000</v>
       </c>
+      <c r="E85" t="s">
+        <v>90</v>
+      </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="8">
+      <c r="G85" s="6">
         <v>1607</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="H85" s="8" t="s">
         <v>400</v>
       </c>
+      <c r="I85" t="s">
+        <v>199</v>
+      </c>
       <c r="J85" t="s">
-        <v>199</v>
-      </c>
-      <c r="K85" t="s">
         <v>216</v>
       </c>
-      <c r="L85">
+      <c r="K85">
         <v>455</v>
       </c>
+      <c r="L85" t="s">
+        <v>100</v>
+      </c>
       <c r="M85" t="s">
-        <v>100</v>
-      </c>
-      <c r="N85" t="s">
         <v>301</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1">
+      <c r="N85" s="1"/>
+      <c r="O85" s="1">
         <v>500000</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="P85" s="5">
         <f t="shared" si="1"/>
         <v>743588</v>
       </c>
-      <c r="R85" s="2"/>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="Q85" s="9">
+        <v>9</v>
+      </c>
+      <c r="R85" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S85" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1068744</v>
       </c>
@@ -6269,50 +6690,55 @@
       <c r="C86" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E86">
+      <c r="D86">
         <v>35000</v>
       </c>
+      <c r="E86" t="s">
+        <v>90</v>
+      </c>
       <c r="F86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s">
         <v>103</v>
       </c>
-      <c r="H86" s="8">
+      <c r="G86" s="6">
         <v>3933</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="H86" s="8" t="s">
         <v>401</v>
       </c>
+      <c r="I86" t="s">
+        <v>200</v>
+      </c>
       <c r="J86" t="s">
-        <v>200</v>
-      </c>
-      <c r="K86" t="s">
         <v>216</v>
       </c>
-      <c r="L86">
+      <c r="K86">
         <v>332</v>
       </c>
+      <c r="L86" t="s">
+        <v>100</v>
+      </c>
       <c r="M86" t="s">
-        <v>100</v>
-      </c>
-      <c r="N86" t="s">
         <v>302</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1">
+      <c r="N86" s="1"/>
+      <c r="O86" s="1">
         <v>500000</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="P86" s="5">
         <f t="shared" si="1"/>
         <v>1243588</v>
       </c>
-      <c r="R86" s="2"/>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="Q86" s="9">
+        <v>7</v>
+      </c>
+      <c r="R86" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S86" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1045509</v>
       </c>
@@ -6322,50 +6748,55 @@
       <c r="C87" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E87">
+      <c r="D87">
         <v>60000</v>
       </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s">
         <v>109</v>
       </c>
-      <c r="H87" s="8">
+      <c r="G87" s="6">
         <v>1576</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="H87" s="8" t="s">
         <v>402</v>
       </c>
+      <c r="I87" t="s">
+        <v>201</v>
+      </c>
       <c r="J87" t="s">
-        <v>201</v>
-      </c>
-      <c r="K87" t="s">
         <v>216</v>
       </c>
-      <c r="L87">
+      <c r="K87">
         <v>685</v>
       </c>
+      <c r="L87" t="s">
+        <v>100</v>
+      </c>
       <c r="M87" t="s">
-        <v>100</v>
-      </c>
-      <c r="N87" t="s">
         <v>303</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1">
+      <c r="N87" s="1"/>
+      <c r="O87" s="1">
         <v>500000</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="P87" s="5">
         <f t="shared" si="1"/>
         <v>1743588</v>
       </c>
-      <c r="R87" s="2"/>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="Q87" s="9">
+        <v>7</v>
+      </c>
+      <c r="R87" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S87" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1063958</v>
       </c>
@@ -6375,50 +6806,55 @@
       <c r="C88" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E88">
+      <c r="D88">
         <v>28000</v>
       </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
       <c r="F88" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" t="s">
         <v>103</v>
       </c>
-      <c r="H88" s="8">
+      <c r="G88" s="6">
         <v>2101</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="H88" s="8" t="s">
         <v>403</v>
       </c>
+      <c r="I88" t="s">
+        <v>202</v>
+      </c>
       <c r="J88" t="s">
-        <v>202</v>
-      </c>
-      <c r="K88" t="s">
         <v>216</v>
       </c>
-      <c r="L88">
+      <c r="K88">
         <v>493</v>
       </c>
+      <c r="L88" t="s">
+        <v>100</v>
+      </c>
       <c r="M88" t="s">
-        <v>100</v>
-      </c>
-      <c r="N88" t="s">
         <v>304</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1">
+      <c r="N88" s="1"/>
+      <c r="O88" s="1">
         <v>500000</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="P88" s="5">
         <f t="shared" si="1"/>
         <v>2243588</v>
       </c>
-      <c r="R88" s="2"/>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="Q88" s="9">
+        <v>2</v>
+      </c>
+      <c r="R88" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S88" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1041756</v>
       </c>
@@ -6428,50 +6864,55 @@
       <c r="C89" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="3">
-        <v>43003</v>
-      </c>
-      <c r="E89">
+      <c r="D89">
         <v>42000</v>
       </c>
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s">
         <v>107</v>
       </c>
-      <c r="H89" s="8">
+      <c r="G89" s="6">
         <v>3602</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="H89" s="8" t="s">
         <v>404</v>
       </c>
+      <c r="I89" t="s">
+        <v>203</v>
+      </c>
       <c r="J89" t="s">
-        <v>203</v>
-      </c>
-      <c r="K89" t="s">
         <v>215</v>
       </c>
-      <c r="L89">
+      <c r="K89">
         <v>530</v>
       </c>
+      <c r="L89" t="s">
+        <v>100</v>
+      </c>
       <c r="M89" t="s">
-        <v>100</v>
-      </c>
-      <c r="N89" t="s">
         <v>305</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1">
+      <c r="N89" s="1"/>
+      <c r="O89" s="1">
         <v>500000</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="P89" s="5">
         <f t="shared" si="1"/>
         <v>2743588</v>
       </c>
-      <c r="R89" s="2"/>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="Q89" s="9">
+        <v>8</v>
+      </c>
+      <c r="R89" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S89" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1068694</v>
       </c>
@@ -6481,50 +6922,55 @@
       <c r="C90" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E90">
+      <c r="D90">
         <v>88365</v>
       </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
       <c r="F90" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="8">
+      <c r="G90" s="6">
         <v>1135</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="H90" s="8" t="s">
         <v>405</v>
       </c>
+      <c r="I90" t="s">
+        <v>204</v>
+      </c>
       <c r="J90" t="s">
-        <v>204</v>
-      </c>
-      <c r="K90" t="s">
         <v>216</v>
       </c>
-      <c r="L90">
+      <c r="K90">
         <v>235</v>
       </c>
+      <c r="L90" t="s">
+        <v>100</v>
+      </c>
       <c r="M90" t="s">
-        <v>100</v>
-      </c>
-      <c r="N90" t="s">
         <v>306</v>
       </c>
-      <c r="O90" s="1">
+      <c r="N90" s="1">
         <v>411763</v>
       </c>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="7">
+      <c r="O90" s="1"/>
+      <c r="P90" s="5">
         <f t="shared" si="1"/>
         <v>2331825</v>
       </c>
-      <c r="R90" s="2"/>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="Q90" s="9">
+        <v>1</v>
+      </c>
+      <c r="R90" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S90" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1068792</v>
       </c>
@@ -6534,50 +6980,55 @@
       <c r="C91" t="s">
         <v>95</v>
       </c>
-      <c r="D91" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E91">
+      <c r="D91">
         <v>72000</v>
       </c>
+      <c r="E91" t="s">
+        <v>80</v>
+      </c>
       <c r="F91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s">
         <v>103</v>
       </c>
-      <c r="H91" s="8">
+      <c r="G91" s="6">
         <v>7193</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="H91" s="8" t="s">
         <v>406</v>
       </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
       <c r="J91" t="s">
-        <v>205</v>
-      </c>
-      <c r="K91" t="s">
         <v>216</v>
       </c>
-      <c r="L91">
+      <c r="K91">
         <v>629</v>
       </c>
+      <c r="L91" t="s">
+        <v>100</v>
+      </c>
       <c r="M91" t="s">
-        <v>100</v>
-      </c>
-      <c r="N91" t="s">
         <v>307</v>
       </c>
-      <c r="O91" s="1">
+      <c r="N91" s="1">
         <v>355138</v>
       </c>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="7">
+      <c r="O91" s="1"/>
+      <c r="P91" s="5">
         <f t="shared" si="1"/>
         <v>1976687</v>
       </c>
-      <c r="R91" s="2"/>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="Q91" s="9">
+        <v>6</v>
+      </c>
+      <c r="R91" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S91" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1068558</v>
       </c>
@@ -6587,50 +7038,55 @@
       <c r="C92" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E92">
+      <c r="D92">
         <v>62000</v>
       </c>
+      <c r="E92" t="s">
+        <v>81</v>
+      </c>
       <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" t="s">
         <v>106</v>
       </c>
-      <c r="H92" s="8">
+      <c r="G92" s="6">
         <v>4987</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="H92" s="8" t="s">
         <v>407</v>
       </c>
+      <c r="I92" t="s">
+        <v>206</v>
+      </c>
       <c r="J92" t="s">
-        <v>206</v>
-      </c>
-      <c r="K92" t="s">
         <v>216</v>
       </c>
-      <c r="L92">
+      <c r="K92">
         <v>950</v>
       </c>
+      <c r="L92" t="s">
+        <v>100</v>
+      </c>
       <c r="M92" t="s">
-        <v>100</v>
-      </c>
-      <c r="N92" t="s">
         <v>308</v>
       </c>
-      <c r="O92" s="1">
+      <c r="N92" s="1">
         <v>88656</v>
       </c>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="7">
+      <c r="O92" s="1"/>
+      <c r="P92" s="5">
         <f t="shared" si="1"/>
         <v>1888031</v>
       </c>
-      <c r="R92" s="2"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="Q92" s="9">
+        <v>9</v>
+      </c>
+      <c r="R92" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S92" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1068322</v>
       </c>
@@ -6640,50 +7096,55 @@
       <c r="C93" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E93">
+      <c r="D93">
         <v>43680</v>
       </c>
+      <c r="E93" t="s">
+        <v>82</v>
+      </c>
       <c r="F93" t="s">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="8">
+      <c r="G93" s="6">
         <v>8495</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="H93" s="8" t="s">
         <v>408</v>
       </c>
+      <c r="I93" t="s">
+        <v>207</v>
+      </c>
       <c r="J93" t="s">
-        <v>207</v>
-      </c>
-      <c r="K93" t="s">
         <v>215</v>
       </c>
-      <c r="L93">
+      <c r="K93">
         <v>486</v>
       </c>
+      <c r="L93" t="s">
+        <v>100</v>
+      </c>
       <c r="M93" t="s">
-        <v>100</v>
-      </c>
-      <c r="N93" t="s">
         <v>309</v>
       </c>
-      <c r="O93" s="1">
+      <c r="N93" s="1">
         <v>14800</v>
       </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="7">
+      <c r="O93" s="1"/>
+      <c r="P93" s="5">
         <f t="shared" si="1"/>
         <v>1873231</v>
       </c>
-      <c r="R93" s="2"/>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="Q93" s="9">
+        <v>9</v>
+      </c>
+      <c r="R93" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S93" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1065674</v>
       </c>
@@ -6693,50 +7154,55 @@
       <c r="C94" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E94">
+      <c r="D94">
         <v>120000</v>
       </c>
+      <c r="E94" t="s">
+        <v>83</v>
+      </c>
       <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="8">
+      <c r="G94" s="6">
         <v>7330</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="H94" s="8" t="s">
         <v>409</v>
       </c>
+      <c r="I94" t="s">
+        <v>208</v>
+      </c>
       <c r="J94" t="s">
-        <v>208</v>
-      </c>
-      <c r="K94" t="s">
         <v>216</v>
       </c>
-      <c r="L94">
+      <c r="K94">
         <v>235</v>
       </c>
+      <c r="L94" t="s">
+        <v>100</v>
+      </c>
       <c r="M94" t="s">
-        <v>100</v>
-      </c>
-      <c r="N94" t="s">
         <v>310</v>
       </c>
-      <c r="O94" s="1">
+      <c r="N94" s="1">
         <v>27000</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="7">
+      <c r="O94" s="1"/>
+      <c r="P94" s="5">
         <f t="shared" si="1"/>
         <v>1846231</v>
       </c>
-      <c r="R94" s="2"/>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="Q94" s="9">
+        <v>8</v>
+      </c>
+      <c r="R94" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1068547</v>
       </c>
@@ -6746,50 +7212,55 @@
       <c r="C95" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E95">
+      <c r="D95">
         <v>66000</v>
       </c>
+      <c r="E95" t="s">
+        <v>84</v>
+      </c>
       <c r="F95" t="s">
-        <v>84</v>
-      </c>
-      <c r="G95" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="8">
+      <c r="G95" s="6">
         <v>2223</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="H95" s="8" t="s">
         <v>410</v>
       </c>
+      <c r="I95" t="s">
+        <v>209</v>
+      </c>
       <c r="J95" t="s">
-        <v>209</v>
-      </c>
-      <c r="K95" t="s">
         <v>215</v>
       </c>
-      <c r="L95">
+      <c r="K95">
         <v>458</v>
       </c>
+      <c r="L95" t="s">
+        <v>100</v>
+      </c>
       <c r="M95" t="s">
-        <v>100</v>
-      </c>
-      <c r="N95" t="s">
         <v>311</v>
       </c>
-      <c r="O95" s="1">
+      <c r="N95" s="1">
         <v>42850</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="7">
+      <c r="O95" s="1"/>
+      <c r="P95" s="5">
         <f t="shared" si="1"/>
         <v>1803381</v>
       </c>
-      <c r="R95" s="2"/>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="Q95" s="9">
+        <v>4</v>
+      </c>
+      <c r="R95" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S95" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1068545</v>
       </c>
@@ -6799,50 +7270,55 @@
       <c r="C96" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E96">
+      <c r="D96">
         <v>39120</v>
       </c>
+      <c r="E96" t="s">
+        <v>85</v>
+      </c>
       <c r="F96" t="s">
-        <v>85</v>
-      </c>
-      <c r="G96" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="8">
+      <c r="G96" s="6">
         <v>9193</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="H96" s="8" t="s">
         <v>411</v>
       </c>
+      <c r="I96" t="s">
+        <v>210</v>
+      </c>
       <c r="J96" t="s">
-        <v>210</v>
-      </c>
-      <c r="K96" t="s">
         <v>216</v>
       </c>
-      <c r="L96">
+      <c r="K96">
         <v>507</v>
       </c>
+      <c r="L96" t="s">
+        <v>100</v>
+      </c>
       <c r="M96" t="s">
-        <v>100</v>
-      </c>
-      <c r="N96" t="s">
         <v>312</v>
       </c>
-      <c r="O96" s="1">
+      <c r="N96" s="1">
         <v>39925</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="7">
+      <c r="O96" s="1"/>
+      <c r="P96" s="5">
         <f t="shared" si="1"/>
         <v>1763456</v>
       </c>
-      <c r="R96" s="2"/>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="Q96" s="9">
+        <v>2</v>
+      </c>
+      <c r="R96" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S96" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1068575</v>
       </c>
@@ -6852,50 +7328,55 @@
       <c r="C97" t="s">
         <v>95</v>
       </c>
-      <c r="D97" s="3">
-        <v>43004</v>
-      </c>
-      <c r="E97">
+      <c r="D97">
         <v>85000</v>
       </c>
+      <c r="E97" t="s">
+        <v>86</v>
+      </c>
       <c r="F97" t="s">
-        <v>86</v>
-      </c>
-      <c r="G97" t="s">
         <v>115</v>
       </c>
-      <c r="H97" s="8">
+      <c r="G97" s="6">
         <v>3492</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="H97" s="8" t="s">
         <v>412</v>
       </c>
+      <c r="I97" t="s">
+        <v>211</v>
+      </c>
       <c r="J97" t="s">
-        <v>211</v>
-      </c>
-      <c r="K97" t="s">
         <v>215</v>
       </c>
-      <c r="L97">
+      <c r="K97">
         <v>202</v>
       </c>
+      <c r="L97" t="s">
+        <v>100</v>
+      </c>
       <c r="M97" t="s">
-        <v>100</v>
-      </c>
-      <c r="N97" t="s">
         <v>313</v>
       </c>
-      <c r="O97" s="1">
+      <c r="N97" s="1">
         <v>202106</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="7">
+      <c r="O97" s="1"/>
+      <c r="P97" s="5">
         <f t="shared" si="1"/>
         <v>1561350</v>
       </c>
-      <c r="R97" s="2"/>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="Q97" s="9">
+        <v>2</v>
+      </c>
+      <c r="R97" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S97" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1049528</v>
       </c>
@@ -6905,50 +7386,55 @@
       <c r="C98" t="s">
         <v>95</v>
       </c>
-      <c r="D98" s="3">
-        <v>43005</v>
-      </c>
-      <c r="E98">
+      <c r="D98">
         <v>47800</v>
       </c>
+      <c r="E98" t="s">
+        <v>87</v>
+      </c>
       <c r="F98" t="s">
-        <v>87</v>
-      </c>
-      <c r="G98" t="s">
         <v>103</v>
       </c>
-      <c r="H98" s="8">
+      <c r="G98" s="6">
         <v>7229</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="H98" s="8" t="s">
         <v>413</v>
       </c>
+      <c r="I98" t="s">
+        <v>212</v>
+      </c>
       <c r="J98" t="s">
-        <v>212</v>
-      </c>
-      <c r="K98" t="s">
         <v>216</v>
       </c>
-      <c r="L98">
+      <c r="K98">
         <v>937</v>
       </c>
+      <c r="L98" t="s">
+        <v>100</v>
+      </c>
       <c r="M98" t="s">
-        <v>100</v>
-      </c>
-      <c r="N98" t="s">
         <v>314</v>
       </c>
-      <c r="O98" s="1">
+      <c r="N98" s="1">
         <v>169802</v>
       </c>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="7">
+      <c r="O98" s="1"/>
+      <c r="P98" s="5">
         <f t="shared" si="1"/>
         <v>1391548</v>
       </c>
-      <c r="R98" s="2"/>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="Q98" s="9">
+        <v>4</v>
+      </c>
+      <c r="R98" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S98" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1068542</v>
       </c>
@@ -6958,50 +7444,55 @@
       <c r="C99" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="3">
-        <v>43006</v>
-      </c>
-      <c r="E99">
+      <c r="D99">
         <v>45000</v>
       </c>
+      <c r="E99" t="s">
+        <v>88</v>
+      </c>
       <c r="F99" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s">
         <v>103</v>
       </c>
-      <c r="H99" s="8">
+      <c r="G99" s="6">
         <v>4844</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="H99" s="8" t="s">
         <v>414</v>
       </c>
+      <c r="I99" t="s">
+        <v>213</v>
+      </c>
       <c r="J99" t="s">
-        <v>213</v>
-      </c>
-      <c r="K99" t="s">
         <v>215</v>
       </c>
-      <c r="L99">
+      <c r="K99">
         <v>535</v>
       </c>
+      <c r="L99" t="s">
+        <v>100</v>
+      </c>
       <c r="M99" t="s">
-        <v>100</v>
-      </c>
-      <c r="N99" t="s">
         <v>315</v>
       </c>
-      <c r="O99" s="1">
+      <c r="N99" s="1">
         <v>200570</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="7">
+      <c r="O99" s="1"/>
+      <c r="P99" s="5">
         <f t="shared" si="1"/>
         <v>1190978</v>
       </c>
-      <c r="R99" s="2"/>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="Q99" s="9">
+        <v>8</v>
+      </c>
+      <c r="R99" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S99" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1068350</v>
       </c>
@@ -7011,52 +7502,57 @@
       <c r="C100" t="s">
         <v>95</v>
       </c>
-      <c r="D100" s="3">
-        <v>43011</v>
-      </c>
-      <c r="E100">
+      <c r="D100">
         <v>83000</v>
       </c>
+      <c r="E100" t="s">
+        <v>89</v>
+      </c>
       <c r="F100" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s">
         <v>102</v>
       </c>
-      <c r="H100" s="8">
+      <c r="G100" s="6">
         <v>1309</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="H100" s="8" t="s">
         <v>415</v>
       </c>
+      <c r="I100" t="s">
+        <v>214</v>
+      </c>
       <c r="J100" t="s">
-        <v>214</v>
-      </c>
-      <c r="K100" t="s">
         <v>215</v>
       </c>
-      <c r="L100">
+      <c r="K100">
         <v>596</v>
       </c>
+      <c r="L100" t="s">
+        <v>100</v>
+      </c>
       <c r="M100" t="s">
-        <v>100</v>
-      </c>
-      <c r="N100" t="s">
         <v>316</v>
       </c>
-      <c r="O100" s="1">
+      <c r="N100" s="1">
         <v>12106</v>
       </c>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="7">
+      <c r="O100" s="1"/>
+      <c r="P100" s="5">
         <f t="shared" si="1"/>
         <v>1178872</v>
       </c>
-      <c r="R100" s="2"/>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="Q100" s="9">
+        <v>2</v>
+      </c>
+      <c r="R100" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G101" s="6"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDF112-8BC4-4A23-83F3-24C423E85F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A639E8-9DEB-4FC4-93AE-027E77BF6A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="425">
   <si>
     <t>DATE</t>
   </si>
@@ -1302,6 +1302,9 @@
   </si>
   <si>
     <t>CUST_MORE</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,7 +1996,7 @@
         <v>95</v>
       </c>
       <c r="D5">
-        <v>49200</v>
+        <v>29200</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2045,13 +2048,13 @@
         <v>1075358</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D6">
-        <v>80000</v>
+        <v>800000</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
@@ -2164,10 +2167,10 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D8">
-        <v>47004</v>
+        <v>470004</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
@@ -2225,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="D9">
-        <v>48000</v>
+        <v>18000</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
@@ -2283,7 +2286,7 @@
         <v>95</v>
       </c>
       <c r="D10">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
@@ -2396,7 +2399,7 @@
         <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>72000</v>
@@ -2454,7 +2457,7 @@
         <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>75000</v>
@@ -2625,13 +2628,13 @@
         <v>1069057</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2747,7 +2750,7 @@
         <v>95</v>
       </c>
       <c r="D18">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -2805,7 +2808,7 @@
         <v>96</v>
       </c>
       <c r="D19">
-        <v>110000</v>
+        <v>61000</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -2863,7 +2866,7 @@
         <v>95</v>
       </c>
       <c r="D20">
-        <v>84000</v>
+        <v>34000</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2921,7 +2924,7 @@
         <v>95</v>
       </c>
       <c r="D21">
-        <v>77385</v>
+        <v>17385</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -2979,7 +2982,7 @@
         <v>95</v>
       </c>
       <c r="D22">
-        <v>43370</v>
+        <v>23370</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -3034,10 +3037,10 @@
         <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>105000</v>
+        <v>10500</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -3092,7 +3095,7 @@
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <v>50000</v>
@@ -3150,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>50000</v>
@@ -3208,7 +3211,7 @@
         <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>76000</v>
@@ -3266,7 +3269,7 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>92000</v>
@@ -3327,7 +3330,7 @@
         <v>95</v>
       </c>
       <c r="D28">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -3385,7 +3388,7 @@
         <v>95</v>
       </c>
       <c r="D29">
-        <v>50004</v>
+        <v>30004</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
@@ -3440,7 +3443,7 @@
         <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="D30">
         <v>106000</v>
@@ -3614,7 +3617,7 @@
         <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>75000</v>
@@ -3849,7 +3852,7 @@
         <v>95</v>
       </c>
       <c r="D37">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="E37" t="s">
         <v>31</v>
@@ -3907,7 +3910,7 @@
         <v>95</v>
       </c>
       <c r="D38">
-        <v>55596</v>
+        <v>35596</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
@@ -3965,7 +3968,7 @@
         <v>95</v>
       </c>
       <c r="D39">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
@@ -4139,7 +4142,7 @@
         <v>95</v>
       </c>
       <c r="D42">
-        <v>68004</v>
+        <v>38004</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -4197,7 +4200,7 @@
         <v>95</v>
       </c>
       <c r="D43">
-        <v>62300</v>
+        <v>32300</v>
       </c>
       <c r="E43" t="s">
         <v>37</v>
@@ -4255,7 +4258,7 @@
         <v>95</v>
       </c>
       <c r="D44">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
@@ -4313,7 +4316,7 @@
         <v>95</v>
       </c>
       <c r="D45">
-        <v>55000</v>
+        <v>35000</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
@@ -4368,7 +4371,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>45600</v>
@@ -4426,7 +4429,7 @@
         <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47">
         <v>80000</v>
@@ -4484,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D48">
         <v>100000</v>
@@ -4603,7 +4606,7 @@
         <v>95</v>
       </c>
       <c r="D50">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
@@ -4661,7 +4664,7 @@
         <v>95</v>
       </c>
       <c r="D51">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="E51" t="s">
         <v>45</v>
@@ -4719,7 +4722,7 @@
         <v>95</v>
       </c>
       <c r="D52">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
@@ -4777,7 +4780,7 @@
         <v>96</v>
       </c>
       <c r="D53">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
@@ -4835,7 +4838,7 @@
         <v>95</v>
       </c>
       <c r="D54">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -4890,7 +4893,7 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>50000</v>
@@ -4951,7 +4954,7 @@
         <v>95</v>
       </c>
       <c r="D56">
-        <v>46000</v>
+        <v>26000</v>
       </c>
       <c r="E56" t="s">
         <v>50</v>
@@ -5006,7 +5009,7 @@
         <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57">
         <v>50000</v>
@@ -5064,7 +5067,7 @@
         <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>81000</v>
@@ -5180,7 +5183,7 @@
         <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D60">
         <v>51400</v>
@@ -5357,7 +5360,7 @@
         <v>95</v>
       </c>
       <c r="D63">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="E63" t="s">
         <v>57</v>
@@ -5415,7 +5418,7 @@
         <v>95</v>
       </c>
       <c r="D64">
-        <v>50000</v>
+        <v>39000</v>
       </c>
       <c r="E64" t="s">
         <v>58</v>
@@ -5470,7 +5473,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <v>62000</v>
@@ -5528,7 +5531,7 @@
         <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>45996</v>
@@ -5586,7 +5589,7 @@
         <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D67">
         <v>55000</v>
@@ -5705,7 +5708,7 @@
         <v>95</v>
       </c>
       <c r="D69">
-        <v>44544</v>
+        <v>34544</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -5763,7 +5766,7 @@
         <v>95</v>
       </c>
       <c r="D70">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="E70" t="s">
         <v>64</v>
@@ -5821,7 +5824,7 @@
         <v>95</v>
       </c>
       <c r="D71">
-        <v>61000</v>
+        <v>21000</v>
       </c>
       <c r="E71" t="s">
         <v>65</v>
@@ -5879,7 +5882,7 @@
         <v>95</v>
       </c>
       <c r="D72">
-        <v>44000</v>
+        <v>24000</v>
       </c>
       <c r="E72" t="s">
         <v>66</v>
@@ -5937,7 +5940,7 @@
         <v>95</v>
       </c>
       <c r="D73">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="E73" t="s">
         <v>67</v>
@@ -6053,7 +6056,7 @@
         <v>95</v>
       </c>
       <c r="D75">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E75" t="s">
         <v>69</v>
@@ -6108,7 +6111,7 @@
         <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="D76">
         <v>150000</v>
@@ -6166,7 +6169,7 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D77">
         <v>90000</v>
@@ -6224,7 +6227,7 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D78">
         <v>48000</v>
@@ -6282,7 +6285,7 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D79">
         <v>75000</v>
@@ -6340,7 +6343,7 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>52000</v>
@@ -6398,7 +6401,7 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <v>65000</v>
@@ -6456,7 +6459,7 @@
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="D82">
         <v>150000</v>
@@ -6517,7 +6520,7 @@
         <v>95</v>
       </c>
       <c r="D83">
-        <v>68000</v>
+        <v>38000</v>
       </c>
       <c r="E83" t="s">
         <v>77</v>
@@ -6572,10 +6575,10 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D84">
-        <v>42000</v>
+        <v>332000</v>
       </c>
       <c r="E84" t="s">
         <v>78</v>
@@ -6630,10 +6633,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D85">
-        <v>53000</v>
+        <v>153000</v>
       </c>
       <c r="E85" t="s">
         <v>90</v>
@@ -6685,7 +6688,7 @@
         <v>1068744</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>95</v>
@@ -6746,7 +6749,7 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <v>60000</v>
@@ -6862,10 +6865,10 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D89">
-        <v>42000</v>
+        <v>242000</v>
       </c>
       <c r="E89" t="s">
         <v>90</v>
@@ -6923,7 +6926,7 @@
         <v>95</v>
       </c>
       <c r="D90">
-        <v>88365</v>
+        <v>28365</v>
       </c>
       <c r="E90" t="s">
         <v>79</v>
@@ -6981,7 +6984,7 @@
         <v>95</v>
       </c>
       <c r="D91">
-        <v>72000</v>
+        <v>22000</v>
       </c>
       <c r="E91" t="s">
         <v>80</v>
@@ -7039,7 +7042,7 @@
         <v>95</v>
       </c>
       <c r="D92">
-        <v>62000</v>
+        <v>22000</v>
       </c>
       <c r="E92" t="s">
         <v>81</v>
@@ -7097,7 +7100,7 @@
         <v>95</v>
       </c>
       <c r="D93">
-        <v>43680</v>
+        <v>33680</v>
       </c>
       <c r="E93" t="s">
         <v>82</v>
@@ -7152,7 +7155,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="D94">
         <v>120000</v>
@@ -7210,7 +7213,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>66000</v>
@@ -7326,7 +7329,7 @@
         <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97">
         <v>85000</v>
@@ -7384,7 +7387,7 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D98">
         <v>47800</v>
@@ -7445,7 +7448,7 @@
         <v>95</v>
       </c>
       <c r="D99">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="E99" t="s">
         <v>88</v>
@@ -7497,10 +7500,10 @@
         <v>1068350</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="D100">
         <v>83000</v>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A639E8-9DEB-4FC4-93AE-027E77BF6A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B9EE55-C399-4D50-9405-A4B28E2226EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="426">
   <si>
     <t>DATE</t>
   </si>
@@ -1305,6 +1305,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>AVG_TIME_HRS</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1381,6 +1384,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1725,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1747,12 +1751,13 @@
     <col min="14" max="14" width="18.36328125" customWidth="1"/>
     <col min="15" max="15" width="16.90625" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="19.1796875" customWidth="1"/>
     <col min="18" max="18" width="15.453125" customWidth="1"/>
     <col min="19" max="19" width="13.54296875" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -1810,8 +1815,11 @@
       <c r="S1" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1077501</v>
       </c>
@@ -1868,8 +1876,11 @@
       <c r="S2" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1077430</v>
       </c>
@@ -1926,8 +1937,11 @@
       <c r="S3" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1077175</v>
       </c>
@@ -1984,8 +1998,11 @@
       <c r="S4" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1076863</v>
       </c>
@@ -2042,8 +2059,11 @@
       <c r="S5" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1075358</v>
       </c>
@@ -2100,8 +2120,11 @@
       <c r="S6" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1075269</v>
       </c>
@@ -2158,8 +2181,11 @@
       <c r="S7" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1069639</v>
       </c>
@@ -2216,8 +2242,11 @@
       <c r="S8" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1072053</v>
       </c>
@@ -2274,8 +2303,11 @@
       <c r="S9" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1071795</v>
       </c>
@@ -2332,8 +2364,11 @@
       <c r="S10" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1071570</v>
       </c>
@@ -2390,8 +2425,11 @@
       <c r="S11" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1070078</v>
       </c>
@@ -2448,8 +2486,11 @@
       <c r="S12" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1069908</v>
       </c>
@@ -2506,8 +2547,11 @@
       <c r="S13" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1064687</v>
       </c>
@@ -2564,8 +2608,11 @@
       <c r="S14" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1069866</v>
       </c>
@@ -2622,8 +2669,11 @@
       <c r="S15" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1069057</v>
       </c>
@@ -2680,8 +2730,11 @@
       <c r="S16" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1069759</v>
       </c>
@@ -2738,8 +2791,11 @@
       <c r="S17" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1065775</v>
       </c>
@@ -2796,8 +2852,11 @@
       <c r="S18" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="12">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1069971</v>
       </c>
@@ -2854,8 +2913,11 @@
       <c r="S19" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19" s="12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1062474</v>
       </c>
@@ -2912,8 +2974,11 @@
       <c r="S20" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T20" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1069742</v>
       </c>
@@ -2970,8 +3035,11 @@
       <c r="S21" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1069740</v>
       </c>
@@ -3028,8 +3096,11 @@
       <c r="S22" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1039153</v>
       </c>
@@ -3086,8 +3157,11 @@
       <c r="S23" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1069710</v>
       </c>
@@ -3144,8 +3218,11 @@
       <c r="S24" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1069700</v>
       </c>
@@ -3202,8 +3279,11 @@
       <c r="S25" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1069559</v>
       </c>
@@ -3260,8 +3340,11 @@
       <c r="S26" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1069697</v>
       </c>
@@ -3318,8 +3401,11 @@
       <c r="S27" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1069800</v>
       </c>
@@ -3376,8 +3462,11 @@
       <c r="S28" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1069657</v>
       </c>
@@ -3434,8 +3523,11 @@
       <c r="S29" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1069799</v>
       </c>
@@ -3492,8 +3584,11 @@
       <c r="S30" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1047704</v>
       </c>
@@ -3550,8 +3645,11 @@
       <c r="S31" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1032111</v>
       </c>
@@ -3608,8 +3706,11 @@
       <c r="S32" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1069539</v>
       </c>
@@ -3666,8 +3767,11 @@
       <c r="S33" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1065420</v>
       </c>
@@ -3724,8 +3828,11 @@
       <c r="S34" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1069591</v>
       </c>
@@ -3782,8 +3889,11 @@
       <c r="S35" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1069530</v>
       </c>
@@ -3840,8 +3950,11 @@
       <c r="S36" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1069522</v>
       </c>
@@ -3898,8 +4011,11 @@
       <c r="S37" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1069361</v>
       </c>
@@ -3956,8 +4072,11 @@
       <c r="S38" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38" s="12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1069357</v>
       </c>
@@ -4014,8 +4133,11 @@
       <c r="S39" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1069356</v>
       </c>
@@ -4072,8 +4194,11 @@
       <c r="S40" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40" s="12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1069346</v>
       </c>
@@ -4130,8 +4255,11 @@
       <c r="S41" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1067573</v>
       </c>
@@ -4188,8 +4316,11 @@
       <c r="S42" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T42" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1069506</v>
       </c>
@@ -4246,8 +4377,11 @@
       <c r="S43" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T43" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1069314</v>
       </c>
@@ -4304,8 +4438,11 @@
       <c r="S44" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T44" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1060578</v>
       </c>
@@ -4362,8 +4499,11 @@
       <c r="S45" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1069469</v>
       </c>
@@ -4420,8 +4560,11 @@
       <c r="S46" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1051117</v>
       </c>
@@ -4478,8 +4621,11 @@
       <c r="S47" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1069465</v>
       </c>
@@ -4536,8 +4682,11 @@
       <c r="S48" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T48" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1069283</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="S49" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T49" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1069287</v>
       </c>
@@ -4652,8 +4804,11 @@
       <c r="S50" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1069453</v>
       </c>
@@ -4710,8 +4865,11 @@
       <c r="S51" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1069248</v>
       </c>
@@ -4768,8 +4926,11 @@
       <c r="S52" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1068120</v>
       </c>
@@ -4826,8 +4987,11 @@
       <c r="S53" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1069244</v>
       </c>
@@ -4884,8 +5048,11 @@
       <c r="S54" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T54" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1069243</v>
       </c>
@@ -4942,8 +5109,11 @@
       <c r="S55" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T55" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1069238</v>
       </c>
@@ -5000,8 +5170,11 @@
       <c r="S56" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1069410</v>
       </c>
@@ -5058,8 +5231,11 @@
       <c r="S57" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1068409</v>
       </c>
@@ -5116,8 +5292,11 @@
       <c r="S58" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T58" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1068487</v>
       </c>
@@ -5174,8 +5353,11 @@
       <c r="S59" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T59" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1043961</v>
       </c>
@@ -5232,8 +5414,11 @@
       <c r="S60" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T60" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1068945</v>
       </c>
@@ -5290,8 +5475,11 @@
       <c r="S61" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T61" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1069142</v>
       </c>
@@ -5348,8 +5536,11 @@
       <c r="S62" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T62" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1068934</v>
       </c>
@@ -5406,8 +5597,11 @@
       <c r="S63" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T63" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1069136</v>
       </c>
@@ -5464,8 +5658,11 @@
       <c r="S64" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T64" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1068923</v>
       </c>
@@ -5522,8 +5719,11 @@
       <c r="S65" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T65" s="12">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1069126</v>
       </c>
@@ -5580,8 +5780,11 @@
       <c r="S66" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T66" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1069102</v>
       </c>
@@ -5638,8 +5841,11 @@
       <c r="S67" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T67" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1069093</v>
       </c>
@@ -5696,8 +5902,11 @@
       <c r="S68" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T68" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1069030</v>
       </c>
@@ -5754,8 +5963,11 @@
       <c r="S69" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T69" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1068906</v>
       </c>
@@ -5812,8 +6024,11 @@
       <c r="S70" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T70" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1069073</v>
       </c>
@@ -5870,8 +6085,11 @@
       <c r="S71" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T71" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1069043</v>
       </c>
@@ -5928,8 +6146,11 @@
       <c r="S72" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T72" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1060981</v>
       </c>
@@ -5986,8 +6207,11 @@
       <c r="S73" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T73" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1069071</v>
       </c>
@@ -6044,8 +6268,11 @@
       <c r="S74" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T74" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1069070</v>
       </c>
@@ -6102,8 +6329,11 @@
       <c r="S75" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T75" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1068893</v>
       </c>
@@ -6160,8 +6390,11 @@
       <c r="S76" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T76" s="12">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1068882</v>
       </c>
@@ -6218,8 +6451,11 @@
       <c r="S77" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T77" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1069039</v>
       </c>
@@ -6276,8 +6512,11 @@
       <c r="S78" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T78" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1068416</v>
       </c>
@@ -6334,8 +6573,11 @@
       <c r="S79" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1068997</v>
       </c>
@@ -6392,8 +6634,11 @@
       <c r="S80" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T80" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1048390</v>
       </c>
@@ -6450,8 +6695,11 @@
       <c r="S81" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1068994</v>
       </c>
@@ -6508,8 +6756,11 @@
       <c r="S82" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T82" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1068475</v>
       </c>
@@ -6566,8 +6817,11 @@
       <c r="S83" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T83" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1068989</v>
       </c>
@@ -6624,8 +6878,11 @@
       <c r="S84" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T84" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1068967</v>
       </c>
@@ -6682,8 +6939,11 @@
       <c r="S85" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T85" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1068744</v>
       </c>
@@ -6740,8 +7000,11 @@
       <c r="S86" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T86" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1045509</v>
       </c>
@@ -6798,8 +7061,11 @@
       <c r="S87" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T87" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1063958</v>
       </c>
@@ -6856,8 +7122,11 @@
       <c r="S88" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T88" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1041756</v>
       </c>
@@ -6914,8 +7183,11 @@
       <c r="S89" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T89" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1068694</v>
       </c>
@@ -6972,8 +7244,11 @@
       <c r="S90" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T90" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1068792</v>
       </c>
@@ -7030,8 +7305,11 @@
       <c r="S91" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T91" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1068558</v>
       </c>
@@ -7088,8 +7366,11 @@
       <c r="S92" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T92" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1068322</v>
       </c>
@@ -7146,8 +7427,11 @@
       <c r="S93" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T93" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1065674</v>
       </c>
@@ -7204,8 +7488,11 @@
       <c r="S94" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T94" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1068547</v>
       </c>
@@ -7262,8 +7549,11 @@
       <c r="S95" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T95" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1068545</v>
       </c>
@@ -7320,8 +7610,11 @@
       <c r="S96" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T96" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1068575</v>
       </c>
@@ -7378,8 +7671,11 @@
       <c r="S97" s="11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T97" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1049528</v>
       </c>
@@ -7436,8 +7732,11 @@
       <c r="S98" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T98" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1068542</v>
       </c>
@@ -7494,8 +7793,11 @@
       <c r="S99" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T99" s="12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1068350</v>
       </c>
@@ -7552,8 +7854,11 @@
       <c r="S100" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T100" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G101" s="6"/>
       <c r="H101" s="8"/>
     </row>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4EA0B-EA42-4C1A-B339-F271EA8806CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AEADE-8B45-4BC3-A607-47C5532D38AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -258,7 +258,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -591,7 +591,8 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,13 +679,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>60</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H7" si="0">(H3-F4)</f>
+        <f>(H3-F4)</f>
         <v>431</v>
       </c>
     </row>
@@ -708,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f>(H4-F5)</f>
         <v>389</v>
       </c>
     </row>
@@ -732,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f>(H5-F6)</f>
         <v>373</v>
       </c>
     </row>
@@ -756,7 +757,7 @@
         <v>57</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f>(H6-F7)</f>
         <v>316</v>
       </c>
     </row>
@@ -824,7 +825,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:H13" si="1">(H9-F10)</f>
+        <f>(H9-F10)</f>
         <v>600</v>
       </c>
     </row>
@@ -848,7 +849,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f>(H10-F11)</f>
         <v>542</v>
       </c>
     </row>
@@ -866,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>17</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f>(H11-F12)</f>
         <v>525</v>
       </c>
     </row>
@@ -896,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f>(H12-F13)</f>
         <v>505</v>
       </c>
     </row>
@@ -940,7 +941,7 @@
         <v>57</v>
       </c>
       <c r="H15">
-        <f>(H14-F15)</f>
+        <f t="shared" ref="H15:H21" si="0">(H14-F15)</f>
         <v>848</v>
       </c>
     </row>
@@ -964,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16:H21" si="2">(H15-F16)</f>
+        <f t="shared" si="0"/>
         <v>811</v>
       </c>
     </row>
@@ -988,7 +989,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
     </row>
@@ -1012,7 +1013,7 @@
         <v>84</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
     </row>
@@ -1036,7 +1037,7 @@
         <v>57</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
     </row>
@@ -1060,7 +1061,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>548</v>
       </c>
     </row>
@@ -1084,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>524</v>
       </c>
     </row>
@@ -1152,7 +1153,7 @@
         <v>98</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:H26" si="3">(H23-F24)</f>
+        <f>(H23-F24)</f>
         <v>737</v>
       </c>
     </row>
@@ -1177,7 +1178,7 @@
       </c>
       <c r="G25"/>
       <c r="H25" s="3">
-        <f t="shared" si="3"/>
+        <f>(H24-F25)</f>
         <v>718</v>
       </c>
     </row>
@@ -1202,7 +1203,7 @@
       </c>
       <c r="G26"/>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
+        <f>(H25-F26)</f>
         <v>661</v>
       </c>
     </row>
@@ -1246,7 +1247,7 @@
         <v>64</v>
       </c>
       <c r="H28">
-        <f>(H27-F28)</f>
+        <f t="shared" ref="H28:H33" si="1">(H27-F28)</f>
         <v>997</v>
       </c>
     </row>
@@ -1270,7 +1271,7 @@
         <v>78</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:H33" si="4">(H28-F29)</f>
+        <f t="shared" si="1"/>
         <v>919</v>
       </c>
     </row>
@@ -1288,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>917</v>
       </c>
     </row>
@@ -1312,13 +1313,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>8</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>909</v>
       </c>
     </row>
@@ -1342,7 +1343,7 @@
         <v>68</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>841</v>
       </c>
     </row>
@@ -1366,7 +1367,7 @@
         <v>38</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>803</v>
       </c>
     </row>
@@ -1434,7 +1435,7 @@
         <v>37</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" ref="H36:H39" si="5">(H35-F36)</f>
+        <f>(H35-F36)</f>
         <v>1112</v>
       </c>
     </row>
@@ -1458,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="5"/>
+        <f>(H36-F37)</f>
         <v>1097</v>
       </c>
     </row>
@@ -1482,7 +1483,7 @@
         <v>69</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="5"/>
+        <f>(H37-F38)</f>
         <v>1028</v>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="5"/>
+        <f>(H38-F39)</f>
         <v>986</v>
       </c>
     </row>
@@ -1550,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="H41">
-        <f>(H40-F41)</f>
+        <f t="shared" ref="H41:H46" si="2">(H40-F41)</f>
         <v>1344</v>
       </c>
     </row>
@@ -1574,7 +1575,7 @@
         <v>52</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H42:H46" si="6">(H41-F42)</f>
+        <f t="shared" si="2"/>
         <v>1292</v>
       </c>
     </row>
@@ -1598,7 +1599,7 @@
         <v>95</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1197</v>
       </c>
     </row>
@@ -1622,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1183</v>
       </c>
     </row>
@@ -1646,7 +1647,7 @@
         <v>78</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1105</v>
       </c>
     </row>
@@ -1670,7 +1671,7 @@
         <v>59</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1046</v>
       </c>
     </row>
@@ -1732,13 +1733,13 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>74</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" ref="H49:H51" si="7">(H48-F49)</f>
+        <f>(H48-F49)</f>
         <v>1277</v>
       </c>
     </row>
@@ -1756,14 +1757,14 @@
         <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="7"/>
-        <v>1220</v>
+        <f>(H49-F50)</f>
+        <v>1250</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1786,11 +1787,14 @@
         <v>42</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="7"/>
-        <v>1178</v>
+        <f>(H50-F51)</f>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H51">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2AEADE-8B45-4BC3-A607-47C5532D38AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7B4FD-270D-4080-86E8-63067EF77A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$E$1:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>TRANS_ID</t>
   </si>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>16.06.2020</t>
+  </si>
+  <si>
+    <t>TRANS_TYPE_CODE</t>
   </si>
 </sst>
 </file>
@@ -234,12 +240,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,13 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -590,12 +604,13 @@
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -612,36 +627,42 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>400</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="6">
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -657,15 +678,18 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>59</v>
       </c>
-      <c r="H3">
-        <f>(H2-F3)</f>
+      <c r="I3">
+        <f>(I2-G3)</f>
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -681,15 +705,18 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>60</v>
       </c>
-      <c r="H4" s="3">
-        <f>(H3-F4)</f>
+      <c r="I4" s="3">
+        <f>(I3-G4)</f>
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -705,15 +732,18 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>42</v>
       </c>
-      <c r="H5" s="3">
-        <f>(H4-F5)</f>
+      <c r="I5" s="3">
+        <f>(I4-G5)</f>
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -729,15 +759,18 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>16</v>
       </c>
-      <c r="H6" s="3">
-        <f>(H5-F6)</f>
+      <c r="I6" s="3">
+        <f>(I5-G6)</f>
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -753,35 +786,45 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>57</v>
       </c>
-      <c r="H7" s="3">
-        <f>(H6-F7)</f>
+      <c r="I7" s="3">
+        <f>(I6-G7)</f>
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <v>400</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="6">
         <v>716</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="6">
+        <f>(I8-I2)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -797,15 +840,18 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>38</v>
       </c>
-      <c r="H9">
-        <f>(H8-F9)</f>
+      <c r="I9">
+        <f>(I8-G9)</f>
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -821,15 +867,18 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>78</v>
       </c>
-      <c r="H10" s="3">
-        <f>(H9-F10)</f>
+      <c r="I10" s="3">
+        <f>(I9-G10)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -845,15 +894,18 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>58</v>
       </c>
-      <c r="H11" s="3">
-        <f>(H10-F11)</f>
+      <c r="I11" s="3">
+        <f>(I10-G11)</f>
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -869,15 +921,18 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="H12" s="3">
-        <f>(H11-F12)</f>
+      <c r="I12" s="3">
+        <f>(I11-G12)</f>
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -893,35 +948,45 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13" s="3">
-        <f>(H12-F13)</f>
+      <c r="I13" s="3">
+        <f>(I12-G13)</f>
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>400</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="6">
         <v>905</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="6">
+        <f>(I14-I8)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -937,15 +1002,18 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>57</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H21" si="0">(H14-F15)</f>
+      <c r="I15">
+        <f>(I14-G15)</f>
         <v>848</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -961,15 +1029,18 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16">
         <v>37</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
+      <c r="I16" s="3">
+        <f>(I15-G16)</f>
         <v>811</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -985,15 +1056,18 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>50</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
+      <c r="I17" s="3">
+        <f>(I16-G17)</f>
         <v>761</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1009,15 +1083,18 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18">
         <v>84</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
+      <c r="I18" s="3">
+        <f>(I17-G18)</f>
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1033,15 +1110,18 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19">
         <v>57</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
+      <c r="I19" s="3">
+        <f>(I18-G19)</f>
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1057,15 +1137,18 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20">
         <v>72</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="0"/>
+      <c r="I20" s="3">
+        <f>(I19-G20)</f>
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1081,35 +1164,45 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>24</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="0"/>
+      <c r="I21" s="3">
+        <f>(I20-G21)</f>
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>400</v>
       </c>
-      <c r="H22">
+      <c r="I22" s="6">
         <v>924</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="6">
+        <f>(I22-I14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1125,15 +1218,18 @@
       <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23">
         <v>89</v>
       </c>
-      <c r="H23">
-        <f>(H22-F23)</f>
+      <c r="I23">
+        <f>(I22-G23)</f>
         <v>835</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1149,15 +1245,18 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>98</v>
       </c>
-      <c r="H24" s="3">
-        <f>(H23-F24)</f>
+      <c r="I24" s="3">
+        <f>(I23-G24)</f>
         <v>737</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1173,16 +1272,19 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25">
         <v>19</v>
       </c>
-      <c r="G25"/>
-      <c r="H25" s="3">
-        <f>(H24-F25)</f>
+      <c r="H25"/>
+      <c r="I25" s="3">
+        <f>(I24-G25)</f>
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1198,36 +1300,46 @@
       <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26">
         <v>57</v>
       </c>
-      <c r="G26"/>
-      <c r="H26" s="3">
-        <f>(H25-F26)</f>
+      <c r="H26"/>
+      <c r="I26" s="3">
+        <f>(I25-G26)</f>
         <v>661</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>400</v>
       </c>
-      <c r="H27">
+      <c r="I27" s="6">
         <v>1061</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" s="6">
+        <f>(I27-I22)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1243,15 +1355,18 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28">
         <v>64</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H33" si="1">(H27-F28)</f>
+      <c r="I28">
+        <f>(I27-G28)</f>
         <v>997</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1267,15 +1382,18 @@
       <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29">
         <v>78</v>
       </c>
-      <c r="H29" s="3">
-        <f t="shared" si="1"/>
+      <c r="I29" s="3">
+        <f>(I28-G29)</f>
         <v>919</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1291,15 +1409,18 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="1"/>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <f>(I29-G30)</f>
         <v>917</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1315,15 +1436,18 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>8</v>
       </c>
-      <c r="H31" s="3">
-        <f t="shared" si="1"/>
+      <c r="I31" s="3">
+        <f>(I30-G31)</f>
         <v>909</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1339,15 +1463,18 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32">
         <v>68</v>
       </c>
-      <c r="H32" s="3">
-        <f t="shared" si="1"/>
+      <c r="I32" s="3">
+        <f>(I31-G32)</f>
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1363,35 +1490,45 @@
       <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>38</v>
       </c>
-      <c r="H33" s="3">
-        <f t="shared" si="1"/>
+      <c r="I33" s="3">
+        <f>(I32-G33)</f>
         <v>803</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
         <v>400</v>
       </c>
-      <c r="H34">
+      <c r="I34" s="6">
         <v>1203</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="6">
+        <f>(I34-I27)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1407,15 +1544,18 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35">
         <v>54</v>
       </c>
-      <c r="H35">
-        <f>(H34-F35)</f>
+      <c r="I35">
+        <f>(I34-G35)</f>
         <v>1149</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1431,15 +1571,18 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36">
         <v>37</v>
       </c>
-      <c r="H36" s="3">
-        <f>(H35-F36)</f>
+      <c r="I36" s="3">
+        <f>(I35-G36)</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1455,15 +1598,18 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>15</v>
       </c>
-      <c r="H37" s="3">
-        <f>(H36-F37)</f>
+      <c r="I37" s="3">
+        <f>(I36-G37)</f>
         <v>1097</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1479,15 +1625,18 @@
       <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38">
         <v>69</v>
       </c>
-      <c r="H38" s="3">
-        <f>(H37-F38)</f>
+      <c r="I38" s="3">
+        <f>(I37-G38)</f>
         <v>1028</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1503,35 +1652,45 @@
       <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
+        <v>4</v>
+      </c>
+      <c r="G39">
         <v>42</v>
       </c>
-      <c r="H39" s="3">
-        <f>(H38-F39)</f>
+      <c r="I39" s="3">
+        <f>(I38-G39)</f>
         <v>986</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6">
         <v>9</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
         <v>400</v>
       </c>
-      <c r="H40">
+      <c r="I40" s="6">
         <v>1386</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="6">
+        <f>(I40-I34)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1547,15 +1706,18 @@
       <c r="E41" t="s">
         <v>14</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41">
         <v>42</v>
       </c>
-      <c r="H41">
-        <f t="shared" ref="H41:H46" si="2">(H40-F41)</f>
+      <c r="I41">
+        <f>(I40-G41)</f>
         <v>1344</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1571,15 +1733,18 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42">
         <v>52</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="2"/>
+      <c r="I42" s="3">
+        <f>(I41-G42)</f>
         <v>1292</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1595,15 +1760,18 @@
       <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+      <c r="G43">
         <v>95</v>
       </c>
-      <c r="H43" s="3">
-        <f t="shared" si="2"/>
+      <c r="I43" s="3">
+        <f>(I42-G43)</f>
         <v>1197</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1619,15 +1787,18 @@
       <c r="E44" t="s">
         <v>20</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44">
         <v>14</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" si="2"/>
+      <c r="I44" s="3">
+        <f>(I43-G44)</f>
         <v>1183</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1643,15 +1814,18 @@
       <c r="E45" t="s">
         <v>17</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45">
         <v>78</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="2"/>
+      <c r="I45" s="3">
+        <f>(I44-G45)</f>
         <v>1105</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1667,35 +1841,45 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>59</v>
       </c>
-      <c r="H46" s="3">
-        <f t="shared" si="2"/>
+      <c r="I46" s="3">
+        <f>(I45-G46)</f>
         <v>1046</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
         <v>400</v>
       </c>
-      <c r="H47">
+      <c r="I47" s="6">
         <v>1446</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="6">
+        <f>(I47-I40)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1711,15 +1895,18 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48">
         <v>95</v>
       </c>
-      <c r="H48">
-        <f>(H47-F48)</f>
+      <c r="I48">
+        <f>(I47-G48)</f>
         <v>1351</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1735,15 +1922,18 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49">
         <v>74</v>
       </c>
-      <c r="H49" s="3">
-        <f>(H48-F49)</f>
+      <c r="I49" s="3">
+        <f>(I48-G49)</f>
         <v>1277</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1759,15 +1949,18 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50">
         <v>27</v>
       </c>
-      <c r="H50" s="3">
-        <f>(H49-F50)</f>
+      <c r="I50" s="3">
+        <f>(I49-G50)</f>
         <v>1250</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1783,16 +1976,19 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>42</v>
       </c>
-      <c r="H51" s="3">
-        <f>(H50-F51)</f>
+      <c r="I51" s="3">
+        <f>(I50-G51)</f>
         <v>1208</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I52">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E3F38-7C99-4EF7-BE0A-D412FE43FAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20915882-DF8A-4EE2-8498-EC1A4ED513A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -146,6 +149,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +594,7 @@
   <dimension ref="A1:BT153"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -598,9 +605,10 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.4140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.3">
@@ -622,13 +630,13 @@
       <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -649,18 +657,18 @@
         <v>10</v>
       </c>
       <c r="F2" s="5">
-        <f>IF(E2="Healthcare",1,IF(E2="Food",2,IF(E2="Weekly pay",0,IF(E2="Clothing",3,IF(E2="Travel",4,IF(E2="Utilities",5))))))</f>
+        <f t="shared" ref="F2:F33" si="0">IF(E2="Healthcare",1,IF(E2="Food",2,IF(E2="Weekly pay",0,IF(E2="Clothing",3,IF(E2="Travel",4,IF(E2="Utilities",5))))))</f>
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <f>(J3-G2)</f>
         <v>480</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="9">
         <f>(I2-H2)</f>
         <v>480</v>
       </c>
@@ -744,18 +752,17 @@
         <v>7</v>
       </c>
       <c r="F3" s="5">
-        <f>IF(E3="Healthcare",1,IF(E3="Food",2,IF(E3="Weekly pay",0,IF(E3="Clothing",3,IF(E3="Travel",4,IF(E3="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>59</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="I3" s="8">
         <f>(I2-G3)</f>
         <v>421</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="9">
         <v>500</v>
       </c>
       <c r="K3" s="6"/>
@@ -838,18 +845,17 @@
         <v>6</v>
       </c>
       <c r="F4" s="5">
-        <f>IF(E4="Healthcare",1,IF(E4="Food",2,IF(E4="Weekly pay",0,IF(E4="Clothing",3,IF(E4="Travel",4,IF(E4="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>60</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="I4" s="8">
         <f>(I3-G4)</f>
         <v>361</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -930,18 +936,17 @@
         <v>9</v>
       </c>
       <c r="F5" s="5">
-        <f>IF(E5="Healthcare",1,IF(E5="Food",2,IF(E5="Weekly pay",0,IF(E5="Clothing",3,IF(E5="Travel",4,IF(E5="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <v>42</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
+      <c r="I5" s="8">
         <f>(I4-G5)</f>
         <v>319</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1022,18 +1027,17 @@
         <v>10</v>
       </c>
       <c r="F6" s="5">
-        <f>IF(E6="Healthcare",1,IF(E6="Food",2,IF(E6="Weekly pay",0,IF(E6="Clothing",3,IF(E6="Travel",4,IF(E6="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <v>16</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="I6" s="8">
         <f>(I5-G6)</f>
         <v>303</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -1114,18 +1118,17 @@
         <v>6</v>
       </c>
       <c r="F7" s="5">
-        <f>IF(E7="Healthcare",1,IF(E7="Food",2,IF(E7="Weekly pay",0,IF(E7="Clothing",3,IF(E7="Travel",4,IF(E7="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>57</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <f>(I6-G7)</f>
         <v>246</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -1206,18 +1209,18 @@
         <v>12</v>
       </c>
       <c r="F8" s="5">
-        <f>IF(E8="Healthcare",1,IF(E8="Food",2,IF(E8="Weekly pay",0,IF(E8="Clothing",3,IF(E8="Travel",4,IF(E8="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>400</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <f>(I7+H8)</f>
         <v>646</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="9">
         <f>(I8-I2)</f>
         <v>166</v>
       </c>
@@ -1301,18 +1304,17 @@
         <v>8</v>
       </c>
       <c r="F9" s="5">
-        <f>IF(E9="Healthcare",1,IF(E9="Food",2,IF(E9="Weekly pay",0,IF(E9="Clothing",3,IF(E9="Travel",4,IF(E9="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>38</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <f>(I8-G9)</f>
         <v>608</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1393,18 +1395,17 @@
         <v>6</v>
       </c>
       <c r="F10" s="5">
-        <f>IF(E10="Healthcare",1,IF(E10="Food",2,IF(E10="Weekly pay",0,IF(E10="Clothing",3,IF(E10="Travel",4,IF(E10="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <v>78</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="I10" s="8">
         <f>(I9-G10)</f>
         <v>530</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1485,18 +1486,17 @@
         <v>10</v>
       </c>
       <c r="F11" s="5">
-        <f>IF(E11="Healthcare",1,IF(E11="Food",2,IF(E11="Weekly pay",0,IF(E11="Clothing",3,IF(E11="Travel",4,IF(E11="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>58</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="I11" s="8">
         <f>(I10-G11)</f>
         <v>472</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1577,18 +1577,17 @@
         <v>6</v>
       </c>
       <c r="F12" s="5">
-        <f>IF(E12="Healthcare",1,IF(E12="Food",2,IF(E12="Weekly pay",0,IF(E12="Clothing",3,IF(E12="Travel",4,IF(E12="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <v>17</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="I12" s="8">
         <f>(I11-G12)</f>
         <v>455</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1669,18 +1668,17 @@
         <v>7</v>
       </c>
       <c r="F13" s="5">
-        <f>IF(E13="Healthcare",1,IF(E13="Food",2,IF(E13="Weekly pay",0,IF(E13="Clothing",3,IF(E13="Travel",4,IF(E13="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
         <f>(I12-G13)</f>
         <v>435</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1761,18 +1759,18 @@
         <v>12</v>
       </c>
       <c r="F14" s="5">
-        <f>IF(E14="Healthcare",1,IF(E14="Food",2,IF(E14="Weekly pay",0,IF(E14="Clothing",3,IF(E14="Travel",4,IF(E14="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <v>400</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="8">
         <f>(I13+H14)</f>
         <v>835</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="9">
         <f>(I14-I8)</f>
         <v>189</v>
       </c>
@@ -1856,15 +1854,14 @@
         <v>7</v>
       </c>
       <c r="F15" s="5">
-        <f>IF(E15="Healthcare",1,IF(E15="Food",2,IF(E15="Weekly pay",0,IF(E15="Clothing",3,IF(E15="Travel",4,IF(E15="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <v>57</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <f>(I14-G15)</f>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15:I21" si="1">(I14-G15)</f>
         <v>778</v>
       </c>
     </row>
@@ -1885,15 +1882,14 @@
         <v>10</v>
       </c>
       <c r="F16" s="5">
-        <f>IF(E16="Healthcare",1,IF(E16="Food",2,IF(E16="Weekly pay",0,IF(E16="Clothing",3,IF(E16="Travel",4,IF(E16="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <v>37</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <f>(I15-G16)</f>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
     </row>
@@ -1914,15 +1910,14 @@
         <v>6</v>
       </c>
       <c r="F17" s="5">
-        <f>IF(E17="Healthcare",1,IF(E17="Food",2,IF(E17="Weekly pay",0,IF(E17="Clothing",3,IF(E17="Travel",4,IF(E17="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <f>(I16-G17)</f>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
         <v>691</v>
       </c>
     </row>
@@ -1943,15 +1938,14 @@
         <v>9</v>
       </c>
       <c r="F18" s="5">
-        <f>IF(E18="Healthcare",1,IF(E18="Food",2,IF(E18="Weekly pay",0,IF(E18="Clothing",3,IF(E18="Travel",4,IF(E18="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="8">
         <v>84</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <f>(I17-G18)</f>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
     </row>
@@ -1972,15 +1966,14 @@
         <v>9</v>
       </c>
       <c r="F19" s="5">
-        <f>IF(E19="Healthcare",1,IF(E19="Food",2,IF(E19="Weekly pay",0,IF(E19="Clothing",3,IF(E19="Travel",4,IF(E19="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <f>(I18-G19)</f>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
     </row>
@@ -2001,15 +1994,14 @@
         <v>6</v>
       </c>
       <c r="F20" s="5">
-        <f>IF(E20="Healthcare",1,IF(E20="Food",2,IF(E20="Weekly pay",0,IF(E20="Clothing",3,IF(E20="Travel",4,IF(E20="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="8">
         <v>72</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <f>(I19-G20)</f>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
         <v>478</v>
       </c>
     </row>
@@ -2030,18 +2022,16 @@
         <v>7</v>
       </c>
       <c r="F21" s="5">
-        <f>IF(E21="Healthcare",1,IF(E21="Food",2,IF(E21="Weekly pay",0,IF(E21="Clothing",3,IF(E21="Travel",4,IF(E21="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <v>24</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <f>(I20-G21)</f>
+      <c r="I21" s="8">
+        <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -2060,18 +2050,18 @@
         <v>12</v>
       </c>
       <c r="F22" s="5">
-        <f>IF(E22="Healthcare",1,IF(E22="Food",2,IF(E22="Weekly pay",0,IF(E22="Clothing",3,IF(E22="Travel",4,IF(E22="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
         <v>400</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="8">
         <f>(I21+H22)</f>
         <v>854</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="10">
         <f>(I22-I14)</f>
         <v>19</v>
       </c>
@@ -2093,14 +2083,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="5">
-        <f>IF(E23="Healthcare",1,IF(E23="Food",2,IF(E23="Weekly pay",0,IF(E23="Clothing",3,IF(E23="Travel",4,IF(E23="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <v>89</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="I23" s="8">
         <f>(I22-G23)</f>
         <v>765</v>
       </c>
@@ -2122,14 +2111,13 @@
         <v>6</v>
       </c>
       <c r="F24" s="5">
-        <f>IF(E24="Healthcare",1,IF(E24="Food",2,IF(E24="Weekly pay",0,IF(E24="Clothing",3,IF(E24="Travel",4,IF(E24="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="8">
         <v>98</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="I24" s="8">
         <f>(I23-G24)</f>
         <v>667</v>
       </c>
@@ -2151,16 +2139,18 @@
         <v>9</v>
       </c>
       <c r="F25" s="5">
-        <f>IF(E25="Healthcare",1,IF(E25="Food",2,IF(E25="Weekly pay",0,IF(E25="Clothing",3,IF(E25="Travel",4,IF(E25="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>19</v>
       </c>
-      <c r="I25" s="2">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
         <f>(I24-G25)</f>
         <v>648</v>
       </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -2179,16 +2169,18 @@
         <v>8</v>
       </c>
       <c r="F26" s="5">
-        <f>IF(E26="Healthcare",1,IF(E26="Food",2,IF(E26="Weekly pay",0,IF(E26="Clothing",3,IF(E26="Travel",4,IF(E26="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <v>57</v>
       </c>
-      <c r="I26" s="2">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
         <f>(I25-G26)</f>
         <v>591</v>
       </c>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -2207,18 +2199,18 @@
         <v>12</v>
       </c>
       <c r="F27" s="5">
-        <f>IF(E27="Healthcare",1,IF(E27="Food",2,IF(E27="Weekly pay",0,IF(E27="Clothing",3,IF(E27="Travel",4,IF(E27="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <v>400</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="8">
         <f>(I26+H27)</f>
         <v>991</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="10">
         <f>(I27-I22)</f>
         <v>137</v>
       </c>
@@ -2240,14 +2232,13 @@
         <v>6</v>
       </c>
       <c r="F28" s="5">
-        <f>IF(E28="Healthcare",1,IF(E28="Food",2,IF(E28="Weekly pay",0,IF(E28="Clothing",3,IF(E28="Travel",4,IF(E28="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="8">
         <v>64</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
+      <c r="I28" s="8">
         <f>(I27-G28)</f>
         <v>927</v>
       </c>
@@ -2269,14 +2260,13 @@
         <v>12</v>
       </c>
       <c r="F29" s="5">
-        <f>IF(E29="Healthcare",1,IF(E29="Food",2,IF(E29="Weekly pay",0,IF(E29="Clothing",3,IF(E29="Travel",4,IF(E29="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="H29" s="8">
         <v>400</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="8">
         <f>(I28+H29)</f>
         <v>1327</v>
       </c>
@@ -2298,14 +2288,13 @@
         <v>6</v>
       </c>
       <c r="F30" s="5">
-        <f>IF(E30="Healthcare",1,IF(E30="Food",2,IF(E30="Weekly pay",0,IF(E30="Clothing",3,IF(E30="Travel",4,IF(E30="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="8">
         <v>2</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
+      <c r="I30" s="8">
         <f>(I29-G30)</f>
         <v>1325</v>
       </c>
@@ -2327,14 +2316,13 @@
         <v>6</v>
       </c>
       <c r="F31" s="5">
-        <f>IF(E31="Healthcare",1,IF(E31="Food",2,IF(E31="Weekly pay",0,IF(E31="Clothing",3,IF(E31="Travel",4,IF(E31="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="8">
         <v>8</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
+      <c r="I31" s="8">
         <f>(I30-G31)</f>
         <v>1317</v>
       </c>
@@ -2356,14 +2344,13 @@
         <v>9</v>
       </c>
       <c r="F32" s="5">
-        <f>IF(E32="Healthcare",1,IF(E32="Food",2,IF(E32="Weekly pay",0,IF(E32="Clothing",3,IF(E32="Travel",4,IF(E32="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="8">
         <v>68</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
+      <c r="I32" s="8">
         <f>(I31-G32)</f>
         <v>1249</v>
       </c>
@@ -2385,14 +2372,13 @@
         <v>8</v>
       </c>
       <c r="F33" s="5">
-        <f>IF(E33="Healthcare",1,IF(E33="Food",2,IF(E33="Weekly pay",0,IF(E33="Clothing",3,IF(E33="Travel",4,IF(E33="Utilities",5))))))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="8">
         <v>38</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
+      <c r="I33" s="8">
         <f>(I32-G33)</f>
         <v>1211</v>
       </c>
@@ -2414,18 +2400,18 @@
         <v>12</v>
       </c>
       <c r="F34" s="5">
-        <f>IF(E34="Healthcare",1,IF(E34="Food",2,IF(E34="Weekly pay",0,IF(E34="Clothing",3,IF(E34="Travel",4,IF(E34="Utilities",5))))))</f>
+        <f t="shared" ref="F34:F65" si="2">IF(E34="Healthcare",1,IF(E34="Food",2,IF(E34="Weekly pay",0,IF(E34="Clothing",3,IF(E34="Travel",4,IF(E34="Utilities",5))))))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
         <v>400</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="8">
         <f>(I33+H34)</f>
         <v>1611</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="10">
         <f>(I34-I27)</f>
         <v>620</v>
       </c>
@@ -2447,14 +2433,13 @@
         <v>6</v>
       </c>
       <c r="F35" s="5">
-        <f>IF(E35="Healthcare",1,IF(E35="Food",2,IF(E35="Weekly pay",0,IF(E35="Clothing",3,IF(E35="Travel",4,IF(E35="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <v>54</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
+      <c r="I35" s="8">
         <f>(I34-G35)</f>
         <v>1557</v>
       </c>
@@ -2476,14 +2461,13 @@
         <v>9</v>
       </c>
       <c r="F36" s="5">
-        <f>IF(E36="Healthcare",1,IF(E36="Food",2,IF(E36="Weekly pay",0,IF(E36="Clothing",3,IF(E36="Travel",4,IF(E36="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="8">
         <v>37</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
+      <c r="I36" s="8">
         <f>(I35-G36)</f>
         <v>1520</v>
       </c>
@@ -2505,14 +2489,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="5">
-        <f>IF(E37="Healthcare",1,IF(E37="Food",2,IF(E37="Weekly pay",0,IF(E37="Clothing",3,IF(E37="Travel",4,IF(E37="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <v>15</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+      <c r="I37" s="8">
         <f>(I36-G37)</f>
         <v>1505</v>
       </c>
@@ -2534,14 +2517,13 @@
         <v>8</v>
       </c>
       <c r="F38" s="5">
-        <f>IF(E38="Healthcare",1,IF(E38="Food",2,IF(E38="Weekly pay",0,IF(E38="Clothing",3,IF(E38="Travel",4,IF(E38="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <v>69</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+      <c r="I38" s="8">
         <f>(I37-G38)</f>
         <v>1436</v>
       </c>
@@ -2563,14 +2545,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="5">
-        <f>IF(E39="Healthcare",1,IF(E39="Food",2,IF(E39="Weekly pay",0,IF(E39="Clothing",3,IF(E39="Travel",4,IF(E39="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="8">
         <v>42</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
+      <c r="I39" s="8">
         <f>(I38-G39)</f>
         <v>1394</v>
       </c>
@@ -2592,18 +2573,18 @@
         <v>12</v>
       </c>
       <c r="F40" s="5">
-        <f>IF(E40="Healthcare",1,IF(E40="Food",2,IF(E40="Weekly pay",0,IF(E40="Clothing",3,IF(E40="Travel",4,IF(E40="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
         <v>400</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="8">
         <f>(I39+H40)</f>
         <v>1794</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="10">
         <f>(I40-I34)</f>
         <v>183</v>
       </c>
@@ -2625,15 +2606,14 @@
         <v>8</v>
       </c>
       <c r="F41" s="5">
-        <f>IF(E41="Healthcare",1,IF(E41="Food",2,IF(E41="Weekly pay",0,IF(E41="Clothing",3,IF(E41="Travel",4,IF(E41="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <v>42</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
-        <f>(I40-G41)</f>
+      <c r="I41" s="8">
+        <f t="shared" ref="I41:I46" si="3">(I40-G41)</f>
         <v>1752</v>
       </c>
     </row>
@@ -2654,15 +2634,14 @@
         <v>6</v>
       </c>
       <c r="F42" s="5">
-        <f>IF(E42="Healthcare",1,IF(E42="Food",2,IF(E42="Weekly pay",0,IF(E42="Clothing",3,IF(E42="Travel",4,IF(E42="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>52</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
-        <f>(I41-G42)</f>
+      <c r="I42" s="8">
+        <f t="shared" si="3"/>
         <v>1700</v>
       </c>
     </row>
@@ -2683,18 +2662,16 @@
         <v>10</v>
       </c>
       <c r="F43" s="5">
-        <f>IF(E43="Healthcare",1,IF(E43="Food",2,IF(E43="Weekly pay",0,IF(E43="Clothing",3,IF(E43="Travel",4,IF(E43="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <v>95</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <f>(I42-G43)</f>
+      <c r="I43" s="8">
+        <f t="shared" si="3"/>
         <v>1605</v>
       </c>
-      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -2713,18 +2690,16 @@
         <v>10</v>
       </c>
       <c r="F44" s="5">
-        <f>IF(E44="Healthcare",1,IF(E44="Food",2,IF(E44="Weekly pay",0,IF(E44="Clothing",3,IF(E44="Travel",4,IF(E44="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="8">
         <v>14</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <f>(I43-G44)</f>
+      <c r="I44" s="8">
+        <f t="shared" si="3"/>
         <v>1591</v>
       </c>
-      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -2743,15 +2718,14 @@
         <v>9</v>
       </c>
       <c r="F45" s="5">
-        <f>IF(E45="Healthcare",1,IF(E45="Food",2,IF(E45="Weekly pay",0,IF(E45="Clothing",3,IF(E45="Travel",4,IF(E45="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="8">
         <v>78</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <f>(I44-G45)</f>
+      <c r="I45" s="8">
+        <f t="shared" si="3"/>
         <v>1513</v>
       </c>
     </row>
@@ -2772,15 +2746,14 @@
         <v>6</v>
       </c>
       <c r="F46" s="5">
-        <f>IF(E46="Healthcare",1,IF(E46="Food",2,IF(E46="Weekly pay",0,IF(E46="Clothing",3,IF(E46="Travel",4,IF(E46="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <v>59</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
-        <f>(I45-G46)</f>
+      <c r="I46" s="8">
+        <f t="shared" si="3"/>
         <v>1454</v>
       </c>
     </row>
@@ -2801,18 +2774,18 @@
         <v>12</v>
       </c>
       <c r="F47" s="5">
-        <f>IF(E47="Healthcare",1,IF(E47="Food",2,IF(E47="Weekly pay",0,IF(E47="Clothing",3,IF(E47="Travel",4,IF(E47="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2">
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
         <v>400</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="8">
         <f>(I46+H47)</f>
         <v>1854</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="10">
         <f>(I47-I40)</f>
         <v>60</v>
       </c>
@@ -2834,14 +2807,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="5">
-        <f>IF(E48="Healthcare",1,IF(E48="Food",2,IF(E48="Weekly pay",0,IF(E48="Clothing",3,IF(E48="Travel",4,IF(E48="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="8">
         <v>95</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
+      <c r="I48" s="8">
         <f>(I47-G48)</f>
         <v>1759</v>
       </c>
@@ -2863,14 +2835,13 @@
         <v>6</v>
       </c>
       <c r="F49" s="5">
-        <f>IF(E49="Healthcare",1,IF(E49="Food",2,IF(E49="Weekly pay",0,IF(E49="Clothing",3,IF(E49="Travel",4,IF(E49="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="8">
         <v>74</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2">
+      <c r="I49" s="8">
         <f>(I48-G49)</f>
         <v>1685</v>
       </c>
@@ -2892,14 +2863,13 @@
         <v>6</v>
       </c>
       <c r="F50" s="5">
-        <f>IF(E50="Healthcare",1,IF(E50="Food",2,IF(E50="Weekly pay",0,IF(E50="Clothing",3,IF(E50="Travel",4,IF(E50="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="8">
         <v>27</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
+      <c r="I50" s="8">
         <f>(I49-G50)</f>
         <v>1658</v>
       </c>
@@ -2921,14 +2891,13 @@
         <v>7</v>
       </c>
       <c r="F51" s="5">
-        <f>IF(E51="Healthcare",1,IF(E51="Food",2,IF(E51="Weekly pay",0,IF(E51="Clothing",3,IF(E51="Travel",4,IF(E51="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="8">
         <v>42</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2">
+      <c r="I51" s="8">
         <f>(I50-G51)</f>
         <v>1616</v>
       </c>
@@ -2950,18 +2919,17 @@
         <v>8</v>
       </c>
       <c r="F52" s="5">
-        <f>IF(E52="Healthcare",1,IF(E52="Food",2,IF(E52="Weekly pay",0,IF(E52="Clothing",3,IF(E52="Travel",4,IF(E52="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="8">
         <v>42</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2">
+      <c r="I52" s="8">
         <f>(J52-G52)</f>
         <v>958</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="8">
         <v>1000</v>
       </c>
     </row>
@@ -2982,15 +2950,14 @@
         <v>10</v>
       </c>
       <c r="F53" s="5">
-        <f>IF(E53="Healthcare",1,IF(E53="Food",2,IF(E53="Weekly pay",0,IF(E53="Clothing",3,IF(E53="Travel",4,IF(E53="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="8">
         <v>62</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2">
-        <f>(I52-G53)</f>
+      <c r="I53" s="8">
+        <f t="shared" ref="I53:I59" si="4">(I52-G53)</f>
         <v>896</v>
       </c>
     </row>
@@ -3011,15 +2978,14 @@
         <v>9</v>
       </c>
       <c r="F54" s="5">
-        <f>IF(E54="Healthcare",1,IF(E54="Food",2,IF(E54="Weekly pay",0,IF(E54="Clothing",3,IF(E54="Travel",4,IF(E54="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="8">
         <v>1</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2">
-        <f>(I53-G54)</f>
+      <c r="I54" s="8">
+        <f t="shared" si="4"/>
         <v>895</v>
       </c>
     </row>
@@ -3040,15 +3006,14 @@
         <v>7</v>
       </c>
       <c r="F55" s="5">
-        <f>IF(E55="Healthcare",1,IF(E55="Food",2,IF(E55="Weekly pay",0,IF(E55="Clothing",3,IF(E55="Travel",4,IF(E55="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="8">
         <v>77</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2">
-        <f>(I54-G55)</f>
+      <c r="I55" s="8">
+        <f t="shared" si="4"/>
         <v>818</v>
       </c>
     </row>
@@ -3069,15 +3034,14 @@
         <v>10</v>
       </c>
       <c r="F56" s="5">
-        <f>IF(E56="Healthcare",1,IF(E56="Food",2,IF(E56="Weekly pay",0,IF(E56="Clothing",3,IF(E56="Travel",4,IF(E56="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="8">
         <v>35</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2">
-        <f>(I55-G56)</f>
+      <c r="I56" s="8">
+        <f t="shared" si="4"/>
         <v>783</v>
       </c>
     </row>
@@ -3098,15 +3062,14 @@
         <v>6</v>
       </c>
       <c r="F57" s="5">
-        <f>IF(E57="Healthcare",1,IF(E57="Food",2,IF(E57="Weekly pay",0,IF(E57="Clothing",3,IF(E57="Travel",4,IF(E57="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="8">
         <v>48</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2">
-        <f>(I56-G57)</f>
+      <c r="I57" s="8">
+        <f t="shared" si="4"/>
         <v>735</v>
       </c>
     </row>
@@ -3127,15 +3090,14 @@
         <v>7</v>
       </c>
       <c r="F58" s="5">
-        <f>IF(E58="Healthcare",1,IF(E58="Food",2,IF(E58="Weekly pay",0,IF(E58="Clothing",3,IF(E58="Travel",4,IF(E58="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="8">
         <v>81</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <f>(I57-G58)</f>
+      <c r="I58" s="8">
+        <f t="shared" si="4"/>
         <v>654</v>
       </c>
     </row>
@@ -3156,15 +3118,14 @@
         <v>6</v>
       </c>
       <c r="F59" s="5">
-        <f>IF(E59="Healthcare",1,IF(E59="Food",2,IF(E59="Weekly pay",0,IF(E59="Clothing",3,IF(E59="Travel",4,IF(E59="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="8">
         <v>32</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2">
-        <f>(I58-G59)</f>
+      <c r="I59" s="8">
+        <f t="shared" si="4"/>
         <v>622</v>
       </c>
     </row>
@@ -3185,14 +3146,13 @@
         <v>12</v>
       </c>
       <c r="F60" s="5">
-        <f>IF(E60="Healthcare",1,IF(E60="Food",2,IF(E60="Weekly pay",0,IF(E60="Clothing",3,IF(E60="Travel",4,IF(E60="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2">
+      <c r="H60" s="8">
         <v>400</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="8">
         <f>(I59+H60)</f>
         <v>1022</v>
       </c>
@@ -3214,15 +3174,14 @@
         <v>9</v>
       </c>
       <c r="F61" s="5">
-        <f>IF(E61="Healthcare",1,IF(E61="Food",2,IF(E61="Weekly pay",0,IF(E61="Clothing",3,IF(E61="Travel",4,IF(E61="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="8">
         <v>67</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2">
-        <f>(I60-G61)</f>
+      <c r="I61" s="8">
+        <f t="shared" ref="I61:I68" si="5">(I60-G61)</f>
         <v>955</v>
       </c>
     </row>
@@ -3243,15 +3202,14 @@
         <v>8</v>
       </c>
       <c r="F62" s="5">
-        <f>IF(E62="Healthcare",1,IF(E62="Food",2,IF(E62="Weekly pay",0,IF(E62="Clothing",3,IF(E62="Travel",4,IF(E62="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="8">
         <v>38</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2">
-        <f>(I61-G62)</f>
+      <c r="I62" s="8">
+        <f t="shared" si="5"/>
         <v>917</v>
       </c>
     </row>
@@ -3272,15 +3230,14 @@
         <v>9</v>
       </c>
       <c r="F63" s="5">
-        <f>IF(E63="Healthcare",1,IF(E63="Food",2,IF(E63="Weekly pay",0,IF(E63="Clothing",3,IF(E63="Travel",4,IF(E63="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="8">
         <v>68</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2">
-        <f>(I62-G63)</f>
+      <c r="I63" s="8">
+        <f t="shared" si="5"/>
         <v>849</v>
       </c>
     </row>
@@ -3301,20 +3258,18 @@
         <v>10</v>
       </c>
       <c r="F64" s="5">
-        <f>IF(E64="Healthcare",1,IF(E64="Food",2,IF(E64="Weekly pay",0,IF(E64="Clothing",3,IF(E64="Travel",4,IF(E64="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="8">
         <v>38</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2">
-        <f>(I63-G64)</f>
+      <c r="I64" s="8">
+        <f t="shared" si="5"/>
         <v>811</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3331,19 +3286,18 @@
         <v>8</v>
       </c>
       <c r="F65" s="5">
-        <f>IF(E65="Healthcare",1,IF(E65="Food",2,IF(E65="Weekly pay",0,IF(E65="Clothing",3,IF(E65="Travel",4,IF(E65="Utilities",5))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="8">
         <v>71</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2">
-        <f>(I64-G65)</f>
+      <c r="I65" s="8">
+        <f t="shared" si="5"/>
         <v>740</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3360,19 +3314,18 @@
         <v>7</v>
       </c>
       <c r="F66" s="5">
-        <f>IF(E66="Healthcare",1,IF(E66="Food",2,IF(E66="Weekly pay",0,IF(E66="Clothing",3,IF(E66="Travel",4,IF(E66="Utilities",5))))))</f>
+        <f t="shared" ref="F66:F97" si="6">IF(E66="Healthcare",1,IF(E66="Food",2,IF(E66="Weekly pay",0,IF(E66="Clothing",3,IF(E66="Travel",4,IF(E66="Utilities",5))))))</f>
         <v>1</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="8">
         <v>103</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2">
-        <f>(I65-G66)</f>
+      <c r="I66" s="8">
+        <f t="shared" si="5"/>
         <v>637</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3389,19 +3342,18 @@
         <v>9</v>
       </c>
       <c r="F67" s="5">
-        <f>IF(E67="Healthcare",1,IF(E67="Food",2,IF(E67="Weekly pay",0,IF(E67="Clothing",3,IF(E67="Travel",4,IF(E67="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="8">
         <v>26</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2">
-        <f>(I66-G67)</f>
+      <c r="I67" s="8">
+        <f t="shared" si="5"/>
         <v>611</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3418,19 +3370,18 @@
         <v>7</v>
       </c>
       <c r="F68" s="5">
-        <f>IF(E68="Healthcare",1,IF(E68="Food",2,IF(E68="Weekly pay",0,IF(E68="Clothing",3,IF(E68="Travel",4,IF(E68="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="8">
         <v>35</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
-        <f>(I67-G68)</f>
+      <c r="I68" s="8">
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3447,19 +3398,18 @@
         <v>12</v>
       </c>
       <c r="F69" s="5">
-        <f>IF(E69="Healthcare",1,IF(E69="Food",2,IF(E69="Weekly pay",0,IF(E69="Clothing",3,IF(E69="Travel",4,IF(E69="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2">
+      <c r="H69" s="8">
         <v>400</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="8">
         <f>(I68+H69)</f>
         <v>976</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3476,19 +3426,18 @@
         <v>6</v>
       </c>
       <c r="F70" s="5">
-        <f>IF(E70="Healthcare",1,IF(E70="Food",2,IF(E70="Weekly pay",0,IF(E70="Clothing",3,IF(E70="Travel",4,IF(E70="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="8">
         <v>103</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2">
+      <c r="I70" s="8">
         <f>(I69-G70)</f>
         <v>873</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3505,20 +3454,18 @@
         <v>10</v>
       </c>
       <c r="F71" s="5">
-        <f>IF(E71="Healthcare",1,IF(E71="Food",2,IF(E71="Weekly pay",0,IF(E71="Clothing",3,IF(E71="Travel",4,IF(E71="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="8">
         <v>26</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2">
+      <c r="I71" s="8">
         <f>(I70-G71)</f>
         <v>847</v>
       </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3535,19 +3482,18 @@
         <v>9</v>
       </c>
       <c r="F72" s="5">
-        <f>IF(E72="Healthcare",1,IF(E72="Food",2,IF(E72="Weekly pay",0,IF(E72="Clothing",3,IF(E72="Travel",4,IF(E72="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="8">
         <v>35</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2">
+      <c r="I72" s="8">
         <f>(I71-G72)</f>
         <v>812</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3564,19 +3510,18 @@
         <v>8</v>
       </c>
       <c r="F73" s="5">
-        <f>IF(E73="Healthcare",1,IF(E73="Food",2,IF(E73="Weekly pay",0,IF(E73="Clothing",3,IF(E73="Travel",4,IF(E73="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="8">
         <v>32</v>
       </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2">
+      <c r="I73" s="8">
         <f>(I72-G73)</f>
         <v>780</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3593,19 +3538,18 @@
         <v>12</v>
       </c>
       <c r="F74" s="5">
-        <f>IF(E74="Healthcare",1,IF(E74="Food",2,IF(E74="Weekly pay",0,IF(E74="Clothing",3,IF(E74="Travel",4,IF(E74="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2">
+      <c r="H74" s="8">
         <v>400</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="8">
         <f>(I73+H74)</f>
         <v>1180</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3622,19 +3566,18 @@
         <v>6</v>
       </c>
       <c r="F75" s="5">
-        <f>IF(E75="Healthcare",1,IF(E75="Food",2,IF(E75="Weekly pay",0,IF(E75="Clothing",3,IF(E75="Travel",4,IF(E75="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="8">
         <v>19</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2">
+      <c r="I75" s="8">
         <f>(I74-G75)</f>
         <v>1161</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3651,19 +3594,18 @@
         <v>6</v>
       </c>
       <c r="F76" s="5">
-        <f>IF(E76="Healthcare",1,IF(E76="Food",2,IF(E76="Weekly pay",0,IF(E76="Clothing",3,IF(E76="Travel",4,IF(E76="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="8">
         <v>67</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2">
+      <c r="I76" s="8">
         <f>(I75-G76)</f>
         <v>1094</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3680,19 +3622,18 @@
         <v>8</v>
       </c>
       <c r="F77" s="5">
-        <f>IF(E77="Healthcare",1,IF(E77="Food",2,IF(E77="Weekly pay",0,IF(E77="Clothing",3,IF(E77="Travel",4,IF(E77="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="8">
         <v>94</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2">
+      <c r="I77" s="8">
         <f>(I76-G77)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3709,20 +3650,18 @@
         <v>10</v>
       </c>
       <c r="F78" s="5">
-        <f>IF(E78="Healthcare",1,IF(E78="Food",2,IF(E78="Weekly pay",0,IF(E78="Clothing",3,IF(E78="Travel",4,IF(E78="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="8">
         <v>81</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2">
+      <c r="I78" s="8">
         <f>(I77-G78)</f>
         <v>919</v>
       </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3739,19 +3678,18 @@
         <v>7</v>
       </c>
       <c r="F79" s="5">
-        <f>IF(E79="Healthcare",1,IF(E79="Food",2,IF(E79="Weekly pay",0,IF(E79="Clothing",3,IF(E79="Travel",4,IF(E79="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="8">
         <v>36</v>
       </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2">
+      <c r="I79" s="8">
         <f>(I78-G79)</f>
         <v>883</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3768,19 +3706,18 @@
         <v>12</v>
       </c>
       <c r="F80" s="5">
-        <f>IF(E80="Healthcare",1,IF(E80="Food",2,IF(E80="Weekly pay",0,IF(E80="Clothing",3,IF(E80="Travel",4,IF(E80="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2">
+      <c r="H80" s="8">
         <v>400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="8">
         <f>(I79+H80)</f>
         <v>1283</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3797,19 +3734,18 @@
         <v>6</v>
       </c>
       <c r="F81" s="5">
-        <f>IF(E81="Healthcare",1,IF(E81="Food",2,IF(E81="Weekly pay",0,IF(E81="Clothing",3,IF(E81="Travel",4,IF(E81="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="8">
         <v>8</v>
       </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2">
+      <c r="I81" s="8">
         <f>(I80-G81)</f>
         <v>1275</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3826,19 +3762,18 @@
         <v>10</v>
       </c>
       <c r="F82" s="5">
-        <f>IF(E82="Healthcare",1,IF(E82="Food",2,IF(E82="Weekly pay",0,IF(E82="Clothing",3,IF(E82="Travel",4,IF(E82="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="8">
         <v>14</v>
       </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2">
+      <c r="I82" s="8">
         <f>(I81-G82)</f>
         <v>1261</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3855,19 +3790,18 @@
         <v>9</v>
       </c>
       <c r="F83" s="5">
-        <f>IF(E83="Healthcare",1,IF(E83="Food",2,IF(E83="Weekly pay",0,IF(E83="Clothing",3,IF(E83="Travel",4,IF(E83="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="8">
         <v>12</v>
       </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2">
+      <c r="I83" s="8">
         <f>(I82-G83)</f>
         <v>1249</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3884,19 +3818,18 @@
         <v>12</v>
       </c>
       <c r="F84" s="5">
-        <f>IF(E84="Healthcare",1,IF(E84="Food",2,IF(E84="Weekly pay",0,IF(E84="Clothing",3,IF(E84="Travel",4,IF(E84="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2">
+      <c r="H84" s="8">
         <v>400</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="8">
         <f>(I83+H84)</f>
         <v>1649</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3913,19 +3846,18 @@
         <v>6</v>
       </c>
       <c r="F85" s="5">
-        <f>IF(E85="Healthcare",1,IF(E85="Food",2,IF(E85="Weekly pay",0,IF(E85="Clothing",3,IF(E85="Travel",4,IF(E85="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="8">
         <v>29</v>
       </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2">
+      <c r="I85" s="8">
         <f>(I84-G85)</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3942,20 +3874,18 @@
         <v>7</v>
       </c>
       <c r="F86" s="5">
-        <f>IF(E86="Healthcare",1,IF(E86="Food",2,IF(E86="Weekly pay",0,IF(E86="Clothing",3,IF(E86="Travel",4,IF(E86="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="8">
         <v>104</v>
       </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2">
+      <c r="I86" s="8">
         <f>(I85-G86)</f>
         <v>1516</v>
       </c>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3972,19 +3902,18 @@
         <v>8</v>
       </c>
       <c r="F87" s="5">
-        <f>IF(E87="Healthcare",1,IF(E87="Food",2,IF(E87="Weekly pay",0,IF(E87="Clothing",3,IF(E87="Travel",4,IF(E87="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="8">
         <v>5</v>
       </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2">
+      <c r="I87" s="8">
         <f>(I86-G87)</f>
         <v>1511</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4001,19 +3930,18 @@
         <v>10</v>
       </c>
       <c r="F88" s="5">
-        <f>IF(E88="Healthcare",1,IF(E88="Food",2,IF(E88="Weekly pay",0,IF(E88="Clothing",3,IF(E88="Travel",4,IF(E88="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="8">
         <v>34</v>
       </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2">
+      <c r="I88" s="8">
         <f>(I87-G88)</f>
         <v>1477</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4030,19 +3958,18 @@
         <v>12</v>
       </c>
       <c r="F89" s="5">
-        <f>IF(E89="Healthcare",1,IF(E89="Food",2,IF(E89="Weekly pay",0,IF(E89="Clothing",3,IF(E89="Travel",4,IF(E89="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2">
+      <c r="H89" s="8">
         <v>400</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="8">
         <f>(I88+H89)</f>
         <v>1877</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4059,19 +3986,18 @@
         <v>9</v>
       </c>
       <c r="F90" s="5">
-        <f>IF(E90="Healthcare",1,IF(E90="Food",2,IF(E90="Weekly pay",0,IF(E90="Clothing",3,IF(E90="Travel",4,IF(E90="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="8">
         <v>90</v>
       </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2">
+      <c r="I90" s="8">
         <f>(I89-G90)</f>
         <v>1787</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4088,19 +4014,18 @@
         <v>6</v>
       </c>
       <c r="F91" s="5">
-        <f>IF(E91="Healthcare",1,IF(E91="Food",2,IF(E91="Weekly pay",0,IF(E91="Clothing",3,IF(E91="Travel",4,IF(E91="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="8">
         <v>81</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2">
+      <c r="I91" s="8">
         <f>(I90-G91)</f>
         <v>1706</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4117,19 +4042,18 @@
         <v>10</v>
       </c>
       <c r="F92" s="5">
-        <f>IF(E92="Healthcare",1,IF(E92="Food",2,IF(E92="Weekly pay",0,IF(E92="Clothing",3,IF(E92="Travel",4,IF(E92="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="8">
         <v>51</v>
       </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2">
+      <c r="I92" s="8">
         <f>(I91-G92)</f>
         <v>1655</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4146,19 +4070,18 @@
         <v>7</v>
       </c>
       <c r="F93" s="5">
-        <f>IF(E93="Healthcare",1,IF(E93="Food",2,IF(E93="Weekly pay",0,IF(E93="Clothing",3,IF(E93="Travel",4,IF(E93="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="8">
         <v>127</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2">
+      <c r="I93" s="8">
         <f>(I92-G93)</f>
         <v>1528</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4175,19 +4098,18 @@
         <v>12</v>
       </c>
       <c r="F94" s="5">
-        <f>IF(E94="Healthcare",1,IF(E94="Food",2,IF(E94="Weekly pay",0,IF(E94="Clothing",3,IF(E94="Travel",4,IF(E94="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2">
+      <c r="H94" s="8">
         <v>400</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="8">
         <f>(I93+H94)</f>
         <v>1928</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4204,19 +4126,18 @@
         <v>10</v>
       </c>
       <c r="F95" s="5">
-        <f>IF(E95="Healthcare",1,IF(E95="Food",2,IF(E95="Weekly pay",0,IF(E95="Clothing",3,IF(E95="Travel",4,IF(E95="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="8">
         <v>10</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2">
+      <c r="I95" s="8">
         <f>(I94-G95)</f>
         <v>1918</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4233,14 +4154,13 @@
         <v>10</v>
       </c>
       <c r="F96" s="5">
-        <f>IF(E96="Healthcare",1,IF(E96="Food",2,IF(E96="Weekly pay",0,IF(E96="Clothing",3,IF(E96="Travel",4,IF(E96="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="8">
         <v>57</v>
       </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2">
+      <c r="I96" s="8">
         <f>(I95-G96)</f>
         <v>1861</v>
       </c>
@@ -4262,14 +4182,13 @@
         <v>6</v>
       </c>
       <c r="F97" s="5">
-        <f>IF(E97="Healthcare",1,IF(E97="Food",2,IF(E97="Weekly pay",0,IF(E97="Clothing",3,IF(E97="Travel",4,IF(E97="Utilities",5))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="8">
         <v>97</v>
       </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2">
+      <c r="I97" s="8">
         <f>(I96-G97)</f>
         <v>1764</v>
       </c>
@@ -4291,14 +4210,13 @@
         <v>8</v>
       </c>
       <c r="F98" s="5">
-        <f>IF(E98="Healthcare",1,IF(E98="Food",2,IF(E98="Weekly pay",0,IF(E98="Clothing",3,IF(E98="Travel",4,IF(E98="Utilities",5))))))</f>
+        <f t="shared" ref="F98:F129" si="7">IF(E98="Healthcare",1,IF(E98="Food",2,IF(E98="Weekly pay",0,IF(E98="Clothing",3,IF(E98="Travel",4,IF(E98="Utilities",5))))))</f>
         <v>5</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="8">
         <v>42</v>
       </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2">
+      <c r="I98" s="8">
         <f>(I97-G98)</f>
         <v>1722</v>
       </c>
@@ -4320,14 +4238,13 @@
         <v>12</v>
       </c>
       <c r="F99" s="5">
-        <f>IF(E99="Healthcare",1,IF(E99="Food",2,IF(E99="Weekly pay",0,IF(E99="Clothing",3,IF(E99="Travel",4,IF(E99="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2">
+      <c r="H99" s="8">
         <v>400</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="8">
         <f>(I98+H99)</f>
         <v>2122</v>
       </c>
@@ -4349,14 +4266,13 @@
         <v>6</v>
       </c>
       <c r="F100" s="5">
-        <f>IF(E100="Healthcare",1,IF(E100="Food",2,IF(E100="Weekly pay",0,IF(E100="Clothing",3,IF(E100="Travel",4,IF(E100="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="8">
         <v>96</v>
       </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2">
+      <c r="I100" s="8">
         <f>(I99-G100)</f>
         <v>2026</v>
       </c>
@@ -4378,14 +4294,13 @@
         <v>7</v>
       </c>
       <c r="F101" s="5">
-        <f>IF(E101="Healthcare",1,IF(E101="Food",2,IF(E101="Weekly pay",0,IF(E101="Clothing",3,IF(E101="Travel",4,IF(E101="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="8">
         <v>41</v>
       </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2">
+      <c r="I101" s="8">
         <f>(I100-G101)</f>
         <v>1985</v>
       </c>
@@ -4407,18 +4322,17 @@
         <v>9</v>
       </c>
       <c r="F102" s="5">
-        <f>IF(E102="Healthcare",1,IF(E102="Food",2,IF(E102="Weekly pay",0,IF(E102="Clothing",3,IF(E102="Travel",4,IF(E102="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="8">
         <v>62</v>
       </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2">
+      <c r="I102" s="8">
         <f>(J102-G102)</f>
         <v>338</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="8">
         <v>400</v>
       </c>
     </row>
@@ -4439,14 +4353,13 @@
         <v>7</v>
       </c>
       <c r="F103" s="5">
-        <f>IF(E103="Healthcare",1,IF(E103="Food",2,IF(E103="Weekly pay",0,IF(E103="Clothing",3,IF(E103="Travel",4,IF(E103="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="8">
         <v>52</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2">
+      <c r="I103" s="8">
         <f>(I102-G103)</f>
         <v>286</v>
       </c>
@@ -4468,14 +4381,13 @@
         <v>8</v>
       </c>
       <c r="F104" s="5">
-        <f>IF(E104="Healthcare",1,IF(E104="Food",2,IF(E104="Weekly pay",0,IF(E104="Clothing",3,IF(E104="Travel",4,IF(E104="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="8">
         <v>26</v>
       </c>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2">
+      <c r="I104" s="8">
         <f>(I103-G104)</f>
         <v>260</v>
       </c>
@@ -4497,18 +4409,16 @@
         <v>6</v>
       </c>
       <c r="F105" s="5">
-        <f>IF(E105="Healthcare",1,IF(E105="Food",2,IF(E105="Weekly pay",0,IF(E105="Clothing",3,IF(E105="Travel",4,IF(E105="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="8">
         <v>12</v>
       </c>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2">
+      <c r="I105" s="8">
         <f>(I104-G105)</f>
         <v>248</v>
       </c>
-      <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
@@ -4527,14 +4437,13 @@
         <v>6</v>
       </c>
       <c r="F106" s="5">
-        <f>IF(E106="Healthcare",1,IF(E106="Food",2,IF(E106="Weekly pay",0,IF(E106="Clothing",3,IF(E106="Travel",4,IF(E106="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="8">
         <v>69</v>
       </c>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2">
+      <c r="I106" s="8">
         <f>(I105-G106)</f>
         <v>179</v>
       </c>
@@ -4556,14 +4465,13 @@
         <v>12</v>
       </c>
       <c r="F107" s="5">
-        <f>IF(E107="Healthcare",1,IF(E107="Food",2,IF(E107="Weekly pay",0,IF(E107="Clothing",3,IF(E107="Travel",4,IF(E107="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2">
+      <c r="H107" s="8">
         <v>400</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="8">
         <f>(I106+H107)</f>
         <v>579</v>
       </c>
@@ -4585,18 +4493,16 @@
         <v>6</v>
       </c>
       <c r="F108" s="5">
-        <f>IF(E108="Healthcare",1,IF(E108="Food",2,IF(E108="Weekly pay",0,IF(E108="Clothing",3,IF(E108="Travel",4,IF(E108="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="8">
         <v>62</v>
       </c>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2">
-        <f>(I107-G108)</f>
+      <c r="I108" s="8">
+        <f t="shared" ref="I108:I113" si="8">(I107-G108)</f>
         <v>517</v>
       </c>
-      <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
@@ -4615,15 +4521,14 @@
         <v>6</v>
       </c>
       <c r="F109" s="5">
-        <f>IF(E109="Healthcare",1,IF(E109="Food",2,IF(E109="Weekly pay",0,IF(E109="Clothing",3,IF(E109="Travel",4,IF(E109="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="8">
         <v>43</v>
       </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2">
-        <f>(I108-G109)</f>
+      <c r="I109" s="8">
+        <f t="shared" si="8"/>
         <v>474</v>
       </c>
     </row>
@@ -4644,15 +4549,14 @@
         <v>9</v>
       </c>
       <c r="F110" s="5">
-        <f>IF(E110="Healthcare",1,IF(E110="Food",2,IF(E110="Weekly pay",0,IF(E110="Clothing",3,IF(E110="Travel",4,IF(E110="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="8">
         <v>51</v>
       </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2">
-        <f>(I109-G110)</f>
+      <c r="I110" s="8">
+        <f t="shared" si="8"/>
         <v>423</v>
       </c>
     </row>
@@ -4673,15 +4577,14 @@
         <v>7</v>
       </c>
       <c r="F111" s="5">
-        <f>IF(E111="Healthcare",1,IF(E111="Food",2,IF(E111="Weekly pay",0,IF(E111="Clothing",3,IF(E111="Travel",4,IF(E111="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="8">
         <v>40</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2">
-        <f>(I110-G111)</f>
+      <c r="I111" s="8">
+        <f t="shared" si="8"/>
         <v>383</v>
       </c>
     </row>
@@ -4702,19 +4605,18 @@
         <v>10</v>
       </c>
       <c r="F112" s="5">
-        <f>IF(E112="Healthcare",1,IF(E112="Food",2,IF(E112="Weekly pay",0,IF(E112="Clothing",3,IF(E112="Travel",4,IF(E112="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="8">
         <v>75</v>
       </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2">
-        <f>(I111-G112)</f>
+      <c r="I112" s="8">
+        <f t="shared" si="8"/>
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4731,19 +4633,18 @@
         <v>7</v>
       </c>
       <c r="F113" s="5">
-        <f>IF(E113="Healthcare",1,IF(E113="Food",2,IF(E113="Weekly pay",0,IF(E113="Clothing",3,IF(E113="Travel",4,IF(E113="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="8">
         <v>8</v>
       </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2">
-        <f>(I112-G113)</f>
+      <c r="I113" s="8">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4760,19 +4661,18 @@
         <v>12</v>
       </c>
       <c r="F114" s="5">
-        <f>IF(E114="Healthcare",1,IF(E114="Food",2,IF(E114="Weekly pay",0,IF(E114="Clothing",3,IF(E114="Travel",4,IF(E114="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2">
+      <c r="H114" s="8">
         <v>400</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="8">
         <f>(I113+H114)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4789,19 +4689,18 @@
         <v>6</v>
       </c>
       <c r="F115" s="5">
-        <f>IF(E115="Healthcare",1,IF(E115="Food",2,IF(E115="Weekly pay",0,IF(E115="Clothing",3,IF(E115="Travel",4,IF(E115="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="8">
         <v>78</v>
       </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2">
-        <f>(I114-G115)</f>
+      <c r="I115" s="8">
+        <f t="shared" ref="I115:I121" si="9">(I114-G115)</f>
         <v>622</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4818,19 +4717,18 @@
         <v>8</v>
       </c>
       <c r="F116" s="5">
-        <f>IF(E116="Healthcare",1,IF(E116="Food",2,IF(E116="Weekly pay",0,IF(E116="Clothing",3,IF(E116="Travel",4,IF(E116="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="8">
         <v>52</v>
       </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2">
-        <f>(I115-G116)</f>
+      <c r="I116" s="8">
+        <f t="shared" si="9"/>
         <v>570</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4847,19 +4745,18 @@
         <v>8</v>
       </c>
       <c r="F117" s="5">
-        <f>IF(E117="Healthcare",1,IF(E117="Food",2,IF(E117="Weekly pay",0,IF(E117="Clothing",3,IF(E117="Travel",4,IF(E117="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="8">
         <v>41</v>
       </c>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2">
-        <f>(I116-G117)</f>
+      <c r="I117" s="8">
+        <f t="shared" si="9"/>
         <v>529</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4876,19 +4773,18 @@
         <v>10</v>
       </c>
       <c r="F118" s="5">
-        <f>IF(E118="Healthcare",1,IF(E118="Food",2,IF(E118="Weekly pay",0,IF(E118="Clothing",3,IF(E118="Travel",4,IF(E118="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="8">
         <v>31</v>
       </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2">
-        <f>(I117-G118)</f>
+      <c r="I118" s="8">
+        <f t="shared" si="9"/>
         <v>498</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4905,19 +4801,18 @@
         <v>6</v>
       </c>
       <c r="F119" s="5">
-        <f>IF(E119="Healthcare",1,IF(E119="Food",2,IF(E119="Weekly pay",0,IF(E119="Clothing",3,IF(E119="Travel",4,IF(E119="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="8">
         <v>3</v>
       </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2">
-        <f>(I118-G119)</f>
+      <c r="I119" s="8">
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4934,19 +4829,18 @@
         <v>9</v>
       </c>
       <c r="F120" s="5">
-        <f>IF(E120="Healthcare",1,IF(E120="Food",2,IF(E120="Weekly pay",0,IF(E120="Clothing",3,IF(E120="Travel",4,IF(E120="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="8">
         <v>22</v>
       </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2">
-        <f>(I119-G120)</f>
+      <c r="I120" s="8">
+        <f t="shared" si="9"/>
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -4963,19 +4857,18 @@
         <v>9</v>
       </c>
       <c r="F121" s="5">
-        <f>IF(E121="Healthcare",1,IF(E121="Food",2,IF(E121="Weekly pay",0,IF(E121="Clothing",3,IF(E121="Travel",4,IF(E121="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="8">
         <v>13</v>
       </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2">
-        <f>(I120-G121)</f>
+      <c r="I121" s="8">
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4992,19 +4885,18 @@
         <v>12</v>
       </c>
       <c r="F122" s="5">
-        <f>IF(E122="Healthcare",1,IF(E122="Food",2,IF(E122="Weekly pay",0,IF(E122="Clothing",3,IF(E122="Travel",4,IF(E122="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2">
+      <c r="H122" s="8">
         <v>400</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="8">
         <f>(I121+H122)</f>
         <v>860</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -5021,19 +4913,18 @@
         <v>10</v>
       </c>
       <c r="F123" s="5">
-        <f>IF(E123="Healthcare",1,IF(E123="Food",2,IF(E123="Weekly pay",0,IF(E123="Clothing",3,IF(E123="Travel",4,IF(E123="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="8">
         <v>93</v>
       </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2">
+      <c r="I123" s="8">
         <f>(I122-G123)</f>
         <v>767</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5050,20 +4941,18 @@
         <v>6</v>
       </c>
       <c r="F124" s="5">
-        <f>IF(E124="Healthcare",1,IF(E124="Food",2,IF(E124="Weekly pay",0,IF(E124="Clothing",3,IF(E124="Travel",4,IF(E124="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="8">
         <v>81</v>
       </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2">
+      <c r="I124" s="8">
         <f>(I123-G124)</f>
         <v>686</v>
       </c>
-      <c r="J124" s="2"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -5080,19 +4969,18 @@
         <v>7</v>
       </c>
       <c r="F125" s="5">
-        <f>IF(E125="Healthcare",1,IF(E125="Food",2,IF(E125="Weekly pay",0,IF(E125="Clothing",3,IF(E125="Travel",4,IF(E125="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="8">
         <v>50</v>
       </c>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2">
+      <c r="I125" s="8">
         <f>(I124-G125)</f>
         <v>636</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5109,20 +4997,18 @@
         <v>8</v>
       </c>
       <c r="F126" s="5">
-        <f>IF(E126="Healthcare",1,IF(E126="Food",2,IF(E126="Weekly pay",0,IF(E126="Clothing",3,IF(E126="Travel",4,IF(E126="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="8">
         <v>64</v>
       </c>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2">
+      <c r="I126" s="8">
         <f>(I125-G126)</f>
         <v>572</v>
       </c>
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -5139,19 +5025,18 @@
         <v>12</v>
       </c>
       <c r="F127" s="5">
-        <f>IF(E127="Healthcare",1,IF(E127="Food",2,IF(E127="Weekly pay",0,IF(E127="Clothing",3,IF(E127="Travel",4,IF(E127="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2">
+      <c r="H127" s="8">
         <v>400</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="8">
         <f>(I126+H127)</f>
         <v>972</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5168,19 +5053,18 @@
         <v>8</v>
       </c>
       <c r="F128" s="5">
-        <f>IF(E128="Healthcare",1,IF(E128="Food",2,IF(E128="Weekly pay",0,IF(E128="Clothing",3,IF(E128="Travel",4,IF(E128="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="8">
         <v>48</v>
       </c>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2">
+      <c r="I128" s="8">
         <f>(I127-G128)</f>
         <v>924</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -5197,19 +5081,18 @@
         <v>6</v>
       </c>
       <c r="F129" s="5">
-        <f>IF(E129="Healthcare",1,IF(E129="Food",2,IF(E129="Weekly pay",0,IF(E129="Clothing",3,IF(E129="Travel",4,IF(E129="Utilities",5))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="8">
         <v>55</v>
       </c>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2">
+      <c r="I129" s="8">
         <f>(I128-G129)</f>
         <v>869</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -5226,19 +5109,18 @@
         <v>8</v>
       </c>
       <c r="F130" s="5">
-        <f>IF(E130="Healthcare",1,IF(E130="Food",2,IF(E130="Weekly pay",0,IF(E130="Clothing",3,IF(E130="Travel",4,IF(E130="Utilities",5))))))</f>
+        <f t="shared" ref="F130:F161" si="10">IF(E130="Healthcare",1,IF(E130="Food",2,IF(E130="Weekly pay",0,IF(E130="Clothing",3,IF(E130="Travel",4,IF(E130="Utilities",5))))))</f>
         <v>5</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="8">
         <v>95</v>
       </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2">
+      <c r="I130" s="8">
         <f>(I129-G130)</f>
         <v>774</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -5255,19 +5137,18 @@
         <v>6</v>
       </c>
       <c r="F131" s="5">
-        <f>IF(E131="Healthcare",1,IF(E131="Food",2,IF(E131="Weekly pay",0,IF(E131="Clothing",3,IF(E131="Travel",4,IF(E131="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="8">
         <v>77</v>
       </c>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2">
+      <c r="I131" s="8">
         <f>(I130-G131)</f>
         <v>697</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -5284,19 +5165,18 @@
         <v>10</v>
       </c>
       <c r="F132" s="5">
-        <f>IF(E132="Healthcare",1,IF(E132="Food",2,IF(E132="Weekly pay",0,IF(E132="Clothing",3,IF(E132="Travel",4,IF(E132="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="8">
         <v>83</v>
       </c>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2">
+      <c r="I132" s="8">
         <f>(I131-G132)</f>
         <v>614</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -5313,19 +5193,18 @@
         <v>12</v>
       </c>
       <c r="F133" s="5">
-        <f>IF(E133="Healthcare",1,IF(E133="Food",2,IF(E133="Weekly pay",0,IF(E133="Clothing",3,IF(E133="Travel",4,IF(E133="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2">
+      <c r="H133" s="8">
         <v>400</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="8">
         <f>(I132+H133)</f>
         <v>1014</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -5342,19 +5221,18 @@
         <v>6</v>
       </c>
       <c r="F134" s="5">
-        <f>IF(E134="Healthcare",1,IF(E134="Food",2,IF(E134="Weekly pay",0,IF(E134="Clothing",3,IF(E134="Travel",4,IF(E134="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="8">
         <v>46</v>
       </c>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2">
+      <c r="I134" s="8">
         <f>(I133-G134)</f>
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -5371,19 +5249,18 @@
         <v>10</v>
       </c>
       <c r="F135" s="5">
-        <f>IF(E135="Healthcare",1,IF(E135="Food",2,IF(E135="Weekly pay",0,IF(E135="Clothing",3,IF(E135="Travel",4,IF(E135="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="8">
         <v>4</v>
       </c>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2">
+      <c r="I135" s="8">
         <f>(I134-G135)</f>
         <v>964</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -5400,19 +5277,18 @@
         <v>9</v>
       </c>
       <c r="F136" s="5">
-        <f>IF(E136="Healthcare",1,IF(E136="Food",2,IF(E136="Weekly pay",0,IF(E136="Clothing",3,IF(E136="Travel",4,IF(E136="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="8">
         <v>44</v>
       </c>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2">
+      <c r="I136" s="8">
         <f>(I135-G136)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -5429,19 +5305,18 @@
         <v>10</v>
       </c>
       <c r="F137" s="5">
-        <f>IF(E137="Healthcare",1,IF(E137="Food",2,IF(E137="Weekly pay",0,IF(E137="Clothing",3,IF(E137="Travel",4,IF(E137="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="8">
         <v>77</v>
       </c>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2">
+      <c r="I137" s="8">
         <f>(I136-G137)</f>
         <v>843</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -5458,19 +5333,18 @@
         <v>12</v>
       </c>
       <c r="F138" s="5">
-        <f>IF(E138="Healthcare",1,IF(E138="Food",2,IF(E138="Weekly pay",0,IF(E138="Clothing",3,IF(E138="Travel",4,IF(E138="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2">
+      <c r="H138" s="8">
         <v>400</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="8">
         <f>(I137+H138)</f>
         <v>1243</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -5487,19 +5361,18 @@
         <v>6</v>
       </c>
       <c r="F139" s="5">
-        <f>IF(E139="Healthcare",1,IF(E139="Food",2,IF(E139="Weekly pay",0,IF(E139="Clothing",3,IF(E139="Travel",4,IF(E139="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="8">
         <v>84</v>
       </c>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2">
+      <c r="I139" s="8">
         <f>(I138-G139)</f>
         <v>1159</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -5516,19 +5389,18 @@
         <v>7</v>
       </c>
       <c r="F140" s="5">
-        <f>IF(E140="Healthcare",1,IF(E140="Food",2,IF(E140="Weekly pay",0,IF(E140="Clothing",3,IF(E140="Travel",4,IF(E140="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="8">
         <v>90</v>
       </c>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2">
+      <c r="I140" s="8">
         <f>(I139-G140)</f>
         <v>1069</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -5545,19 +5417,18 @@
         <v>7</v>
       </c>
       <c r="F141" s="5">
-        <f>IF(E141="Healthcare",1,IF(E141="Food",2,IF(E141="Weekly pay",0,IF(E141="Clothing",3,IF(E141="Travel",4,IF(E141="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="8">
         <v>64</v>
       </c>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2">
+      <c r="I141" s="8">
         <f>(I140-G141)</f>
         <v>1005</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5574,20 +5445,18 @@
         <v>10</v>
       </c>
       <c r="F142" s="5">
-        <f>IF(E142="Healthcare",1,IF(E142="Food",2,IF(E142="Weekly pay",0,IF(E142="Clothing",3,IF(E142="Travel",4,IF(E142="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="8">
         <v>62</v>
       </c>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2">
+      <c r="I142" s="8">
         <f>(I141-G142)</f>
         <v>943</v>
       </c>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -5604,19 +5473,18 @@
         <v>8</v>
       </c>
       <c r="F143" s="5">
-        <f>IF(E143="Healthcare",1,IF(E143="Food",2,IF(E143="Weekly pay",0,IF(E143="Clothing",3,IF(E143="Travel",4,IF(E143="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="8">
         <v>37</v>
       </c>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2">
+      <c r="I143" s="8">
         <f>(I142-G143)</f>
         <v>906</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5633,19 +5501,18 @@
         <v>12</v>
       </c>
       <c r="F144" s="5">
-        <f>IF(E144="Healthcare",1,IF(E144="Food",2,IF(E144="Weekly pay",0,IF(E144="Clothing",3,IF(E144="Travel",4,IF(E144="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2">
+      <c r="H144" s="8">
         <v>400</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="8">
         <f>(I143+H144)</f>
         <v>1306</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -5662,19 +5529,18 @@
         <v>7</v>
       </c>
       <c r="F145" s="5">
-        <f>IF(E145="Healthcare",1,IF(E145="Food",2,IF(E145="Weekly pay",0,IF(E145="Clothing",3,IF(E145="Travel",4,IF(E145="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="8">
         <v>29</v>
       </c>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2">
+      <c r="I145" s="8">
         <f>(I144-G145)</f>
         <v>1277</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5691,20 +5557,18 @@
         <v>9</v>
       </c>
       <c r="F146" s="5">
-        <f>IF(E146="Healthcare",1,IF(E146="Food",2,IF(E146="Weekly pay",0,IF(E146="Clothing",3,IF(E146="Travel",4,IF(E146="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="8">
         <v>98</v>
       </c>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2">
+      <c r="I146" s="8">
         <f>(I145-G146)</f>
         <v>1179</v>
       </c>
-      <c r="J146" s="2"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -5721,19 +5585,18 @@
         <v>6</v>
       </c>
       <c r="F147" s="5">
-        <f>IF(E147="Healthcare",1,IF(E147="Food",2,IF(E147="Weekly pay",0,IF(E147="Clothing",3,IF(E147="Travel",4,IF(E147="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="8">
         <v>5</v>
       </c>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2">
+      <c r="I147" s="8">
         <f>(I146-G147)</f>
         <v>1174</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -5750,19 +5613,18 @@
         <v>8</v>
       </c>
       <c r="F148" s="5">
-        <f>IF(E148="Healthcare",1,IF(E148="Food",2,IF(E148="Weekly pay",0,IF(E148="Clothing",3,IF(E148="Travel",4,IF(E148="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="8">
         <v>82</v>
       </c>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2">
+      <c r="I148" s="8">
         <f>(I147-G148)</f>
         <v>1092</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -5779,19 +5641,18 @@
         <v>8</v>
       </c>
       <c r="F149" s="5">
-        <f>IF(E149="Healthcare",1,IF(E149="Food",2,IF(E149="Weekly pay",0,IF(E149="Clothing",3,IF(E149="Travel",4,IF(E149="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="8">
         <v>87</v>
       </c>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2">
+      <c r="I149" s="8">
         <f>(I148-G149)</f>
         <v>1005</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -5808,19 +5669,18 @@
         <v>12</v>
       </c>
       <c r="F150" s="5">
-        <f>IF(E150="Healthcare",1,IF(E150="Food",2,IF(E150="Weekly pay",0,IF(E150="Clothing",3,IF(E150="Travel",4,IF(E150="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2">
+      <c r="H150" s="8">
         <v>400</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="8">
         <f>(I149+H150)</f>
         <v>1405</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -5837,22 +5697,21 @@
         <v>6</v>
       </c>
       <c r="F151" s="5">
-        <f>IF(E151="Healthcare",1,IF(E151="Food",2,IF(E151="Weekly pay",0,IF(E151="Clothing",3,IF(E151="Travel",4,IF(E151="Utilities",5))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="8">
         <v>100</v>
       </c>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2">
+      <c r="I151" s="8">
         <f>(I150-G151)</f>
         <v>1305</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
     </row>
   </sheetData>

--- a/Group 17/files/Copy of bank.xlsx
+++ b/Group 17/files/Copy of bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Desktop\study\comp3850\PACE-Project\Group 17\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20915882-DF8A-4EE2-8498-EC1A4ED513A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6399B0-BF40-4D8D-8EA7-E129772FA6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="19">
   <si>
     <t>TRANS_ID</t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>CID3</t>
   </si>
+  <si>
+    <t>CID4</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -109,6 +112,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -141,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -153,12 +161,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{541D548B-DD1F-4B09-ACC4-353683BFCADA}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -591,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT153"/>
+  <dimension ref="A1:BT209"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A146" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -604,7 +634,7 @@
     <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.9140625" style="8" customWidth="1"/>
@@ -1202,9 +1232,7 @@
       <c r="C8" s="1">
         <v>43958</v>
       </c>
-      <c r="D8" s="2">
-        <v>2200</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1752,9 +1780,7 @@
       <c r="C14" s="1">
         <v>43965</v>
       </c>
-      <c r="D14" s="2">
-        <v>2113</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2043,9 +2069,7 @@
       <c r="C22" s="1">
         <v>43972</v>
       </c>
-      <c r="D22" s="2">
-        <v>2067</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
@@ -2192,9 +2216,7 @@
       <c r="C27" s="1">
         <v>43979</v>
       </c>
-      <c r="D27" s="2">
-        <v>2135</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2253,9 +2275,7 @@
       <c r="C29" s="1">
         <v>43986</v>
       </c>
-      <c r="D29" s="2">
-        <v>2135</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,9 +2413,7 @@
       <c r="C34" s="1">
         <v>43993</v>
       </c>
-      <c r="D34" s="2">
-        <v>2026</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="5" t="s">
         <v>12</v>
       </c>
@@ -2566,9 +2584,7 @@
       <c r="C40" s="1">
         <v>44000</v>
       </c>
-      <c r="D40" s="2">
-        <v>2067</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="5" t="s">
         <v>12</v>
       </c>
@@ -2767,9 +2783,7 @@
       <c r="C47" s="1">
         <v>44007</v>
       </c>
-      <c r="D47" s="2">
-        <v>2120</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3139,9 +3153,7 @@
       <c r="C60" s="1">
         <v>43958</v>
       </c>
-      <c r="D60" s="2">
-        <v>2026</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3391,9 +3403,7 @@
       <c r="C69" s="1">
         <v>43965</v>
       </c>
-      <c r="D69" s="2">
-        <v>2026</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
@@ -3531,9 +3541,7 @@
       <c r="C74" s="1">
         <v>43972</v>
       </c>
-      <c r="D74" s="2">
-        <v>2135</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
@@ -3699,9 +3707,7 @@
       <c r="C80" s="1">
         <v>43979</v>
       </c>
-      <c r="D80" s="2">
-        <v>2067</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
@@ -3811,9 +3817,7 @@
       <c r="C84" s="1">
         <v>43986</v>
       </c>
-      <c r="D84" s="2">
-        <v>2134</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
@@ -3951,9 +3955,7 @@
       <c r="C89" s="1">
         <v>43993</v>
       </c>
-      <c r="D89" s="2">
-        <v>2200</v>
-      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4091,9 +4093,7 @@
       <c r="C94" s="1">
         <v>44000</v>
       </c>
-      <c r="D94" s="2">
-        <v>2067</v>
-      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
@@ -4231,9 +4231,7 @@
       <c r="C99" s="1">
         <v>44007</v>
       </c>
-      <c r="D99" s="2">
-        <v>2000</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
@@ -4458,9 +4456,7 @@
       <c r="C107" s="1">
         <v>43958</v>
       </c>
-      <c r="D107" s="2">
-        <v>2200</v>
-      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
@@ -4654,9 +4650,7 @@
       <c r="C114" s="1">
         <v>43965</v>
       </c>
-      <c r="D114" s="2">
-        <v>2062</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
@@ -4878,9 +4872,7 @@
       <c r="C122" s="1">
         <v>43972</v>
       </c>
-      <c r="D122" s="2">
-        <v>2135</v>
-      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
@@ -5018,9 +5010,7 @@
       <c r="C127" s="1">
         <v>43979</v>
       </c>
-      <c r="D127" s="2">
-        <v>2135</v>
-      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5099,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" ref="F130:F161" si="10">IF(E130="Healthcare",1,IF(E130="Food",2,IF(E130="Weekly pay",0,IF(E130="Clothing",3,IF(E130="Travel",4,IF(E130="Utilities",5))))))</f>
+        <f t="shared" ref="F130:F193" si="10">IF(E130="Healthcare",1,IF(E130="Food",2,IF(E130="Weekly pay",0,IF(E130="Clothing",3,IF(E130="Travel",4,IF(E130="Utilities",5))))))</f>
         <v>5</v>
       </c>
       <c r="G130" s="8">
@@ -5186,9 +5176,7 @@
       <c r="C133" s="1">
         <v>43986</v>
       </c>
-      <c r="D133" s="2">
-        <v>2000</v>
-      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
@@ -5326,9 +5314,7 @@
       <c r="C138" s="1">
         <v>43993</v>
       </c>
-      <c r="D138" s="2">
-        <v>2113</v>
-      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
@@ -5494,9 +5480,7 @@
       <c r="C144" s="1">
         <v>44000</v>
       </c>
-      <c r="D144" s="2">
-        <v>2062</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
@@ -5512,7 +5496,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -5540,7 +5524,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5568,7 +5552,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -5596,7 +5580,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -5624,7 +5608,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -5652,7 +5636,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -5662,9 +5646,7 @@
       <c r="C150" s="1">
         <v>44007</v>
       </c>
-      <c r="D150" s="2">
-        <v>2026</v>
-      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5662,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -5708,11 +5690,1416 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="1">
+        <v>43952</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2134</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G152" s="8">
+        <v>64</v>
+      </c>
+      <c r="I152" s="8">
+        <f>(J152-G152)</f>
+        <v>436</v>
+      </c>
+      <c r="J152" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="1">
+        <v>43953</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2026</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G153" s="8">
+        <v>62</v>
+      </c>
+      <c r="I153" s="8">
+        <f t="shared" ref="I153:I159" si="11">(I152-G153)</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1">
+        <v>43954</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G154" s="8">
+        <v>37</v>
+      </c>
+      <c r="I154" s="8">
+        <f t="shared" si="11"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="1">
+        <v>43954</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G155" s="8">
+        <v>29</v>
+      </c>
+      <c r="I155" s="8">
+        <f t="shared" si="11"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="1">
+        <v>43955</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G156" s="8">
+        <v>98</v>
+      </c>
+      <c r="I156" s="8">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1">
+        <v>43955</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G157" s="8">
+        <v>5</v>
+      </c>
+      <c r="I157" s="8">
+        <f t="shared" si="11"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="1">
+        <v>43956</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2067</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G158" s="8">
+        <v>82</v>
+      </c>
+      <c r="I158" s="8">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="1">
+        <v>43957</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2088</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G159" s="8">
+        <v>87</v>
+      </c>
+      <c r="I159" s="8">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="8">
+        <v>400</v>
+      </c>
+      <c r="I160" s="8">
+        <f>I159+H160</f>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2067</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G161" s="8">
+        <v>4</v>
+      </c>
+      <c r="I161" s="8">
+        <f>I160-G161</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G162" s="8">
+        <v>28</v>
+      </c>
+      <c r="I162" s="8">
+        <f t="shared" ref="I162:I168" si="12">I161-G162</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G163" s="8">
+        <v>8</v>
+      </c>
+      <c r="I163" s="8">
+        <f t="shared" si="12"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2026</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G164" s="8">
+        <v>95</v>
+      </c>
+      <c r="I164" s="8">
+        <f t="shared" si="12"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="1">
+        <v>43959</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2120</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G165" s="8">
+        <v>26</v>
+      </c>
+      <c r="I165" s="8">
+        <f t="shared" si="12"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1">
+        <v>43960</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G166" s="8">
+        <v>36</v>
+      </c>
+      <c r="I166" s="8">
+        <f t="shared" si="12"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1">
+        <v>43962</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2135</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G167" s="8">
+        <v>70</v>
+      </c>
+      <c r="I167" s="8">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1">
+        <v>43963</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2120</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G168" s="8">
+        <v>69</v>
+      </c>
+      <c r="I168" s="8">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="1">
+        <v>43965</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H169" s="8">
+        <v>400</v>
+      </c>
+      <c r="I169" s="8">
+        <f>I168+H169</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1">
+        <v>43967</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G170" s="8">
+        <v>25</v>
+      </c>
+      <c r="I170" s="8">
+        <f>I169-G170</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="1">
+        <v>43968</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2067</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G171" s="8">
+        <v>79</v>
+      </c>
+      <c r="I171" s="8">
+        <f t="shared" ref="I171:I173" si="13">I170-G171</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1">
+        <v>43969</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2135</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G172" s="8">
+        <v>60</v>
+      </c>
+      <c r="I172" s="8">
+        <f t="shared" si="13"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="1">
+        <v>43970</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2088</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G173" s="8">
+        <v>86</v>
+      </c>
+      <c r="I173" s="8">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="1">
+        <v>43972</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="8">
+        <v>400</v>
+      </c>
+      <c r="I174" s="8">
+        <f>I173+H174</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1">
+        <v>43973</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2134</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G175" s="8">
+        <v>91</v>
+      </c>
+      <c r="I175" s="8">
+        <f>I174-G175</f>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="1">
+        <v>43976</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G176" s="8">
+        <v>35</v>
+      </c>
+      <c r="I176" s="8">
+        <f t="shared" ref="I176:I179" si="14">I175-G176</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1">
+        <v>43977</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G177" s="8">
+        <v>73</v>
+      </c>
+      <c r="I177" s="8">
+        <f t="shared" si="14"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="1">
+        <v>43977</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G178" s="8">
+        <v>11</v>
+      </c>
+      <c r="I178" s="8">
+        <f t="shared" si="14"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1">
+        <v>43978</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G179" s="8">
+        <v>17</v>
+      </c>
+      <c r="I179" s="8">
+        <f t="shared" si="14"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="1">
+        <v>43979</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H180" s="8">
+        <v>400</v>
+      </c>
+      <c r="I180" s="8">
+        <f>I179+H180</f>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="1">
+        <v>43982</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G181" s="8">
+        <v>80</v>
+      </c>
+      <c r="I181" s="8">
+        <f>I180-G181</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="1">
+        <v>43985</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2134</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G182" s="8">
+        <v>63</v>
+      </c>
+      <c r="I182" s="8">
+        <f t="shared" ref="I182:I183" si="15">I181-G182</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="1">
+        <v>43985</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G183" s="8">
+        <v>13</v>
+      </c>
+      <c r="I183" s="8">
+        <f t="shared" si="15"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1">
+        <v>43986</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H184" s="8">
+        <v>400</v>
+      </c>
+      <c r="I184" s="8">
+        <f>I183+H184</f>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="1">
+        <v>43991</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2134</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G185" s="8">
+        <v>58</v>
+      </c>
+      <c r="I185" s="8">
+        <f>I184-G185</f>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="1">
+        <v>43992</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G186" s="8">
+        <v>73</v>
+      </c>
+      <c r="I186" s="8">
+        <f t="shared" ref="I186:I188" si="16">I185-G186</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" s="1">
+        <v>43993</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2088</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G187" s="8">
+        <v>33</v>
+      </c>
+      <c r="I187" s="8">
+        <f t="shared" si="16"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1">
+        <v>43993</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2026</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G188" s="8">
+        <v>71</v>
+      </c>
+      <c r="I188" s="8">
+        <f t="shared" si="16"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="1">
+        <v>43993</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="8">
+        <v>400</v>
+      </c>
+      <c r="I189" s="8">
+        <f>I188+H189</f>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="1">
+        <v>43994</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G190" s="8">
+        <v>80</v>
+      </c>
+      <c r="I190" s="8">
+        <f>I189-G190</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="1">
+        <v>43994</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G191" s="8">
+        <v>82</v>
+      </c>
+      <c r="I191" s="8">
+        <f t="shared" ref="I191:I193" si="17">I190-G191</f>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1">
+        <v>43997</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2088</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="G192" s="8">
+        <v>15</v>
+      </c>
+      <c r="I192" s="8">
+        <f t="shared" si="17"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="1">
+        <v>43999</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G193" s="8">
+        <v>96</v>
+      </c>
+      <c r="I193" s="8">
+        <f t="shared" si="17"/>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44000</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" ref="F194:F201" si="18">IF(E194="Healthcare",1,IF(E194="Food",2,IF(E194="Weekly pay",0,IF(E194="Clothing",3,IF(E194="Travel",4,IF(E194="Utilities",5))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H194" s="8">
+        <v>400</v>
+      </c>
+      <c r="I194" s="8">
+        <f>I193+H194</f>
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44001</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2088</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="G195" s="8">
+        <v>4</v>
+      </c>
+      <c r="I195" s="8">
+        <f>I194-G195</f>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44003</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2113</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="5">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G196" s="8">
+        <v>101</v>
+      </c>
+      <c r="I196" s="8">
+        <f t="shared" ref="I196:I198" si="19">I195-G196</f>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44004</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2062</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="5">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="G197" s="8">
+        <v>5</v>
+      </c>
+      <c r="I197" s="8">
+        <f t="shared" si="19"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44006</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2135</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="5">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G198" s="8">
+        <v>44</v>
+      </c>
+      <c r="I198" s="8">
+        <f t="shared" si="19"/>
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44007</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="8">
+        <v>400</v>
+      </c>
+      <c r="I199" s="8">
+        <f>I198+H199</f>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44009</v>
+      </c>
+      <c r="D200" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G200" s="8">
+        <v>60</v>
+      </c>
+      <c r="I200" s="8">
+        <f>I199-G200</f>
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44011</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2134</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G201" s="8">
+        <v>40</v>
+      </c>
+      <c r="I201" s="8">
+        <f>I200-G201</f>
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D209" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J51" xr:uid="{350FA436-74EA-4F04-85D4-A03C1EF72DB4}">
@@ -5723,85 +7110,100 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I52">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="E1 E152:E1048576">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+  <conditionalFormatting sqref="E1 E202:E1048576">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E51">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Weekly pay"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E51">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Weekly pay"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G51">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"Weekly pay"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H51">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E51">
+  <conditionalFormatting sqref="I2:I51">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G51">
+  <conditionalFormatting sqref="E52:E101">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H51">
+  <conditionalFormatting sqref="E52:E101">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I51">
+  <conditionalFormatting sqref="G52:G101">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E101">
+  <conditionalFormatting sqref="H52:H101">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E101">
+  <conditionalFormatting sqref="I52:I101">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G101">
+  <conditionalFormatting sqref="E102:E151">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H101">
+  <conditionalFormatting sqref="E102:E151">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I101">
+  <conditionalFormatting sqref="G102:G151">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E151">
+  <conditionalFormatting sqref="H102:H151">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E151">
+  <conditionalFormatting sqref="I102:I151">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102:G151">
+  <conditionalFormatting sqref="E152:E201">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102:H151">
+  <conditionalFormatting sqref="E152:E201">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102:I151">
+  <conditionalFormatting sqref="G152:I201">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Weekly pay"</formula>
     </cfRule>
